--- a/Services_CustomSearchExpertSystems/sample/parsed_content.xlsx
+++ b/Services_CustomSearchExpertSystems/sample/parsed_content.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>File</t>
   </si>
@@ -82,13 +82,127 @@
     <t>Determination of Tax Liability - TAX ON INDIVIDUALS</t>
   </si>
   <si>
+    <t>Determination of Tax Liability - TAX ON CORPORATIONS</t>
+  </si>
+  <si>
+    <t>Determination of Tax Liability - CREDITS AGAINST TAX - Nonrefundable Personal Credits</t>
+  </si>
+  <si>
+    <t>Partners and Partnerships - CONTRIBUTIONS, DISTRIBUTIONS, AND TRANSFERS - Contributions to a Partnership</t>
+  </si>
+  <si>
     <t>Tax imposed</t>
   </si>
   <si>
+    <t>Definitions and special rules</t>
+  </si>
+  <si>
+    <t>Tax tables for individuals</t>
+  </si>
+  <si>
+    <t>Expenses for household and dependent care services necessary for gainful employment</t>
+  </si>
+  <si>
+    <t>Credit for the elderly and the permanently and totally disabled</t>
+  </si>
+  <si>
+    <t>Adoption expenses</t>
+  </si>
+  <si>
+    <t>Child tax credit</t>
+  </si>
+  <si>
+    <t>Interest on certain home mortgages</t>
+  </si>
+  <si>
+    <t>Hope and Lifetime Learning credits</t>
+  </si>
+  <si>
+    <t>Elective deferrals and IRA contributions by certain individuals</t>
+  </si>
+  <si>
+    <t>Nonbusiness energy property</t>
+  </si>
+  <si>
+    <t>Basis of contributing partner’s interest</t>
+  </si>
+  <si>
     <t>§1. Tax imposed (a) Married individuals filing joint returns and surviving spouses There is hereby imposed on the taxable income of (1) every married individual (as defined in section 7703) who makes a single return jointly with his spouse under section 6013, and (2) every surviving spouse (as defined in section 2(a)), a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $36,900 15% of taxable income. Over $36,900 but not over $89,150 $5,535, plus 28% of the excess over $36,900. Over $89,150 but not over $140,000 $20,165, plus 31% of the excess over $89,150. Over $140,000 but not over $250,000 $35,928.50, plus 36% of the excess over $140,000. Over $250,000 $75,528.50, plus 39.6% of the excess over $250,000. (1) every married individual (as defined in section 7703) who makes a single return jointly with his spouse under section 6013, and every married individual (as defined in section 7703) who makes a single return jointly with his spouse under section 6013, and (2) every surviving spouse (as defined in section 2(a)), every surviving spouse (as defined in section 2(a)), a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $36,900 15% of taxable income. Over $36,900 but not over $89,150 $5,535, plus 28% of the excess over $36,900. Over $89,150 but not over $140,000 $20,165, plus 31% of the excess over $89,150. Over $140,000 but not over $250,000 $35,928.50, plus 36% of the excess over $140,000. Over $250,000 $75,528.50, plus 39.6% of the excess over $250,000. If taxable income is: The tax is: Not over $36,900 15% of taxable income. Over $36,900 but not over $89,150 $5,535, plus 28% of the excess over $36,900. Over $89,150 but not over $140,000 $20,165, plus 31% of the excess over $89,150. Over $140,000 but not over $250,000 $35,928.50, plus 36% of the excess over $140,000. Over $250,000 $75,528.50, plus 39.6% of the excess over $250,000. (b) Heads of households There is hereby imposed on the taxable income of every head of a household (as defined in section 2(b)) a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $29,600 15% of taxable income. Over $29,600 but not over $76,400 $4,440, plus 28% of the excess over $29,600. Over $76,400 but not over $127,500 $17,544, plus 31% of the excess over $76,400. Over $127,500 but not over $250,000 $33,385, plus 36% of the excess over $127,500. Over $250,000 $77,485, plus 39.6% of the excess over $250,000. There is hereby imposed on the taxable income of every head of a household (as defined in section 2(b)) a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $29,600 15% of taxable income. Over $29,600 but not over $76,400 $4,440, plus 28% of the excess over $29,600. Over $76,400 but not over $127,500 $17,544, plus 31% of the excess over $76,400. Over $127,500 but not over $250,000 $33,385, plus 36% of the excess over $127,500. Over $250,000 $77,485, plus 39.6% of the excess over $250,000. If taxable income is: The tax is: Not over $29,600 15% of taxable income. Over $29,600 but not over $76,400 $4,440, plus 28% of the excess over $29,600. Over $76,400 but not over $127,500 $17,544, plus 31% of the excess over $76,400. Over $127,500 but not over $250,000 $33,385, plus 36% of the excess over $127,500. Over $250,000 $77,485, plus 39.6% of the excess over $250,000. (c) Unmarried individuals (other than surviving spouses and heads of households) There is hereby imposed on the taxable income of every individual (other than a surviving spouse as defined in section 2(a) or the head of a household as defined in section 2(b)) who is not a married individual (as defined in section 7703) a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $22,100 15% of taxable income. Over $22,100 but not over $53,500 $3,315, plus 28% of the excess over $22,100. Over $53,500 but not over $115,000 $12,107, plus 31% of the excess over $53,500. Over $115,000 but not over $250,000 $31,172, plus 36% of the excess over $115,000. Over $250,000 $79,772, plus 39.6% of the excess over $250,000. There is hereby imposed on the taxable income of every individual (other than a surviving spouse as defined in section 2(a) or the head of a household as defined in section 2(b)) who is not a married individual (as defined in section 7703) a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $22,100 15% of taxable income. Over $22,100 but not over $53,500 $3,315, plus 28% of the excess over $22,100. Over $53,500 but not over $115,000 $12,107, plus 31% of the excess over $53,500. Over $115,000 but not over $250,000 $31,172, plus 36% of the excess over $115,000. Over $250,000 $79,772, plus 39.6% of the excess over $250,000. If taxable income is: The tax is: Not over $22,100 15% of taxable income. Over $22,100 but not over $53,500 $3,315, plus 28% of the excess over $22,100. Over $53,500 but not over $115,000 $12,107, plus 31% of the excess over $53,500. Over $115,000 but not over $250,000 $31,172, plus 36% of the excess over $115,000. Over $250,000 $79,772, plus 39.6% of the excess over $250,000. (d) Married individuals filing separate returns There is hereby imposed on the taxable income of every married individual (as defined in section 7703) who does not make a single return jointly with his spouse under section 6013, a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $18,450 15% of taxable income. Over $18,450 but not over $44,575 $2,767.50, plus 28% of the excess over $18,450. Over $44,575 but not over $70,000 $10,082.50, plus 31% of the excess over $44,575. Over $70,000 but not over $125,000 $17,964.25, plus 36% of the excess over $70,000. Over $125,000 $37,764.25, plus 39.6% of the excess over $125,000. There is hereby imposed on the taxable income of every married individual (as defined in section 7703) who does not make a single return jointly with his spouse under section 6013, a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $18,450 15% of taxable income. Over $18,450 but not over $44,575 $2,767.50, plus 28% of the excess over $18,450. Over $44,575 but not over $70,000 $10,082.50, plus 31% of the excess over $44,575. Over $70,000 but not over $125,000 $17,964.25, plus 36% of the excess over $70,000. Over $125,000 $37,764.25, plus 39.6% of the excess over $125,000. If taxable income is: The tax is: Not over $18,450 15% of taxable income. Over $18,450 but not over $44,575 $2,767.50, plus 28% of the excess over $18,450. Over $44,575 but not over $70,000 $10,082.50, plus 31% of the excess over $44,575. Over $70,000 but not over $125,000 $17,964.25, plus 36% of the excess over $70,000. Over $125,000 $37,764.25, plus 39.6% of the excess over $125,000. (e) Estates and trusts There is hereby imposed on the taxable income of (1) every estate, and (2) every trust, taxable under this subsection a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $1,500 15% of taxable income. Over $1,500 but not over $3,500 $225, plus 28% of the excess over $1,500. Over $3,500 but not over $5,500 $785, plus 31% of the excess over $3,500. Over $5,500 but not over $7,500 $1,405, plus 36% of the excess over $5,500. Over $7,500 $2,125, plus 39.6% of the excess over $7,500. (1) every estate, and every estate, and (2) every trust, every trust, taxable under this subsection a tax determined in accordance with the following table: If taxable income is: The tax is: Not over $1,500 15% of taxable income. Over $1,500 but not over $3,500 $225, plus 28% of the excess over $1,500. Over $3,500 but not over $5,500 $785, plus 31% of the excess over $3,500. Over $5,500 but not over $7,500 $1,405, plus 36% of the excess over $5,500. Over $7,500 $2,125, plus 39.6% of the excess over $7,500. If taxable income is: The tax is: Not over $1,500 15% of taxable income. Over $1,500 but not over $3,500 $225, plus 28% of the excess over $1,500. Over $3,500 but not over $5,500 $785, plus 31% of the excess over $3,500. Over $5,500 but not over $7,500 $1,405, plus 36% of the excess over $5,500. Over $7,500 $2,125, plus 39.6% of the excess over $7,500. (f) Phaseout of marriage penalty in 15-percent bracket; adjustments in tax tables so that inflation will not result in tax increases (1) In general Not later than December 15 of 1993, and each subsequent calendar year, the Secretary shall prescribe tables which shall apply in lieu of the tables contained in subsections (a), (b), (c), (d), and (e) with respect to taxable years beginning in the succeeding calendar year. (2) Method of prescribing tables The table which under paragraph (1) is to apply in lieu of the table contained in subsection (a), (b), (c), (d), or (e), as the case may be, with respect to taxable years beginning in any calendar year shall be prescribed (A) except as provided in paragraph (8), by increasing the minimum and maximum dollar amounts for each rate bracket for which a tax is imposed under such table by the cost-of-living adjustment for such calendar year, (B) by not changing the rate applicable to any rate bracket as adjusted under subparagraph (A), and (C) by adjusting the amounts setting forth the tax to the extent necessary to reflect the adjustments in the rate brackets. (3) Cost-of-living adjustment For purposes of paragraph (2), the cost-of-living adjustment for any calendar year is the percentage (if any) by which (A) the CPI for the preceding calendar year, exceeds (B) the CPI for the calendar year 1992. (4) CPI for any calendar year For purposes of paragraph (3), the CPI for any calendar year is the average of the Consumer Price Index as of the close of the 12-month period ending on August 31 of such calendar year. (5) Consumer Price Index For purposes of paragraph (4), the term Consumer Price Index means the last Consumer Price Index for all-urban consumers published by the Department of Labor. For purposes of the preceding sentence, the revision of the Consumer Price Index which is most consistent with the Consumer Price Index for calendar year 1986 shall be used. (6) Rounding (A) In general If any increase determined under paragraph (2)(A), section 63(c)(4), section 68(b)(2) or section 151(d)(4) is not a multiple of $50, such increase shall be rounded to the next lowest multiple of $50. (B) Table for married individuals filing separately In the case of a married individual filing a separate return, subparagraph (A) (other than with respect to sections 63(c)(4) and 151(d)(4)(A)) shall be applied by substituting $25 for $50 each place it appears. (7) Special rule for certain brackets In prescribing tables under paragraph (1) which apply to taxable years beginning in a calendar year after 1994, the cost-of-living adjustment used in making adjustments to the dollar amounts at which the 36 percent rate bracket begins or at which the 39.6 percent rate bracket begins shall be determined under paragraph (3) by substituting 1993 for 1992. (8) Elimination of marriage penalty in 15-percent bracket With respect to taxable years beginning after December 31, 2003 , in prescribing the tables under paragraph (1) (A) the maximum taxable income in the 15-percent rate bracket in the table contained in subsection (a) (and the minimum taxable income in the next higher taxable income bracket in such table) shall be 200 percent of the maximum taxable income in the 15-percent rate bracket in the table contained in subsection (c) (after any other adjustment under this subsection), and (B) the comparable taxable income amounts in the table contained in subsection (d) shall be ½ of the amounts determined under subparagraph (A). (1) In general Not later than December 15 of 1993, and each subsequent calendar year, the Secretary shall prescribe tables which shall apply in lieu of the tables contained in subsections (a), (b), (c), (d), and (e) with respect to taxable years beginning in the succeeding calendar year. Not later than December 15 of 1993, and each subsequent calendar year, the Secretary shall prescribe tables which shall apply in lieu of the tables contained in subsections (a), (b), (c), (d), and (e) with respect to taxable years beginning in the succeeding calendar year. (2) Method of prescribing tables The table which under paragraph (1) is to apply in lieu of the table contained in subsection (a), (b), (c), (d), or (e), as the case may be, with respect to taxable years beginning in any calendar year shall be prescribed (A) except as provided in paragraph (8), by increasing the minimum and maximum dollar amounts for each rate bracket for which a tax is imposed under such table by the cost-of-living adjustment for such calendar year, (B) by not changing the rate applicable to any rate bracket as adjusted under subparagraph (A), and (C) by adjusting the amounts setting forth the tax to the extent necessary to reflect the adjustments in the rate brackets. (A) except as provided in paragraph (8), by increasing the minimum and maximum dollar amounts for each rate bracket for which a tax is imposed under such table by the cost-of-living adjustment for such calendar year, except as provided in paragraph (8), by increasing the minimum and maximum dollar amounts for each rate bracket for which a tax is imposed under such table by the cost-of-living adjustment for such calendar year, (B) by not changing the rate applicable to any rate bracket as adjusted under subparagraph (A), and by not changing the rate applicable to any rate bracket as adjusted under subparagraph (A), and (C) by adjusting the amounts setting forth the tax to the extent necessary to reflect the adjustments in the rate brackets. by adjusting the amounts setting forth the tax to the extent necessary to reflect the adjustments in the rate brackets. (3) Cost-of-living adjustment For purposes of paragraph (2), the cost-of-living adjustment for any calendar year is the percentage (if any) by which (A) the CPI for the preceding calendar year, exceeds (B) the CPI for the calendar year 1992. (A) the CPI for the preceding calendar year, exceeds the CPI for the preceding calendar year, exceeds (B) the CPI for the calendar year 1992. the CPI for the calendar year 1992. (4) CPI for any calendar year For purposes of paragraph (3), the CPI for any calendar year is the average of the Consumer Price Index as of the close of the 12-month period ending on August 31 of such calendar year. For purposes of paragraph (3), the CPI for any calendar year is the average of the Consumer Price Index as of the close of the 12-month period ending on August 31 of such calendar year. (5) Consumer Price Index For purposes of paragraph (4), the term Consumer Price Index means the last Consumer Price Index for all-urban consumers published by the Department of Labor. For purposes of the preceding sentence, the revision of the Consumer Price Index which is most consistent with the Consumer Price Index for calendar year 1986 shall be used. For purposes of paragraph (4), the term Consumer Price Index means the last Consumer Price Index for all-urban consumers published by the Department of Labor. For purposes of the preceding sentence, the revision of the Consumer Price Index which is most consistent with the Consumer Price Index for calendar year 1986 shall be used. (6) Rounding (A) In general If any increase determined under paragraph (2)(A), section 63(c)(4), section 68(b)(2) or section 151(d)(4) is not a multiple of $50, such increase shall be rounded to the next lowest multiple of $50. (B) Table for married individuals filing separately In the case of a married individual filing a separate return, subparagraph (A) (other than with respect to sections 63(c)(4) and 151(d)(4)(A)) shall be applied by substituting $25 for $50 each place it appears. (A) In general If any increase determined under paragraph (2)(A), section 63(c)(4), section 68(b)(2) or section 151(d)(4) is not a multiple of $50, such increase shall be rounded to the next lowest multiple of $50. If any increase determined under paragraph (2)(A), section 63(c)(4), section 68(b)(2) or section 151(d)(4) is not a multiple of $50, such increase shall be rounded to the next lowest multiple of $50. (B) Table for married individuals filing separately In the case of a married individual filing a separate return, subparagraph (A) (other than with respect to sections 63(c)(4) and 151(d)(4)(A)) shall be applied by substituting $25 for $50 each place it appears. In the case of a married individual filing a separate return, subparagraph (A) (other than with respect to sections 63(c)(4) and 151(d)(4)(A)) shall be applied by substituting $25 for $50 each place it appears. (7) Special rule for certain brackets In prescribing tables under paragraph (1) which apply to taxable years beginning in a calendar year after 1994, the cost-of-living adjustment used in making adjustments to the dollar amounts at which the 36 percent rate bracket begins or at which the 39.6 percent rate bracket begins shall be determined under paragraph (3) by substituting 1993 for 1992. In prescribing tables under paragraph (1) which apply to taxable years beginning in a calendar year after 1994, the cost-of-living adjustment used in making adjustments to the dollar amounts at which the 36 percent rate bracket begins or at which the 39.6 percent rate bracket begins shall be determined under paragraph (3) by substituting 1993 for 1992. (8) Elimination of marriage penalty in 15-percent bracket With respect to taxable years beginning after December 31, 2003 , in prescribing the tables under paragraph (1) (A) the maximum taxable income in the 15-percent rate bracket in the table contained in subsection (a) (and the minimum taxable income in the next higher taxable income bracket in such table) shall be 200 percent of the maximum taxable income in the 15-percent rate bracket in the table contained in subsection (c) (after any other adjustment under this subsection), and (B) the comparable taxable income amounts in the table contained in subsection (d) shall be ½ of the amounts determined under subparagraph (A). (A) the maximum taxable income in the 15-percent rate bracket in the table contained in subsection (a) (and the minimum taxable income in the next higher taxable income bracket in such table) shall be 200 percent of the maximum taxable income in the 15-percent rate bracket in the table contained in subsection (c) (after any other adjustment under this subsection), and the maximum taxable income in the 15-percent rate bracket in the table contained in subsection (a) (and the minimum taxable income in the next higher taxable income bracket in such table) shall be 200 percent of the maximum taxable income in the 15-percent rate bracket in the table contained in subsection (c) (after any other adjustment under this subsection), and (B) the comparable taxable income amounts in the table contained in subsection (d) shall be ½ of the amounts determined under subparagraph (A). the comparable taxable income amounts in the table contained in subsection (d) shall be ½ of the amounts determined under subparagraph (A). (g) Certain unearned income of children taxed as if parents income (1) In general In the case of any child to whom this subsection applies, the tax imposed by this section shall be equal to the greater of (A) the tax imposed by this section without regard to this subsection, or (B) the sum of (i) the tax which would be imposed by this section if the taxable income of such child for the taxable year were reduced by the net unearned income of such child, plus (ii) such childs share of the allocable parental tax. (2) Child to whom subsection applies This subsection shall apply to any child for any taxable year if (A) such child (i) has not attained age 18 before the close of the taxable year, or (ii) (I) has attained age 18 before the close of the taxable year and meets the age requirements of section 152(c)(3) (determined without regard to subparagraph (B) thereof), and (II) whose earned income (as defined in section 911(d)(2)) for such taxable year does not exceed one-half of the amount of the individuals support (within the meaning of section 152(c)(1)(D) after the application of section 152(f)(5) (without regard to subparagraph (A) thereof)) for such taxable year, (B) either parent of such child is alive at the close of the taxable year, and (C) such child does not file a joint return for the taxable year. (3) Allocable parental tax For purposes of this subsection (A) In general The term allocable parental tax means the excess of (i) the tax which would be imposed by this section on the parents taxable income if such income included the net unearned income of all children of the parent to whom this subsection applies, over (ii) the tax imposed by this section on the parent without regard to this subsection. For purposes of clause (i), net unearned income of all children of the parent shall not be taken into account in computing any exclusion, deduction, or credit of the parent. (B) Childs share A childs share of any allocable parental tax of a parent shall be equal to an amount which bears the same ratio to the total allocable parental tax as the childs net unearned income bears to the aggregate net unearned income of all children of such parent to whom this subsection applies. (C) Special rule where parent has different taxable year Except as provided in regulations, if the parent does not have the same taxable year as the child, the allocable parental tax shall be determined on the basis of the taxable year of the parent ending in the childs taxable year. (4) Net unearned income For purposes of this subsection (A) In general The term net unearned income means the excess of (i) the portion of the adjusted gross income for the taxable year which is not attributable to earned income (as defined in section 911(d)(2)), over (ii) the sum of (I) the amount in effect for the taxable year under section 63(c)(5)(A) (relating to limitation on standard deduction in the case of certain dependents), plus (II) the greater of the amount described in subclause (I) or, if the child itemizes his deductions for the taxable year, the amount of the itemized deductions allowed by this chapter for the taxable year which are directly connected with the production of the portion of adjusted gross income referred to in clause (i). (B) Limitation based on taxable income The amount of the net unearned income for any taxable year shall not exceed the individuals taxable income for such taxable year. (C) Treatment of distributions from qualified disability trusts For purposes of this subsection, in the case of any child who is a beneficiary of a qualified disability trust (as defined in section 642(b)(2)(C)(ii)), any amount included in the income of such child under sections 652 and 662 during a taxable year shall be considered earned income of such child for such taxable year. (5) Special rules for determining parent to whom subsection applies For purposes of this subsection, the parent whose taxable income shall be taken into account shall be (A) in the case of parents who are not married (within the meaning of section 7703), the custodial parent (within the meaning of section 152(e)) of the child, and (B) in the case of married individuals filing separately, the individual with the greater taxable income. (6) Providing of parents TIN The parent of any child to whom this subsection applies for any taxable year shall provide the TIN of such parent to such child and such child shall include such TIN on the childs return of tax imposed by this section for such taxable year. (7) Election to claim certain unearned income of child on parents return (A) In general If (i) any child to whom this subsection applies has gross income for the taxable year only from interest and dividends (including Alaska Permanent Fund dividends), (ii) such gross income is more than the amount described in paragraph (4)(A)(ii)(I) and less than 10 times the amount so described, (iii) no estimated tax payments for such year are made in the name and TIN of such child, and no amount has been deducted and withheld under section 3406, and (iv) the parent of such child (as determined under paragraph (5)) elects the application of subparagraph (B), such child shall be treated (other than for purposes of this paragraph) as having no gross income for such year and shall not be required to file a return under section 6012. (B) Income included on parents return In the case of a parent making the election under this paragraph (i) the gross income of each child to whom such election applies (to the extent the gross income of such child exceeds twice the amount described in paragraph (4)(A)(ii)(I)) shall be included in such parents gross income for the taxable year, (ii) the tax imposed by this section for such year with respect to such parent shall be the amount equal to the sum of (I) the amount determined under this section after the application of clause (i), plus (II) for each such child, 10 percent of the lesser of the amount described in paragraph (4)(A)(ii)(I) or the excess of the gross income of such child over the amount so described, and (iii) any interest which is an item of tax preference under section 57(a)(5) of the child shall be treated as an item of tax preference of such parent (and not of such child). (C) Regulations The Secretary shall prescribe such regulations as may be necessary or appropriate to carry out the purposes of this paragraph. (1) In general In the case of any child to whom this subsection applies, the tax imposed by this section shall be equal to the greater of (A) the tax imposed by this section without regard to this subsection, or (B) the sum of (i) the tax which would be imposed by this section if the taxable income of such child for the taxable year were reduced by the net unearned income of such child, plus (ii) such childs share of the allocable parental tax. (A) the tax imposed by this section without regard to this subsection, or the tax imposed by this section without regard to this subsection, or (B) the sum of (i) the tax which would be imposed by this section if the taxable income of such child for the taxable year were reduced by the net unearned income of such child, plus (ii) such childs share of the allocable parental tax. (i) the tax which would be imposed by this section if the taxable income of such child for the taxable year were reduced by the net unearned income of such child, plus the tax which would be imposed by this section if the taxable income of such child for the taxable year were reduced by the net unearned income of such child, plus (ii) such childs share of the allocable parental tax. such childs share of the allocable parental tax. (2) Child to whom subsection applies This subsection shall apply to any child for any taxable year if (A) such child (i) has not attained age 18 before the close of the taxable year, or (ii) (I) has attained age 18 before the close of the taxable year and meets the age requirements of section 152(c)(3) (determined without regard to subparagraph (B) thereof), and (II) whose earned income (as defined in section 911(d)(2)) for such taxable year does not exceed one-half of the amount of the individuals support (within the meaning of section 152(c)(1)(D) after the application of section 152(f)(5) (without regard to subparagraph (A) thereof)) for such taxable year, (B) either parent of such child is alive at the close of the taxable year, and (C) such child does not file a joint return for the taxable year. (A) such child (i) has not attained age 18 before the close of the taxable year, or (ii) (I) has attained age 18 before the close of the taxable year and meets the age requirements of section 152(c)(3) (determined without regard to subparagraph (B) thereof), and (II) whose earned income (as defined in section 911(d)(2)) for such taxable year does not exceed one-half of the amount of the individuals support (within the meaning of section 152(c)(1)(D) after the application of section 152(f)(5) (without regard to subparagraph (A) thereof)) for such taxable year, (i) has not attained age 18 before the close of the taxable year, or has not attained age 18 before the close of the taxable year, or (ii) (I) has attained age 18 before the close of the taxable year and meets the age requirements of section 152(c)(3) (determined without regard to subparagraph (B) thereof), and (II) whose earned income (as defined in section 911(d)(2)) for such taxable year does not exceed one-half of the amount of the individuals support (within the meaning of section 152(c)(1)(D) after the application of section 152(f)(5) (without regard to subparagraph (A) thereof)) for such taxable year, (I) has attained age 18 before the close of the taxable year and meets the age requirements of section 152(c)(3) (determined without regard to subparagraph (B) thereof), and has attained age 18 before the close of the taxable year and meets the age requirements of section 152(c)(3) (determined without regard to subparagraph (B) thereof), and (II) whose earned income (as defined in section 911(d)(2)) for such taxable year does not exceed one-half of the amount of the individuals support (within the meaning of section 152(c)(1)(D) after the application of section 152(f)(5) (without regard to subparagraph (A) thereof)) for such taxable year, whose earned income (as defined in section 911(d)(2)) for such taxable year does not exceed one-half of the amount of the individuals support (within the meaning of section 152(c)(1)(D) after the application of section 152(f)(5) (without regard to subparagraph (A) thereof)) for such taxable year, (B) either parent of such child is alive at the close of the taxable year, and either parent of such child is alive at the close of the taxable year, and (C) such child does not file a joint return for the taxable year. such child does not file a joint return for the taxable year. (3) Allocable parental tax For purposes of this subsection (A) In general The term allocable parental tax means the excess of (i) the tax which would be imposed by this section on the parents taxable income if such income included the net unearned income of all children of the parent to whom this subsection applies, over (ii) the tax imposed by this section on the parent without regard to this subsection. For purposes of clause (i), net unearned income of all children of the parent shall not be taken into account in computing any exclusion, deduction, or credit of the parent. (B) Childs share A childs share of any allocable parental tax of a parent shall be equal to an amount which bears the same ratio to the total allocable parental tax as the childs net unearned income bears to the aggregate net unearned income of all children of such parent to whom this subsection applies. (C) Special rule where parent has different taxable year Except as provided in regulations, if the parent does not have the same taxable year as the child, the allocable parental tax shall be determined on the basis of the taxable year of the parent ending in the childs taxable year. (A) In general The term allocable parental tax means the excess of (i) the tax which would be imposed by this section on the parents taxable income if such income included the net unearned income of all children of the parent to whom this subsection applies, over (ii) the tax imposed by this section on the parent without regard to this subsection. For purposes of clause (i), net unearned income of all children of the parent shall not be taken into account in computing any exclusion, deduction, or credit of the parent. (i) the tax which would be imposed by this section on the parents taxable income if such income included the net unearned income of all children of the parent to whom this subsection applies, over the tax which would be imposed by this section on the parents taxable income if such income included the net unearned income of all children of the parent to whom this subsection applies, over (ii) the tax imposed by this section on the parent without regard to this subsection. the tax imposed by this section on the parent without regard to this subsection. For purposes of clause (i), net unearned income of all children of the parent shall not be taken into account in computing any exclusion, deduction, or credit of the parent. (B) Childs share A childs share of any allocable parental tax of a parent shall be</t>
   </si>
   <si>
+    <t>§2. Definitions and special rules (a) Definition of surviving spouse (1) In general For purposes of section 1, the term surviving spouse means a taxpayer (A) whose spouse died during either of his two taxable years immediately preceding the taxable year, and (B) who maintains as his home a household which constitutes for the taxable year the principal place of abode (as a member of such household) of a dependent (i) who (within the meaning of section 152, determined without regard to subsections (b)(1), (b)(2), and (d)(1)(B) thereof) is a son, stepson, daughter, or stepdaughter of the taxpayer, and (ii) with respect to whom the taxpayer is entitled to a deduction for the taxable year under section 151. For purposes of this paragraph, an individual shall be considered as maintaining a household only if over half of the cost of maintaining the household during the taxable year is furnished by such individual. (2) Limitations Notwithstanding paragraph (1), for purposes of section 1 a taxpayer shall not be considered to be a surviving spouse (A) if the taxpayer has remarried at any time before the close of the taxable year, or (B) unless, for the taxpayers taxable year during which his spouse died, a joint return could have been made under the provisions of section 6013 (without regard to subsection (a)(3) thereof). (3) Special rule where deceased spouse was in missing status If an individual was in a missing status (within the meaning of section 6013(f)(3)) as a result of service in a combat zone (as determined for purposes of section 112) and if such individual remains in such status until the date referred to in subparagraph (A) or (B), then, for purposes of paragraph (1)(A), the date on which such individual died shall be treated as the earlier of the date determined under subparagraph (A) or the date determined under subparagraph (B): (A) the date on which the determination is made under section 556 of title 37 of the United States Code or under section 5566 of title 5 of such Code (whichever is applicable) that such individual died while in such missing status, or (B) except in the case of the combat zone designated for purposes of the Vietnam conflict, the date which is 2 years after the date designated under section 112 as the date of termination of combatant activities in that zone. (1) In general For purposes of section 1, the term surviving spouse means a taxpayer (A) whose spouse died during either of his two taxable years immediately preceding the taxable year, and (B) who maintains as his home a household which constitutes for the taxable year the principal place of abode (as a member of such household) of a dependent (i) who (within the meaning of section 152, determined without regard to subsections (b)(1), (b)(2), and (d)(1)(B) thereof) is a son, stepson, daughter, or stepdaughter of the taxpayer, and (ii) with respect to whom the taxpayer is entitled to a deduction for the taxable year under section 151. For purposes of this paragraph, an individual shall be considered as maintaining a household only if over half of the cost of maintaining the household during the taxable year is furnished by such individual. (A) whose spouse died during either of his two taxable years immediately preceding the taxable year, and whose spouse died during either of his two taxable years immediately preceding the taxable year, and (B) who maintains as his home a household which constitutes for the taxable year the principal place of abode (as a member of such household) of a dependent (i) who (within the meaning of section 152, determined without regard to subsections (b)(1), (b)(2), and (d)(1)(B) thereof) is a son, stepson, daughter, or stepdaughter of the taxpayer, and (ii) with respect to whom the taxpayer is entitled to a deduction for the taxable year under section 151. who maintains as his home a household which constitutes for the taxable year the principal place of abode (as a member of such household) of a dependent (i) who (within the meaning of section 152, determined without regard to subsections (b)(1), (b)(2), and (d)(1)(B) thereof) is a son, stepson, daughter, or stepdaughter of the taxpayer, and (ii) with respect to whom the taxpayer is entitled to a deduction for the taxable year under section 151. For purposes of this paragraph, an individual shall be considered as maintaining a household only if over half of the cost of maintaining the household during the taxable year is furnished by such individual. (2) Limitations Notwithstanding paragraph (1), for purposes of section 1 a taxpayer shall not be considered to be a surviving spouse (A) if the taxpayer has remarried at any time before the close of the taxable year, or (B) unless, for the taxpayers taxable year during which his spouse died, a joint return could have been made under the provisions of section 6013 (without regard to subsection (a)(3) thereof). (A) if the taxpayer has remarried at any time before the close of the taxable year, or if the taxpayer has remarried at any time before the close of the taxable year, or (B) unless, for the taxpayers taxable year during which his spouse died, a joint return could have been made under the provisions of section 6013 (without regard to subsection (a)(3) thereof). unless, for the taxpayers taxable year during which his spouse died, a joint return could have been made under the provisions of section 6013 (without regard to subsection (a)(3) thereof). (3) Special rule where deceased spouse was in missing status If an individual was in a missing status (within the meaning of section 6013(f)(3)) as a result of service in a combat zone (as determined for purposes of section 112) and if such individual remains in such status until the date referred to in subparagraph (A) or (B), then, for purposes of paragraph (1)(A), the date on which such individual died shall be treated as the earlier of the date determined under subparagraph (A) or the date determined under subparagraph (B): (A) the date on which the determination is made under section 556 of title 37 of the United States Code or under section 5566 of title 5 of such Code (whichever is applicable) that such individual died while in such missing status, or (B) except in the case of the combat zone designated for purposes of the Vietnam conflict, the date which is 2 years after the date designated under section 112 as the date of termination of combatant activities in that zone. (A) the date on which the determination is made under section 556 of title 37 of the United States Code or under section 5566 of title 5 of such Code (whichever is applicable) that such individual died while in such missing status, or the date on which the determination is made under section 556 of title 37 of the United States Code or under section 5566 of title 5 of such Code (whichever is applicable) that such individual died while in such missing status, or (B) except in the case of the combat zone designated for purposes of the Vietnam conflict, the date which is 2 years after the date designated under section 112 as the date of termination of combatant activities in that zone. except in the case of the combat zone designated for purposes of the Vietnam conflict, the date which is 2 years after the date designated under section 112 as the date of termination of combatant activities in that zone. (b) Definition of head of household (1) In general For purposes of this subtitle, an individual shall be considered a head of a household if, and only if, such individual is not married at the close of his taxable year, is not a surviving spouse (as defined in subsection (a)), and either (A) maintains as his home a household which constitutes for more than one-half of such taxable year the principal place of abode, as a member of such household, of (i) a qualifying child of the individual (as defined in section 152(c), determined without regard to section 152(e)), but not if such child (I) is married at the close of the taxpayers taxable year, and (II) is not a dependent of such individual by reason of section 152(b)(2) or 152(b)(3), or both, or (ii) any other person who is a dependent of the taxpayer, if the taxpayer is entitled to a deduction for the taxable year for such person under section 151, or (B) maintains a household which constitutes for such taxable year the principal place of abode of the father or mother of the taxpayer, if the taxpayer is entitled to a deduction for the taxable year for such father or mother under section 151. For purposes of this paragraph, an individual shall be considered as maintaining a household only if over half of the cost of maintaining the household during the taxable year is furnished by such individual. (2) Determination of status For purposes of this subsection (A) an individual who is legally separated from his spouse under a decree of divorce or of separate maintenance shall not be considered as married; (B) a taxpayer shall be considered as not married at the close of his taxable year if at any time during the taxable year his spouse is a nonresident alien; and (C) a taxpayer shall be considered as married at the close of his taxable year if his spouse (other than a spouse described in subparagraph (B)) died during the taxable year. (3) Limitations Notwithstanding paragraph (1), for purposes of this subtitle a taxpayer shall not be considered to be a head of a household (A) if at any time during the taxable year he is a nonresident alien; or (B) by reason of an individual who would not be a dependent for the taxable year but for (i) subparagraph (H) of section 152(d)(2), or (ii) paragraph (3) of section 152(d). (1) In general For purposes of this subtitle, an individual shall be considered a head of a household if, and only if, such individual is not married at the close of his taxable year, is not a surviving spouse (as defined in subsection (a)), and either (A) maintains as his home a household which constitutes for more than one-half of such taxable year the principal place of abode, as a member of such household, of (i) a qualifying child of the individual (as defined in section 152(c), determined without regard to section 152(e)), but not if such child (I) is married at the close of the taxpayers taxable year, and (II) is not a dependent of such individual by reason of section 152(b)(2) or 152(b)(3), or both, or (ii) any other person who is a dependent of the taxpayer, if the taxpayer is entitled to a deduction for the taxable year for such person under section 151, or (B) maintains a household which constitutes for such taxable year the principal place of abode of the father or mother of the taxpayer, if the taxpayer is entitled to a deduction for the taxable year for such father or mother under section 151. For purposes of this paragraph, an individual shall be considered as maintaining a household only if over half of the cost of maintaining the household during the taxable year is furnished by such individual. (A) maintains as his home a household which constitutes for more than one-half of such taxable year the principal place of abode, as a member of such household, of (i) a qualifying child of the individual (as defined in section 152(c), determined without regard to section 152(e)), but not if such child (I) is married at the close of the taxpayers taxable year, and (II) is not a dependent of such individual by reason of section 152(b)(2) or 152(b)(3), or both, or (ii) any other person who is a dependent of the taxpayer, if the taxpayer is entitled to a deduction for the taxable year for such person under section 151, or (i) a qualifying child of the individual (as defined in section 152(c), determined without regard to section 152(e)), but not if such child (I) is married at the close of the taxpayers taxable year, and (II) is not a dependent of such individual by reason of section 152(b)(2) or 152(b)(3), or both, or (I) is married at the close of the taxpayers taxable year, and is married at the close of the taxpayers taxable year, and (II) is not a dependent of such individual by reason of section 152(b)(2) or 152(b)(3), or both, or is not a dependent of such individual by reason of section 152(b)(2) or 152(b)(3), or both, or (ii) any other person who is a dependent of the taxpayer, if the taxpayer is entitled to a deduction for the taxable year for such person under section 151, or any other person who is a dependent of the taxpayer, if the taxpayer is entitled to a deduction for the taxable year for such person under section 151, or (B) maintains a household which constitutes for such taxable year the principal place of abode of the father or mother of the taxpayer, if the taxpayer is entitled to a deduction for the taxable year for such father or mother under section 151. maintains a household which constitutes for such taxable year the principal place of abode of the father or mother of the taxpayer, if the taxpayer is entitled to a deduction for the taxable year for such father or mother under section 151. For purposes of this paragraph, an individual shall be considered as maintaining a household only if over half of the cost of maintaining the household during the taxable year is furnished by such individual. (2) Determination of status For purposes of this subsection (A) an individual who is legally separated from his spouse under a decree of divorce or of separate maintenance shall not be considered as married; (B) a taxpayer shall be considered as not married at the close of his taxable year if at any time during the taxable year his spouse is a nonresident alien; and (C) a taxpayer shall be considered as married at the close of his taxable year if his spouse (other than a spouse described in subparagraph (B)) died during the taxable year. (A) an individual who is legally separated from his spouse under a decree of divorce or of separate maintenance shall not be considered as married; an individual who is legally separated from his spouse under a decree of divorce or of separate maintenance shall not be considered as married; (B) a taxpayer shall be considered as not married at the close of his taxable year if at any time during the taxable year his spouse is a nonresident alien; and a taxpayer shall be considered as not married at the close of his taxable year if at any time during the taxable year his spouse is a nonresident alien; and (C) a taxpayer shall be considered as married at the close of his taxable year if his spouse (other than a spouse described in subparagraph (B)) died during the taxable year. a taxpayer shall be considered as married at the close of his taxable year if his spouse (other than a spouse described in subparagraph (B)) died during the taxable year. (3) Limitations Notwithstanding paragraph (1), for purposes of this subtitle a taxpayer shall not be considered to be a head of a household (A) if at any time during the taxable year he is a nonresident alien; or (B) by reason of an individual who would not be a dependent for the taxable year but for (i) subparagraph (H) of section 152(d)(2), or (ii) paragraph (3) of section 152(d). (A) if at any time during the taxable year he is a nonresident alien; or if at any time during the taxable year he is a nonresident alien; or (B) by reason of an individual who would not be a dependent for the taxable year but for (i) subparagraph (H) of section 152(d)(2), or (ii) paragraph (3) of section 152(d). (i) subparagraph (H) of section 152(d)(2), or subparagraph (H) of section 152(d)(2), or (ii) paragraph (3) of section 152(d). paragraph (3) of section 152(d). (c) Certain married individuals living apart For purposes of this part, an individual shall be treated as not married at the close of the taxable year if such individual is so treated under the provisions of section 7703(b). For purposes of this part, an individual shall be treated as not married at the close of the taxable year if such individual is so treated under the provisions of section 7703(b). (d) Nonresident aliens In the case of a nonresident alien individual, the taxes imposed by sections 1 and 55 shall apply only as provided by section 871 or 877. In the case of a nonresident alien individual, the taxes imposed by sections 1 and 55 shall apply only as provided by section 871 or 877. (e) Cross reference For definition of taxable income, see section 63. For definition of taxable income, see section 63.</t>
+  </si>
+  <si>
+    <t>§3. Tax tables for individuals (a) Imposition of tax table tax (1) In general In lieu of the tax imposed by section 1, there is hereby imposed for each taxable year on the taxable income of every individual (A) who does not itemize his deductions for the taxable year, and (B) whose taxable income for such taxable year does not exceed the ceiling amount, a tax determined under tables, applicable to such taxable year, which shall be prescribed by the Secretary and which shall be in such form as he determines appropriate. In the table so prescribed, the amounts of the tax shall be computed on the basis of the rates prescribed by section 1. (2) Ceiling amount defined For purposes of paragraph (1), the term ceiling amount means, with respect to any taxpayer, the amount (not less than $20,000) determined by the Secretary for the tax rate category in which such taxpayer falls. (3) Authority to prescribe tables for taxpayers who itemize deductions The Secretary may provide that this section shall apply also for any taxable year to individuals who itemize their deductions. Any tables prescribed under the preceding sentence shall be on the basis of taxable income. (1) In general In lieu of the tax imposed by section 1, there is hereby imposed for each taxable year on the taxable income of every individual (A) who does not itemize his deductions for the taxable year, and (B) whose taxable income for such taxable year does not exceed the ceiling amount, a tax determined under tables, applicable to such taxable year, which shall be prescribed by the Secretary and which shall be in such form as he determines appropriate. In the table so prescribed, the amounts of the tax shall be computed on the basis of the rates prescribed by section 1. (A) who does not itemize his deductions for the taxable year, and who does not itemize his deductions for the taxable year, and (B) whose taxable income for such taxable year does not exceed the ceiling amount, whose taxable income for such taxable year does not exceed the ceiling amount, a tax determined under tables, applicable to such taxable year, which shall be prescribed by the Secretary and which shall be in such form as he determines appropriate. In the table so prescribed, the amounts of the tax shall be computed on the basis of the rates prescribed by section 1. (2) Ceiling amount defined For purposes of paragraph (1), the term ceiling amount means, with respect to any taxpayer, the amount (not less than $20,000) determined by the Secretary for the tax rate category in which such taxpayer falls. For purposes of paragraph (1), the term ceiling amount means, with respect to any taxpayer, the amount (not less than $20,000) determined by the Secretary for the tax rate category in which such taxpayer falls. (3) Authority to prescribe tables for taxpayers who itemize deductions The Secretary may provide that this section shall apply also for any taxable year to individuals who itemize their deductions. Any tables prescribed under the preceding sentence shall be on the basis of taxable income. The Secretary may provide that this section shall apply also for any taxable year to individuals who itemize their deductions. Any tables prescribed under the preceding sentence shall be on the basis of taxable income. (b) Section inapplicable to certain individuals This section shall not apply to (1) an individual making a return under section 443(a)(1) for a period of less than 12 months on account of a change in annual accounting period, and (2) an estate or trust. (1) an individual making a return under section 443(a)(1) for a period of less than 12 months on account of a change in annual accounting period, and an individual making a return under section 443(a)(1) for a period of less than 12 months on account of a change in annual accounting period, and (2) an estate or trust. an estate or trust. (c) Tax treated as imposed by section 1 For purposes of this title, the tax imposed by this section shall be treated as tax imposed by section 1. For purposes of this title, the tax imposed by this section shall be treated as tax imposed by section 1. (d) Taxable income Whenever it is necessary to determine the taxable income of an individual to whom this section applies, the taxable income shall be determined under section 63. Whenever it is necessary to determine the taxable income of an individual to whom this section applies, the taxable income shall be determined under section 63. (e) Cross reference For computation of tax by Secretary, see section 6014. For computation of tax by Secretary, see section 6014.</t>
+  </si>
+  <si>
+    <t>§11. Tax imposed (a) Corporations in general A tax is hereby imposed for each taxable year on the taxable income of every corporation. A tax is hereby imposed for each taxable year on the taxable income of every corporation. (b) Amount of tax (1) In general The amount of the tax imposed by subsection (a) shall be the sum of (A) 15 percent of so much of the taxable income as does not exceed $50,000, (B) 25 percent of so much of the taxable income as exceeds $50,000 but does not exceed $75,000, (C) 34 percent of so much of the taxable income as exceeds $75,000 but does not exceed $10,000,000, and (D) 35 percent of so much of the taxable income as exceeds $10,000,000. In the case of a corporation which has taxable income in excess of $100,000 for any taxable year, the amount of tax determined under the preceding sentence for such taxable year shall be increased by the lesser of (i) 5 percent of such excess, or (ii) $11,750. In the case of a corporation which has taxable income in excess of $15,000,000, the amount of the tax determined under the foregoing provisions of this paragraph shall be increased by an additional amount equal to the lesser of (i) 3 percent of such excess, or (ii) $100,000. (2) Certain personal service corporations not eligible for graduated rates Notwithstanding paragraph (1), the amount of the tax imposed by subsection (a) on the taxable income of a qualified personal service corporation (as defined in section 448(d)(2)) shall be equal to 35 percent of the taxable income. (1) In general The amount of the tax imposed by subsection (a) shall be the sum of (A) 15 percent of so much of the taxable income as does not exceed $50,000, (B) 25 percent of so much of the taxable income as exceeds $50,000 but does not exceed $75,000, (C) 34 percent of so much of the taxable income as exceeds $75,000 but does not exceed $10,000,000, and (D) 35 percent of so much of the taxable income as exceeds $10,000,000. In the case of a corporation which has taxable income in excess of $100,000 for any taxable year, the amount of tax determined under the preceding sentence for such taxable year shall be increased by the lesser of (i) 5 percent of such excess, or (ii) $11,750. In the case of a corporation which has taxable income in excess of $15,000,000, the amount of the tax determined under the foregoing provisions of this paragraph shall be increased by an additional amount equal to the lesser of (i) 3 percent of such excess, or (ii) $100,000. (A) 15 percent of so much of the taxable income as does not exceed $50,000, 15 percent of so much of the taxable income as does not exceed $50,000, (B) 25 percent of so much of the taxable income as exceeds $50,000 but does not exceed $75,000, 25 percent of so much of the taxable income as exceeds $50,000 but does not exceed $75,000, (C) 34 percent of so much of the taxable income as exceeds $75,000 but does not exceed $10,000,000, and 34 percent of so much of the taxable income as exceeds $75,000 but does not exceed $10,000,000, and (D) 35 percent of so much of the taxable income as exceeds $10,000,000. 35 percent of so much of the taxable income as exceeds $10,000,000. In the case of a corporation which has taxable income in excess of $100,000 for any taxable year, the amount of tax determined under the preceding sentence for such taxable year shall be increased by the lesser of (i) 5 percent of such excess, or (ii) $11,750. In the case of a corporation which has taxable income in excess of $15,000,000, the amount of the tax determined under the foregoing provisions of this paragraph shall be increased by an additional amount equal to the lesser of (i) 3 percent of such excess, or (ii) $100,000. (2) Certain personal service corporations not eligible for graduated rates Notwithstanding paragraph (1), the amount of the tax imposed by subsection (a) on the taxable income of a qualified personal service corporation (as defined in section 448(d)(2)) shall be equal to 35 percent of the taxable income. Notwithstanding paragraph (1), the amount of the tax imposed by subsection (a) on the taxable income of a qualified personal service corporation (as defined in section 448(d)(2)) shall be equal to 35 percent of the taxable income. (c) Exceptions Subsection (a) shall not apply to a corporation subject to a tax imposed by (1) section 594 (relating to mutual savings banks conducting life insurance business), (2) subchapter L (sec. 801 and following, relating to insurance companies), or (3) subchapter M (sec. 851 and following, relating to regulated investment companies and real estate investment trusts). (1) section 594 (relating to mutual savings banks conducting life insurance business), section 594 (relating to mutual savings banks conducting life insurance business), (2) subchapter L (sec. 801 and following, relating to insurance companies), or subchapter L (sec. 801 and following, relating to insurance companies), or (3) subchapter M (sec. 851 and following, relating to regulated investment companies and real estate investment trusts). subchapter M (sec. 851 and following, relating to regulated investment companies and real estate investment trusts). (d) Foreign corporations In the case of a foreign corporation, the taxes imposed by subsection (a) and section 55 shall apply only as provided by section 882. In the case of a foreign corporation, the taxes imposed by subsection (a) and section 55 shall apply only as provided by section 882.</t>
+  </si>
+  <si>
+    <t>§21. Expenses for household and dependent care services necessary for gainful employment (a) Allowance of credit (1) In general In the case of an individual for which there are 1 or more qualifying individuals (as defined in subsection (b)(1)) with respect to such individual, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year an amount equal to the applicable percentage of the employment-related expenses (as defined in subsection (b)(2)) paid by such individual during the taxable year. (2) Applicable percentage defined For purposes of paragraph (1), the term applicable percentage means 35 percent reduced (but not below 20 percent) by 1 percentage point for each $2,000 (or fraction thereof) by which the taxpayers adjusted gross income for the taxable year exceeds $15,000. (1) In general In the case of an individual for which there are 1 or more qualifying individuals (as defined in subsection (b)(1)) with respect to such individual, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year an amount equal to the applicable percentage of the employment-related expenses (as defined in subsection (b)(2)) paid by such individual during the taxable year. In the case of an individual for which there are 1 or more qualifying individuals (as defined in subsection (b)(1)) with respect to such individual, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year an amount equal to the applicable percentage of the employment-related expenses (as defined in subsection (b)(2)) paid by such individual during the taxable year. (2) Applicable percentage defined For purposes of paragraph (1), the term applicable percentage means 35 percent reduced (but not below 20 percent) by 1 percentage point for each $2,000 (or fraction thereof) by which the taxpayers adjusted gross income for the taxable year exceeds $15,000. For purposes of paragraph (1), the term applicable percentage means 35 percent reduced (but not below 20 percent) by 1 percentage point for each $2,000 (or fraction thereof) by which the taxpayers adjusted gross income for the taxable year exceeds $15,000. (b) Definitions of qualifying individual and employment-related expenses For purposes of this section (1) Qualifying individual The term qualifying individual means (A) a dependent of the taxpayer (as defined in section 152(a)(1)) who has not attained age 13, (B) a dependent of the taxpayer (as defined in section 152, determined without regard to subsections (b)(1), (b)(2), and (d)(1)(B)) who is physically or mentally incapable of caring for himself or herself and who has the same principal place of abode as the taxpayer for more than one-half of such taxable year, or (C) the spouse of the taxpayer, if the spouse is physically or mentally incapable of caring for himself or herself and who has the same principal place of abode as the taxpayer for more than one-half of such taxable year. (2) Employment-related expenses (A) In general The term employment-related expenses means amounts paid for the following expenses, but only if such expenses are incurred to enable the taxpayer to be gainfully employed for any period for which there are 1 or more qualifying individuals with respect to the taxpayer: (i) expenses for household services, and (ii) expenses for the care of a qualifying individual. Such term shall not include any amount paid for services outside the taxpayers household at a camp where the qualifying individual stays overnight. (B) Exception Employment-related expenses described in subparagraph (A) which are incurred for services outside the taxpayers household shall be taken into account only if incurred for the care of (i) a qualifying individual described in paragraph (1)(A), or (ii) a qualifying individual (not described in paragraph (1)(A)) who regularly spends at least 8 hours each day in the taxpayers household. (C) Dependent care centers Employment-related expenses described in subparagraph (A) which are incurred for services provided outside the taxpayers household by a dependent care center (as defined in subparagraph (D)) shall be taken into account only if (i) such center complies with all applicable laws and regulations of a State or unit of local government, and (ii) the requirements of subparagraph (B) are met. (D) Dependent care center defined For purposes of this paragraph, the term dependent care center means any facility which (i) provides care for more than six individuals (other than individuals who reside at the facility), and (ii) receives a fee, payment, or grant for providing services for any of the individuals (regardless of whether such facility is operated for profit). (1) Qualifying individual The term qualifying individual means (A) a dependent of the taxpayer (as defined in section 152(a)(1)) who has not attained age 13, (B) a dependent of the taxpayer (as defined in section 152, determined without regard to subsections (b)(1), (b)(2), and (d)(1)(B)) who is physically or mentally incapable of caring for himself or herself and who has the same principal place of abode as the taxpayer for more than one-half of such taxable year, or (C) the spouse of the taxpayer, if the spouse is physically or mentally incapable of caring for himself or herself and who has the same principal place of abode as the taxpayer for more than one-half of such taxable year. (A) a dependent of the taxpayer (as defined in section 152(a)(1)) who has not attained age 13, a dependent of the taxpayer (as defined in section 152(a)(1)) who has not attained age 13, (B) a dependent of the taxpayer (as defined in section 152, determined without regard to subsections (b)(1), (b)(2), and (d)(1)(B)) who is physically or mentally incapable of caring for himself or herself and who has the same principal place of abode as the taxpayer for more than one-half of such taxable year, or a dependent of the taxpayer (as defined in section 152, determined without regard to subsections (b)(1), (b)(2), and (d)(1)(B)) who is physically or mentally incapable of caring for himself or herself and who has the same principal place of abode as the taxpayer for more than one-half of such taxable year, or (C) the spouse of the taxpayer, if the spouse is physically or mentally incapable of caring for himself or herself and who has the same principal place of abode as the taxpayer for more than one-half of such taxable year. the spouse of the taxpayer, if the spouse is physically or mentally incapable of caring for himself or herself and who has the same principal place of abode as the taxpayer for more than one-half of such taxable year. (2) Employment-related expenses (A) In general The term employment-related expenses means amounts paid for the following expenses, but only if such expenses are incurred to enable the taxpayer to be gainfully employed for any period for which there are 1 or more qualifying individuals with respect to the taxpayer: (i) expenses for household services, and (ii) expenses for the care of a qualifying individual. Such term shall not include any amount paid for services outside the taxpayers household at a camp where the qualifying individual stays overnight. (B) Exception Employment-related expenses described in subparagraph (A) which are incurred for services outside the taxpayers household shall be taken into account only if incurred for the care of (i) a qualifying individual described in paragraph (1)(A), or (ii) a qualifying individual (not described in paragraph (1)(A)) who regularly spends at least 8 hours each day in the taxpayers household. (C) Dependent care centers Employment-related expenses described in subparagraph (A) which are incurred for services provided outside the taxpayers household by a dependent care center (as defined in subparagraph (D)) shall be taken into account only if (i) such center complies with all applicable laws and regulations of a State or unit of local government, and (ii) the requirements of subparagraph (B) are met. (D) Dependent care center defined For purposes of this paragraph, the term dependent care center means any facility which (i) provides care for more than six individuals (other than individuals who reside at the facility), and (ii) receives a fee, payment, or grant for providing services for any of the individuals (regardless of whether such facility is operated for profit). (A) In general The term employment-related expenses means amounts paid for the following expenses, but only if such expenses are incurred to enable the taxpayer to be gainfully employed for any period for which there are 1 or more qualifying individuals with respect to the taxpayer: (i) expenses for household services, and (ii) expenses for the care of a qualifying individual. Such term shall not include any amount paid for services outside the taxpayers household at a camp where the qualifying individual stays overnight. (i) expenses for household services, and expenses for household services, and (ii) expenses for the care of a qualifying individual. expenses for the care of a qualifying individual. Such term shall not include any amount paid for services outside the taxpayers household at a camp where the qualifying individual stays overnight. (B) Exception Employment-related expenses described in subparagraph (A) which are incurred for services outside the taxpayers household shall be taken into account only if incurred for the care of (i) a qualifying individual described in paragraph (1)(A), or (ii) a qualifying individual (not described in paragraph (1)(A)) who regularly spends at least 8 hours each day in the taxpayers household. (i) a qualifying individual described in paragraph (1)(A), or a qualifying individual described in paragraph (1)(A), or (ii) a qualifying individual (not described in paragraph (1)(A)) who regularly spends at least 8 hours each day in the taxpayers household. a qualifying individual (not described in paragraph (1)(A)) who regularly spends at least 8 hours each day in the taxpayers household. (C) Dependent care centers Employment-related expenses described in subparagraph (A) which are incurred for services provided outside the taxpayers household by a dependent care center (as defined in subparagraph (D)) shall be taken into account only if (i) such center complies with all applicable laws and regulations of a State or unit of local government, and (ii) the requirements of subparagraph (B) are met. (i) such center complies with all applicable laws and regulations of a State or unit of local government, and such center complies with all applicable laws and regulations of a State or unit of local government, and (ii) the requirements of subparagraph (B) are met. the requirements of subparagraph (B) are met. (D) Dependent care center defined For purposes of this paragraph, the term dependent care center means any facility which (i) provides care for more than six individuals (other than individuals who reside at the facility), and (ii) receives a fee, payment, or grant for providing services for any of the individuals (regardless of whether such facility is operated for profit). (i) provides care for more than six individuals (other than individuals who reside at the facility), and provides care for more than six individuals (other than individuals who reside at the facility), and (ii) receives a fee, payment, or grant for providing services for any of the individuals (regardless of whether such facility is operated for profit). receives a fee, payment, or grant for providing services for any of the individuals (regardless of whether such facility is operated for profit). (c) Dollar limit on amount creditable The amount of the employment-related expenses incurred during any taxable year which may be taken into account under subsection (a) shall not exceed (1) $3,000 if there is 1 qualifying individual with respect to the taxpayer for such taxable year, or (2) $6,000 if there are 2 or more qualifying individuals with respect to the taxpayer for such taxable year. The amount determined under paragraph (1) or (2) (whichever is applicable) shall be reduced by the aggregate amount excludable from gross income under section 129 for the taxable year. (1) $3,000 if there is 1 qualifying individual with respect to the taxpayer for such taxable year, or $3,000 if there is 1 qualifying individual with respect to the taxpayer for such taxable year, or (2) $6,000 if there are 2 or more qualifying individuals with respect to the taxpayer for such taxable year. $6,000 if there are 2 or more qualifying individuals with respect to the taxpayer for such taxable year. The amount determined under paragraph (1) or (2) (whichever is applicable) shall be reduced by the aggregate amount excludable from gross income under section 129 for the taxable year. (d) Earned income limitation (1) In general Except as otherwise provided in this subsection, the amount of the employment-related expenses incurred during any taxable year which may be taken into account under subsection (a) shall not exceed (A) in the case of an individual who is not married at the close of such year, such individuals earned income for such year, or (B) in the case of an individual who is married at the close of such year, the lesser of such individuals earned income or the earned income of his spouse for such year. (2) Special rule for spouse who is a student or incapable of caring for himself In the case of a spouse who is a student or a qualifying individual described in subsection (b)(1)(C), for purposes of paragraph (1), such spouse shall be deemed for each month during which such spouse is a full-time student at an educational institution, or is such a qualifying individual, to be gainfully employed and to have earned income of not less than (A) $250 if subsection (c)(1) applies for the taxable year, or (B) $500 if subsection (c)(2) applies for the taxable year. In the case of any husband and wife, this paragraph shall apply with respect to only one spouse for any one month. (1) In general Except as otherwise provided in this subsection, the amount of the employment-related expenses incurred during any taxable year which may be taken into account under subsection (a) shall not exceed (A) in the case of an individual who is not married at the close of such year, such individuals earned income for such year, or (B) in the case of an individual who is married at the close of such year, the lesser of such individuals earned income or the earned income of his spouse for such year. (A) in the case of an individual who is not married at the close of such year, such individuals earned income for such year, or in the case of an individual who is not married at the close of such year, such individuals earned income for such year, or (B) in the case of an individual who is married at the close of such year, the lesser of such individuals earned income or the earned income of his spouse for such year. in the case of an individual who is married at the close of such year, the lesser of such individuals earned income or the earned income of his spouse for such year. (2) Special rule for spouse who is a student or incapable of caring for himself In the case of a spouse who is a student or a qualifying individual described in subsection (b)(1)(C), for purposes of paragraph (1), such spouse shall be deemed for each month during which such spouse is a full-time student at an educational institution, or is such a qualifying individual, to be gainfully employed and to have earned income of not less than (A) $250 if subsection (c)(1) applies for the taxable year, or (B) $500 if subsection (c)(2) applies for the taxable year. In the case of any husband and wife, this paragraph shall apply with respect to only one spouse for any one month. (A) $250 if subsection (c)(1) applies for the taxable year, or $250 if subsection (c)(1) applies for the taxable year, or (B) $500 if subsection (c)(2) applies for the taxable year. $500 if subsection (c)(2) applies for the taxable year. In the case of any husband and wife, this paragraph shall apply with respect to only one spouse for any one month. (e) Special rules For purposes of this section (1) Place of abode An individual shall not be treated as having the same principal place of abode of the taxpayer if at any time during the taxable year of the taxpayer the relationship between the individual and the taxpayer is in violation of local law. (2) Married couples must file joint return If the taxpayer is married at the close of the taxable year, the credit shall be allowed under subsection (a) only if the taxpayer and his spouse file a joint return for the taxable year. (3) Marital status An individual legally separated from his spouse under a decree of divorce or of separate maintenance shall not be considered as married. (4) Certain married individuals living apart If (A) an individual who is married and who files a separate return (i) maintains as his home a household which constitutes for more than one-half of the taxable year the principal place of abode of a qualifying individual, and (ii) furnishes over half of the cost of maintaining such household during the taxable year, and (B) during the last 6 months of such taxable year such individuals spouse is not a member of such household, such individual shall not be considered as married. (5) Special dependency test in case of divorced parents, etc. If (A) section 152(e) applies to any child with respect to any calendar year, and (B) such child is under the age of 13 or is physically or mentally incapable of caring for himself, in the case of any taxable year beginning in such calendar year, such child shall be treated as a qualifying individual described in subparagraph (A) or (B) of subsection (b)(1) (whichever is appropriate) with respect to the custodial parent (as defined in section 152(e)(4)(A)), and shall not be treated as a qualifying individual with respect to the noncustodial parent. (6) Payments to related individuals No credit shall be allowed under subsection (a) for any amount paid by the taxpayer to an individual (A) with respect to whom, for the taxable year, a deduction under section 151(c) (relating to deduction for personal exemptions for dependents) is allowable either to the taxpayer or his spouse, or (B) who is a child of the taxpayer (within the meaning of section 152(f)(1)) who has not attained the age of 19 at the close of the taxable year. For purposes of this paragraph, the term taxable year means the taxable year of the taxpayer in which the service is performed. (7) Student The term student means an individual who during each of 5 calendar months during the taxable year is a full-time student at an educational organization. (8) Educational organization The term educational organization means an educational organization described in section 170(b)(1)(A)(ii). (9) Identifying information required with respect to service provider No credit shall be allowed under subsection (a) for any amount paid to any person unless (A) the name, address, and taxpayer identification number of such person are included on the return claiming the credit, or (B) if such person is an organization described in section 501(c)(3) and exempt from tax under section 501(a), the name and address of such person are included on the return claiming the credit. In the case of a failure to provide the information required under the preceding sentence, the preceding sentence shall not apply if it is shown that the taxpayer exercised due diligence in attempting to provide the information so required. (10) Identifying information required with respect to qualifying individuals No credit shall be allowed under this section with respect to any qualifying individual unless the TIN of such individual is included on the return claiming the credit. (1) Place of abode An individual shall not be treated as having the same principal place of abode of the taxpayer if at any time during the taxable year of the taxpayer the relationship between the individual and the taxpayer is in violation of local law. An individual shall not be treated as having the same principal place of abode of the taxpayer if at any time during the taxable year of the taxpayer the relationship between the individual and the taxpayer is in violation of local law. (2) Married couples must file joint return If the taxpayer is married at the close of the taxable year, the credit shall be allowed under subsection (a) only if the taxpayer and his spouse file a joint return for the taxable year. If the taxpayer is married at the close of the taxable year, the credit shall be allowed under subsection (a) only if the taxpayer and his spouse file a joint return for the taxable year. (3) Marital status An individual legally separated from his spouse under a decree of divorce or of separate maintenance shall not be considered as married. An individual legally separated from his spouse under a decree of divorce or of separate maintenance shall not be considered as married. (4) Certain married individuals living apart If (A) an individual who is married and who files a separate return (i) maintains as his home a household which constitutes for more than one-half of the taxable year the principal place of abode of a qualifying individual, and (ii) furnishes over half of the cost of maintaining such household during the taxable year, and (B) during the last 6 months of such taxable year such individuals spouse is not a member of such household, such individual shall not be considered as married. (A) an individual who is married and who files a separate return (i) maintains as his home a household which constitutes for more than one-half of the taxable year the principal place of abode of a qualifying individual, and (ii) furnishes over half of the cost of maintaining such household during the taxable year, and (i) maintains as his home a household which constitutes for more than one-half of the taxable year the principal place of abode of a qualifying individual, and maintains as his home a household which constitutes for more than one-half of the taxable year the principal place of abode of a qualifying individual, and (ii) furnishes over half of the cost of maintaining such household during the taxable year, and furnishes over half of the cost of maintaining such household during the taxable year, and (B) during the last 6 months of such taxable year such individuals spouse is not a member of such household, during the last 6 months of such taxable year such individuals spouse is not a member of such household, such individual shall not be considered as married. (5) Special dependency test in case of divorced parents, etc. If (A) section 152(e) applies to any child with respect to any calendar year, and (B) such child is under the age of 13 or is physically or mentally incapable of caring for himself, in the case of any taxable year beginning in such calendar year, such child shall be treated as a qualifying individual described in subparagraph (A) or (B) of subsection (b)(1) (whichever is appropriate) with respect to the custodial parent (as defined in section 152(e)(4)(A)), and shall not be treated as a qualifying individual with respect to the noncustodial parent. (A) section 152(e) applies to any child with respect to any calendar year, and section 152(e) applies to any child with respect to any calendar year, and (B) such child is under the age of 13 or is physically or mentally incapable of caring for himself, such child is under the age of 13 or is physically or mentally incapable of caring for himself, in the case of any taxable year beginning in such calendar year, such child shall be treated as a qualifying individual described in subparagraph (A) or (B) of subsection (b)(1) (whichever is appropriate) with respect to the custodial parent (as defined in section 152(e)(4)(A)), and shall not be treated as a qualifying individual with respect to the noncustodial parent. (6) Payments to related individuals No credit shall be allowed under subsection (a) for any amount paid by the taxpayer to an individual (A) with respect to whom, for the taxable year, a deduction under section 151(c) (relating to deduction for personal exemptions for dependents) is allowable either to the taxpayer or his spouse, or (B) who is a child of the taxpayer (within the meaning of section 152(f)(1)) who has not attained the age of 19 at the close of the taxable year. For purposes of this paragraph, the term taxable year means the taxable year of the taxpayer in which the service is performed. (A) with respect to whom, for the taxable year, a deduction under section 151(c) (relating to deduction for personal exemptions for dependents) is allowable either to the taxpayer or his spouse, or with respect to whom, for the taxable year, a deduction under section 151(c) (relating to deduction for personal exemptions for dependents) is allowable either to the taxpayer or his spouse, or (B) who is a child of the taxpayer (within the meaning of section 152(f)(1)) who has not attained the age of 19 at the close of the taxable year. who is a child of the taxpayer (within the meaning of section 152(f)(1)) who has not attained the age of 19 at the close of the taxable year. For purposes of this paragraph, the term taxable year means the taxable year of the taxpayer in which the service is performed. (7) Student The term student means an individual who during each of 5 calendar months during the taxable year is a full-time student at an educational organization. The term student means an individual who during each of 5 calendar months during the taxable year is a full-time student at an educational organization. (8) Educational organization The term educational organization means an educational organization described in section 170(b)(1)(A)(ii). The term educational organization means an educational organization described in section 170(b)(1)(A)(ii). (9) Identifying information required with respect to service provider No credit shall be allowed under subsection (a) for any amount paid to any person unless (A) the name, address, and taxpayer identification number of such person are included on the return claiming the credit, or (B) if such person is an organization described in section 501(c)(3) and exempt from tax under section 501(a), the name and address of such person are included on the return claiming the credit. In the case of a failure to provide the information required under the preceding sentence, the preceding sentence shall not apply if it is shown that the taxpayer exercised due diligence in attempting to provide the information so required. (A) the name, address, and taxpayer identification number of such person are included on the return claiming the credit, or the name, address, and taxpayer identification number of such person are included on the return claiming the credit, or (B) if such person is an organization described in section 501(c)(3) and exempt from tax under section 501(a), the name and address of such person are included on the return claiming the credit. if such person is an organization described in section 501(c)(3) and exempt from tax under section 501(a), the name and address of such person are included on the return claiming the credit. In the case of a failure to provide the information required under the preceding sentence, the preceding sentence shall not apply if it is shown that the taxpayer exercised due diligence in attempting to provide the information so required. (10) Identifying information required with respect to qualifying individuals No credit shall be allowed under this section with respect to any qualifying individual unless the TIN of such individual is included on the return claiming the credit. No credit shall be allowed under this section with respect to any qualifying individual unless the TIN of such individual is included on the return claiming the credit. (f) Regulations The Secretary shall prescribe such regulations as may be necessary to carry out the purposes of this section. The Secretary shall prescribe such regulations as may be necessary to carry out the purposes of this section.</t>
+  </si>
+  <si>
+    <t>§22. Credit for the elderly and the permanently and totally disabled (a) General rule In the case of a qualified individual, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year an amount equal to 15 percent of such individuals section 22 amount for such taxable year. In the case of a qualified individual, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year an amount equal to 15 percent of such individuals section 22 amount for such taxable year. (b) Qualified individual For purposes of this section, the term qualified individual means any individual (1) who has attained age 65 before the close of the taxable year, or (2) who retired on disability before the close of the taxable year and who, when he retired, was permanently and totally disabled. (1) who has attained age 65 before the close of the taxable year, or who has attained age 65 before the close of the taxable year, or (2) who retired on disability before the close of the taxable year and who, when he retired, was permanently and totally disabled. who retired on disability before the close of the taxable year and who, when he retired, was permanently and totally disabled. (c) Section 22 amount For purposes of subsection (a) (1) In general An individuals section 22 amount for the taxable year shall be the applicable initial amount determined under paragraph (2), reduced as provided in paragraph (3) and in subsection (d). (2) Initial amount (A) In general Except as provided in subparagraph (B), the initial amount shall be (i) $5,000 in the case of a single individual, or a joint return where only one spouse is a qualified individual, (ii) $7,500 in the case of a joint return where both spouses are qualified individuals, or (iii) $3,750 in the case of a married individual filing a separate return. (B) Limitation in case of individuals who have not attained age 65 (i) In general In the case of a qualified individual who has not attained age 65 before the close of the taxable year, except as provided in clause (ii), the initial amount shall not exceed the disability income for the taxable year. (ii) Special rules in case of joint return In the case of a joint return where both spouses are qualified individuals and at least one spouse has not attained age 65 before the close of the taxable year (I) if both spouses have not attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of such spouses disability income, or (II) if one spouse has attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of $5,000 plus the disability income for the taxable year of the spouse who has not attained age 65 before the close of the taxable year. (iii) Disability income For purposes of this subparagraph, the term disability income means the aggregate amount includable in the gross income of the individual for the taxable year under section 72 or 105(a) to the extent such amount constitutes wages (or payments in lieu of wages) for the period during which the individual is absent from work on account of permanent and total disability. (3) Reduction (A) In general The reduction under this paragraph is an amount equal to the sum of the amounts received by the individual (or, in the case of a joint return, by either spouse) as a pension or annuity or as a disability benefit (i) which is excluded from gross income and payable under (I) title II of the Social Security Act, (II) the Railroad Retirement Act of 1974, or (III) a law administered by the Veterans Administration, or (ii) which is excluded from gross income under any provision of law not contained in this title. No reduction shall be made under clause (i)(III) for any amount described in section 104(a)(4). (B) Treatment of certain workmens compensation benefits For purposes of subparagraph (A), any amount treated as a social security benefit under section 86(d)(3) shall be treated as a disability benefit received under title II of the Social Security Act. (1) In general An individuals section 22 amount for the taxable year shall be the applicable initial amount determined under paragraph (2), reduced as provided in paragraph (3) and in subsection (d). An individuals section 22 amount for the taxable year shall be the applicable initial amount determined under paragraph (2), reduced as provided in paragraph (3) and in subsection (d). (2) Initial amount (A) In general Except as provided in subparagraph (B), the initial amount shall be (i) $5,000 in the case of a single individual, or a joint return where only one spouse is a qualified individual, (ii) $7,500 in the case of a joint return where both spouses are qualified individuals, or (iii) $3,750 in the case of a married individual filing a separate return. (B) Limitation in case of individuals who have not attained age 65 (i) In general In the case of a qualified individual who has not attained age 65 before the close of the taxable year, except as provided in clause (ii), the initial amount shall not exceed the disability income for the taxable year. (ii) Special rules in case of joint return In the case of a joint return where both spouses are qualified individuals and at least one spouse has not attained age 65 before the close of the taxable year (I) if both spouses have not attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of such spouses disability income, or (II) if one spouse has attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of $5,000 plus the disability income for the taxable year of the spouse who has not attained age 65 before the close of the taxable year. (iii) Disability income For purposes of this subparagraph, the term disability income means the aggregate amount includable in the gross income of the individual for the taxable year under section 72 or 105(a) to the extent such amount constitutes wages (or payments in lieu of wages) for the period during which the individual is absent from work on account of permanent and total disability. (A) In general Except as provided in subparagraph (B), the initial amount shall be (i) $5,000 in the case of a single individual, or a joint return where only one spouse is a qualified individual, (ii) $7,500 in the case of a joint return where both spouses are qualified individuals, or (iii) $3,750 in the case of a married individual filing a separate return. (i) $5,000 in the case of a single individual, or a joint return where only one spouse is a qualified individual, $5,000 in the case of a single individual, or a joint return where only one spouse is a qualified individual, (ii) $7,500 in the case of a joint return where both spouses are qualified individuals, or $7,500 in the case of a joint return where both spouses are qualified individuals, or (iii) $3,750 in the case of a married individual filing a separate return. $3,750 in the case of a married individual filing a separate return. (B) Limitation in case of individuals who have not attained age 65 (i) In general In the case of a qualified individual who has not attained age 65 before the close of the taxable year, except as provided in clause (ii), the initial amount shall not exceed the disability income for the taxable year. (ii) Special rules in case of joint return In the case of a joint return where both spouses are qualified individuals and at least one spouse has not attained age 65 before the close of the taxable year (I) if both spouses have not attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of such spouses disability income, or (II) if one spouse has attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of $5,000 plus the disability income for the taxable year of the spouse who has not attained age 65 before the close of the taxable year. (iii) Disability income For purposes of this subparagraph, the term disability income means the aggregate amount includable in the gross income of the individual for the taxable year under section 72 or 105(a) to the extent such amount constitutes wages (or payments in lieu of wages) for the period during which the individual is absent from work on account of permanent and total disability. (i) In general In the case of a qualified individual who has not attained age 65 before the close of the taxable year, except as provided in clause (ii), the initial amount shall not exceed the disability income for the taxable year. In the case of a qualified individual who has not attained age 65 before the close of the taxable year, except as provided in clause (ii), the initial amount shall not exceed the disability income for the taxable year. (ii) Special rules in case of joint return In the case of a joint return where both spouses are qualified individuals and at least one spouse has not attained age 65 before the close of the taxable year (I) if both spouses have not attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of such spouses disability income, or (II) if one spouse has attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of $5,000 plus the disability income for the taxable year of the spouse who has not attained age 65 before the close of the taxable year. (I) if both spouses have not attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of such spouses disability income, or if both spouses have not attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of such spouses disability income, or (II) if one spouse has attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of $5,000 plus the disability income for the taxable year of the spouse who has not attained age 65 before the close of the taxable year. if one spouse has attained age 65 before the close of the taxable year, the initial amount shall not exceed the sum of $5,000 plus the disability income for the taxable year of the spouse who has not attained age 65 before the close of the taxable year. (iii) Disability income For purposes of this subparagraph, the term disability income means the aggregate amount includable in the gross income of the individual for the taxable year under section 72 or 105(a) to the extent such amount constitutes wages (or payments in lieu of wages) for the period during which the individual is absent from work on account of permanent and total disability. For purposes of this subparagraph, the term disability income means the aggregate amount includable in the gross income of the individual for the taxable year under section 72 or 105(a) to the extent such amount constitutes wages (or payments in lieu of wages) for the period during which the individual is absent from work on account of permanent and total disability. (3) Reduction (A) In general The reduction under this paragraph is an amount equal to the sum of the amounts received by the individual (or, in the case of a joint return, by either spouse) as a pension or annuity or as a disability benefit (i) which is excluded from gross income and payable under (I) title II of the Social Security Act, (II) the Railroad Retirement Act of 1974, or (III) a law administered by the Veterans Administration, or (ii) which is excluded from gross income under any provision of law not contained in this title. No reduction shall be made under clause (i)(III) for any amount described in section 104(a)(4). (B) Treatment of certain workmens compensation benefits For purposes of subparagraph (A), any amount treated as a social security benefit under section 86(d)(3) shall be treated as a disability benefit received under title II of the Social Security Act. (A) In general The reduction under this paragraph is an amount equal to the sum of the amounts received by the individual (or, in the case of a joint return, by either spouse) as a pension or annuity or as a disability benefit (i) which is excluded from gross income and payable under (I) title II of the Social Security Act, (II) the Railroad Retirement Act of 1974, or (III) a law administered by the Veterans Administration, or (ii) which is excluded from gross income under any provision of law not contained in this title. No reduction shall be made under clause (i)(III) for any amount described in section 104(a)(4). (i) which is excluded from gross income and payable under (I) title II of the Social Security Act, (II) the Railroad Retirement Act of 1974, or (III) a law administered by the Veterans Administration, or (I) title II of the Social Security Act, title II of the Social Security Act, (II) the Railroad Retirement Act of 1974, or the Railroad Retirement Act of 1974, or (III) a law administered by the Veterans Administration, or a law administered by the Veterans Administration, or (ii) which is excluded from gross income under any provision of law not contained in this title. which is excluded from gross income under any provision of law not contained in this title. No reduction shall be made under clause (i)(III) for any amount described in section 104(a)(4). (B) Treatment of certain workmens compensation benefits For purposes of subparagraph (A), any amount treated as a social security benefit under section 86(d)(3) shall be treated as a disability benefit received under title II of the Social Security Act. For purposes of subparagraph (A), any amount treated as a social security benefit under section 86(d)(3) shall be treated as a disability benefit received under title II of the Social Security Act. (d) Adjusted gross income limitation If the adjusted gross income of the taxpayer exceeds (1) $7,500 in the case of a single individual, (2) $10,000 in the case of a joint return, or (3) $5,000 in the case of a married individual filing a separate return, the section 22 amount shall be reduced by one-half of the excess of the adjusted gross income over $7,500, $10,000, or $5,000, as the case may be. (1) $7,500 in the case of a single individual, $7,500 in the case of a single individual, (2) $10,000 in the case of a joint return, or $10,000 in the case of a joint return, or (3) $5,000 in the case of a married individual filing a separate return, $5,000 in the case of a married individual filing a separate return, the section 22 amount shall be reduced by one-half of the excess of the adjusted gross income over $7,500, $10,000, or $5,000, as the case may be. (e) Definitions and special rules For purposes of this section (1) Married couple must file joint return Except in the case of a husband and wife who live apart at all times during the taxable year, if the taxpayer is married at the close of the taxable year, the credit provided by this section shall be allowed only if the taxpayer and his spouse file a joint return for the taxable year. (2) Marital status Marital status shall be determined under section 7703. (3) Permanent and total disability defined An individual is permanently and totally disabled if he is unable to engage in any substantial gainful activity by reason of any medically determinable physical or mental impairment which can be expected to result in death or which has lasted or can be expected to last for a continuous period of not less than 12 months. An individual shall not be considered to be permanently and totally disabled unless he furnishes proof of the existence thereof in such form and manner, and at such times, as the Secretary may require. (1) Married couple must file joint return Except in the case of a husband and wife who live apart at all times during the taxable year, if the taxpayer is married at the close of the taxable year, the credit provided by this section shall be allowed only if the taxpayer and his spouse file a joint return for the taxable year. Except in the case of a husband and wife who live apart at all times during the taxable year, if the taxpayer is married at the close of the taxable year, the credit provided by this section shall be allowed only if the taxpayer and his spouse file a joint return for the taxable year. (2) Marital status Marital status shall be determined under section 7703. Marital status shall be determined under section 7703. (3) Permanent and total disability defined An individual is permanently and totally disabled if he is unable to engage in any substantial gainful activity by reason of any medically determinable physical or mental impairment which can be expected to result in death or which has lasted or can be expected to last for a continuous period of not less than 12 months. An individual shall not be considered to be permanently and totally disabled unless he furnishes proof of the existence thereof in such form and manner, and at such times, as the Secretary may require. An individual is permanently and totally disabled if he is unable to engage in any substantial gainful activity by reason of any medically determinable physical or mental impairment which can be expected to result in death or which has lasted or can be expected to last for a continuous period of not less than 12 months. An individual shall not be considered to be permanently and totally disabled unless he furnishes proof of the existence thereof in such form and manner, and at such times, as the Secretary may require. (f) Nonresident alien ineligible for credit No credit shall be allowed under this section to any nonresident alien. No credit shall be allowed under this section to any nonresident alien.</t>
+  </si>
+  <si>
+    <t>§23. Adoption expenses (a) Allowance of credit (1) In general In the case of an individual, there shall be allowed as a credit against the tax imposed by this chapter the amount of the qualified adoption expenses paid or incurred by the taxpayer. (2) Year credit allowed The credit under paragraph (1) with respect to any expense shall be allowed (A) in the case of any expense paid or incurred before the taxable year in which such adoption becomes final, for the taxable year following the taxable year during which such expense is paid or incurred, and (B) in the case of an expense paid or incurred during or after the taxable year in which such adoption becomes final, for the taxable year in which such expense is paid or incurred. (3) $10,000 credit for adoption of child with special needs regardless of expenses In the case of an adoption of a child with special needs which becomes final during a taxable year, the taxpayer shall be treated as having paid during such year qualified adoption expenses with respect to such adoption in an amount equal to the excess (if any) of $10,000 over the aggregate qualified adoption expenses actually paid or incurred by the taxpayer with respect to such adoption during such taxable year and all prior taxable years. (1) In general In the case of an individual, there shall be allowed as a credit against the tax imposed by this chapter the amount of the qualified adoption expenses paid or incurred by the taxpayer. In the case of an individual, there shall be allowed as a credit against the tax imposed by this chapter the amount of the qualified adoption expenses paid or incurred by the taxpayer. (2) Year credit allowed The credit under paragraph (1) with respect to any expense shall be allowed (A) in the case of any expense paid or incurred before the taxable year in which such adoption becomes final, for the taxable year following the taxable year during which such expense is paid or incurred, and (B) in the case of an expense paid or incurred during or after the taxable year in which such adoption becomes final, for the taxable year in which such expense is paid or incurred. (A) in the case of any expense paid or incurred before the taxable year in which such adoption becomes final, for the taxable year following the taxable year during which such expense is paid or incurred, and in the case of any expense paid or incurred before the taxable year in which such adoption becomes final, for the taxable year following the taxable year during which such expense is paid or incurred, and (B) in the case of an expense paid or incurred during or after the taxable year in which such adoption becomes final, for the taxable year in which such expense is paid or incurred. in the case of an expense paid or incurred during or after the taxable year in which such adoption becomes final, for the taxable year in which such expense is paid or incurred. (3) $10,000 credit for adoption of child with special needs regardless of expenses In the case of an adoption of a child with special needs which becomes final during a taxable year, the taxpayer shall be treated as having paid during such year qualified adoption expenses with respect to such adoption in an amount equal to the excess (if any) of $10,000 over the aggregate qualified adoption expenses actually paid or incurred by the taxpayer with respect to such adoption during such taxable year and all prior taxable years. In the case of an adoption of a child with special needs which becomes final during a taxable year, the taxpayer shall be treated as having paid during such year qualified adoption expenses with respect to such adoption in an amount equal to the excess (if any) of $10,000 over the aggregate qualified adoption expenses actually paid or incurred by the taxpayer with respect to such adoption during such taxable year and all prior taxable years. (b) Limitations (1) Dollar limitation The aggregate amount of qualified adoption expenses which may be taken into account under subsection (a) for all taxable years with respect to the adoption of a child by the taxpayer shall not exceed $10,000. (2) Income limitation (A) In general The amount allowable as a credit under subsection (a) for any taxable year (determined without regard to subsection (c)) shall be reduced (but not below zero) by an amount which bears the same ratio to the amount so allowable (determined without regard to this paragraph but with regard to paragraph (1)) as (i) the amount (if any) by which the taxpayers adjusted gross income exceeds $150,000, bears to (ii) $40,000. (B) Determination of adjusted gross income For purposes of subparagraph (A), adjusted gross income shall be determined without regard to sections 911, 931, and 933. (3) Denial of double benefit (A) In general No credit shall be allowed under subsection (a) for any expense for which a deduction or credit is allowed under any other provision of this chapter. (B) Grants No credit shall be allowed under subsection (a) for any expense to the extent that funds for such expense are received under any Federal, State, or local program. (1) Dollar limitation The aggregate amount of qualified adoption expenses which may be taken into account under subsection (a) for all taxable years with respect to the adoption of a child by the taxpayer shall not exceed $10,000. The aggregate amount of qualified adoption expenses which may be taken into account under subsection (a) for all taxable years with respect to the adoption of a child by the taxpayer shall not exceed $10,000. (2) Income limitation (A) In general The amount allowable as a credit under subsection (a) for any taxable year (determined without regard to subsection (c)) shall be reduced (but not below zero) by an amount which bears the same ratio to the amount so allowable (determined without regard to this paragraph but with regard to paragraph (1)) as (i) the amount (if any) by which the taxpayers adjusted gross income exceeds $150,000, bears to (ii) $40,000. (B) Determination of adjusted gross income For purposes of subparagraph (A), adjusted gross income shall be determined without regard to sections 911, 931, and 933. (A) In general The amount allowable as a credit under subsection (a) for any taxable year (determined without regard to subsection (c)) shall be reduced (but not below zero) by an amount which bears the same ratio to the amount so allowable (determined without regard to this paragraph but with regard to paragraph (1)) as (i) the amount (if any) by which the taxpayers adjusted gross income exceeds $150,000, bears to (ii) $40,000. (i) the amount (if any) by which the taxpayers adjusted gross income exceeds $150,000, bears to the amount (if any) by which the taxpayers adjusted gross income exceeds $150,000, bears to (ii) $40,000. $40,000. (B) Determination of adjusted gross income For purposes of subparagraph (A), adjusted gross income shall be determined without regard to sections 911, 931, and 933. For purposes of subparagraph (A), adjusted gross income shall be determined without regard to sections 911, 931, and 933. (3) Denial of double benefit (A) In general No credit shall be allowed under subsection (a) for any expense for which a deduction or credit is allowed under any other provision of this chapter. (B) Grants No credit shall be allowed under subsection (a) for any expense to the extent that funds for such expense are received under any Federal, State, or local program. (A) In general No credit shall be allowed under subsection (a) for any expense for which a deduction or credit is allowed under any other provision of this chapter. No credit shall be allowed under subsection (a) for any expense for which a deduction or credit is allowed under any other provision of this chapter. (B) Grants No credit shall be allowed under subsection (a) for any expense to the extent that funds for such expense are received under any Federal, State, or local program. No credit shall be allowed under subsection (a) for any expense to the extent that funds for such expense are received under any Federal, State, or local program. (c) Carryforwards of unused credit (1) In general If the credit allowable under subsection (a) for any taxable year exceeds the limitation imposed by section 26(a) for such taxable year reduced by the sum of the credits allowable under this subpart (other than this section and sections 25D and 1400C), such excess shall be carried to the succeeding taxable year and added to the credit allowable under subsection (a) for such taxable year. (2) Limitation No credit may be carried forward under this subsection to any taxable year following the fifth taxable year after the taxable year in which the credit arose. For purposes of the preceding sentence, credits shall be treated as used on a first-in first-out basis. (1) In general If the credit allowable under subsection (a) for any taxable year exceeds the limitation imposed by section 26(a) for such taxable year reduced by the sum of the credits allowable under this subpart (other than this section and sections 25D and 1400C), such excess shall be carried to the succeeding taxable year and added to the credit allowable under subsection (a) for such taxable year. If the credit allowable under subsection (a) for any taxable year exceeds the limitation imposed by section 26(a) for such taxable year reduced by the sum of the credits allowable under this subpart (other than this section and sections 25D and 1400C), such excess shall be carried to the succeeding taxable year and added to the credit allowable under subsection (a) for such taxable year. (2) Limitation No credit may be carried forward under this subsection to any taxable year following the fifth taxable year after the taxable year in which the credit arose. For purposes of the preceding sentence, credits shall be treated as used on a first-in first-out basis. No credit may be carried forward under this subsection to any taxable year following the fifth taxable year after the taxable year in which the credit arose. For purposes of the preceding sentence, credits shall be treated as used on a first-in first-out basis. (d) Definitions For purposes of this section (1) Qualified adoption expenses The term qualified adoption expenses means reasonable and necessary adoption fees, court costs, attorney fees, and other expenses (A) which are directly related to, and the principal purpose of which is for, the legal adoption of an eligible child by the taxpayer, (B) which are not incurred in violation of State or Federal law or in carrying out any surrogate parenting arrangement, (C) which are not expenses in connection with the adoption by an individual of a child who is the child of such individuals spouse, and (D) which are not reimbursed under an employer program or otherwise. (2) Eligible child The term eligible child means any individual who (A) has not attained age 18, or (B) is physically or mentally incapable of caring for himself. (3) Child with special needs The term child with special needs means any child if (A) a State has determined that the child cannot or should not be returned to the home of his parents, (B) such State has determined that there exists with respect to the child a specific factor or condition (such as his ethnic background, age, or membership in a minority or sibling group, or the presence of factors such as medical conditions or physical, mental, or emotional handicaps) because of which it is reasonable to conclude that such child cannot be placed with adoptive parents without providing adoption assistance, and (C) such child is a citizen or resident of the United States (as defined in section 217(h)(3)). (1) Qualified adoption expenses The term qualified adoption expenses means reasonable and necessary adoption fees, court costs, attorney fees, and other expenses (A) which are directly related to, and the principal purpose of which is for, the legal adoption of an eligible child by the taxpayer, (B) which are not incurred in violation of State or Federal law or in carrying out any surrogate parenting arrangement, (C) which are not expenses in connection with the adoption by an individual of a child who is the child of such individuals spouse, and (D) which are not reimbursed under an employer program or otherwise. (A) which are directly related to, and the principal purpose of which is for, the legal adoption of an eligible child by the taxpayer, which are directly related to, and the principal purpose of which is for, the legal adoption of an eligible child by the taxpayer, (B) which are not incurred in violation of State or Federal law or in carrying out any surrogate parenting arrangement, which are not incurred in violation of State or Federal law or in carrying out any surrogate parenting arrangement, (C) which are not expenses in connection with the adoption by an individual of a child who is the child of such individuals spouse, and which are not expenses in connection with the adoption by an individual of a child who is the child of such individuals spouse, and (D) which are not reimbursed under an employer program or otherwise. which are not reimbursed under an employer program or otherwise. (2) Eligible child The term eligible child means any individual who (A) has not attained age 18, or (B) is physically or mentally incapable of caring for himself. (A) has not attained age 18, or has not attained age 18, or (B) is physically or mentally incapable of caring for himself. is physically or mentally incapable of caring for himself. (3) Child with special needs The term child with special needs means any child if (A) a State has determined that the child cannot or should not be returned to the home of his parents, (B) such State has determined that there exists with respect to the child a specific factor or condition (such as his ethnic background, age, or membership in a minority or sibling group, or the presence of factors such as medical conditions or physical, mental, or emotional handicaps) because of which it is reasonable to conclude that such child cannot be placed with adoptive parents without providing adoption assistance, and (C) such child is a citizen or resident of the United States (as defined in section 217(h)(3)). (A) a State has determined that the child cannot or should not be returned to the home of his parents, a State has determined that the child cannot or should not be returned to the home of his parents, (B) such State has determined that there exists with respect to the child a specific factor or condition (such as his ethnic background, age, or membership in a minority or sibling group, or the presence of factors such as medical conditions or physical, mental, or emotional handicaps) because of which it is reasonable to conclude that such child cannot be placed with adoptive parents without providing adoption assistance, and such State has determined that there exists with respect to the child a specific factor or condition (such as his ethnic background, age, or membership in a minority or sibling group, or the presence of factors such as medical conditions or physical, mental, or emotional handicaps) because of which it is reasonable to conclude that such child cannot be placed with adoptive parents without providing adoption assistance, and (C) such child is a citizen or resident of the United States (as defined in section 217(h)(3)). such child is a citizen or resident of the United States (as defined in section 217(h)(3)). (e) Special rules for foreign adoptions In the case of an adoption of a child who is not a citizen or resident of the United States (as defined in section 217(h)(3)) (1) subsection (a) shall not apply to any qualified adoption expense with respect to such adoption unless such adoption becomes final, and (2) any such expense which is paid or incurred before the taxable year in which such adoption becomes final shall be taken into account under this section as if such expense were paid or incurred during such year. (1) subsection (a) shall not apply to any qualified adoption expense with respect to such adoption unless such adoption becomes final, and subsection (a) shall not apply to any qualified adoption expense with respect to such adoption unless such adoption becomes final, and (2) any such expense which is paid or incurred before the taxable year in which such adoption becomes final shall be taken into account under this section as if such expense were paid or incurred during such year. any such expense which is paid or incurred before the taxable year in which such adoption becomes final shall be taken into account under this section as if such expense were paid or incurred during such year. (f) Filing requirements (1) Married couples must file joint returns Rules similar to the rules of paragraphs (2), (3), and (4) of section 21(e) shall apply for purposes of this section. (2) Taxpayer must include TIN (A) In general No credit shall be allowed under this section with respect to any eligible child unless the taxpayer includes (if known) the name, age, and TIN of such child on the return of tax for the taxable year. (B) Other methods The Secretary may, in lieu of the information referred to in subparagraph (A), require other information meeting the purposes of subparagraph (A), including identification of an agent assisting with the adoption. (1) Married couples must file joint returns Rules similar to the rules of paragraphs (2), (3), and (4) of section 21(e) shall apply for purposes of this section. Rules similar to the rules of paragraphs (2), (3), and (4) of section 21(e) shall apply for purposes of this section. (2) Taxpayer must include TIN (A) In general No credit shall be allowed under this section with respect to any eligible child unless the taxpayer includes (if known) the name, age, and TIN of such child on the return of tax for the taxable year. (B) Other methods The Secretary may, in lieu of the information referred to in subparagraph (A), require other information meeting the purposes of subparagraph (A), including identification of an agent assisting with the adoption. (A) In general No credit shall be allowed under this section with respect to any eligible child unless the taxpayer includes (if known) the name, age, and TIN of such child on the return of tax for the taxable year. No credit shall be allowed under this section with respect to any eligible child unless the taxpayer includes (if known) the name, age, and TIN of such child on the return of tax for the taxable year. (B) Other methods The Secretary may, in lieu of the information referred to in subparagraph (A), require other information meeting the purposes of subparagraph (A), including identification of an agent assisting with the adoption. The Secretary may, in lieu of the information referred to in subparagraph (A), require other information meeting the purposes of subparagraph (A), including identification of an agent assisting with the adoption. (g) Basis adjustments For purposes of this subtitle, if a credit is allowed under this section for any expenditure with respect to any property, the increase in the basis of such property which would (but for this subsection) result from such expenditure shall be reduced by the amount of the credit so allowed. For purposes of this subtitle, if a credit is allowed under this section for any expenditure with respect to any property, the increase in the basis of such property which would (but for this subsection) result from such expenditure shall be reduced by the amount of the credit so allowed. (h) Adjustments for inflation In the case of a taxable year beginning after December 31, 2002 , each of the dollar amounts in subsection (a)(3) and paragraphs (1) and (2)(A)(i) of subsection (b) shall be increased by an amount equal to (1) such dollar amount, multiplied by (2) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting calendar year 2001 for calendar year 1992 in subparagraph (B) thereof. If any amount as increased under the preceding sentence is not a multiple of $10, such amount shall be rounded to the nearest multiple of $10. (1) such dollar amount, multiplied by such dollar amount, multiplied by (2) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting calendar year 2001 for calendar year 1992 in subparagraph (B) thereof. the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting calendar year 2001 for calendar year 1992 in subparagraph (B) thereof. If any amount as increased under the preceding sentence is not a multiple of $10, such amount shall be rounded to the nearest multiple of $10. (i) Regulations The Secretary shall prescribe such regulations as may be appropriate to carry out this section and section 137, including regulations which treat unmarried individuals who pay or incur qualified adoption expenses with respect to the same child as 1 taxpayer for purposes of applying the dollar amounts in subsections (a)(3) and (b)(1) of this section and in section 137(b)(1). The Secretary shall prescribe such regulations as may be appropriate to carry out this section and section 137, including regulations which treat unmarried individuals who pay or incur qualified adoption expenses with respect to the same child as 1 taxpayer for purposes of applying the dollar amounts in subsections (a)(3) and (b)(1) of this section and in section 137(b)(1).</t>
+  </si>
+  <si>
+    <t>§24. Child tax credit (a) Allowance of credit There shall be allowed as a credit against the tax imposed by this chapter for the taxable year with respect to each qualifying child of the taxpayer for which the taxpayer is allowed a deduction under section 151 an amount equal to $1,000. There shall be allowed as a credit against the tax imposed by this chapter for the taxable year with respect to each qualifying child of the taxpayer for which the taxpayer is allowed a deduction under section 151 an amount equal to $1,000. (b) Limitations (1) Limitation based on adjusted gross income The amount of the credit allowable under subsection (a) shall be reduced (but not below zero) by $50 for each $1,000 (or fraction thereof) by which the taxpayers modified adjusted gross income exceeds the threshold amount. For purposes of the preceding sentence, the term modified adjusted gross income means adjusted gross income increased by any amount excluded from gross income under section 911, 931, or 933. (2) Threshold amount For purposes of paragraph (1), the term threshold amount means (A) $110,000 in the case of a joint return, (B) $75,000 in the case of an individual who is not married, and (C) $55,000 in the case of a married individual filing a separate return. For purposes of this paragraph, marital status shall be determined under section 7703. (1) Limitation based on adjusted gross income The amount of the credit allowable under subsection (a) shall be reduced (but not below zero) by $50 for each $1,000 (or fraction thereof) by which the taxpayers modified adjusted gross income exceeds the threshold amount. For purposes of the preceding sentence, the term modified adjusted gross income means adjusted gross income increased by any amount excluded from gross income under section 911, 931, or 933. The amount of the credit allowable under subsection (a) shall be reduced (but not below zero) by $50 for each $1,000 (or fraction thereof) by which the taxpayers modified adjusted gross income exceeds the threshold amount. For purposes of the preceding sentence, the term modified adjusted gross income means adjusted gross income increased by any amount excluded from gross income under section 911, 931, or 933. (2) Threshold amount For purposes of paragraph (1), the term threshold amount means (A) $110,000 in the case of a joint return, (B) $75,000 in the case of an individual who is not married, and (C) $55,000 in the case of a married individual filing a separate return. For purposes of this paragraph, marital status shall be determined under section 7703. (A) $110,000 in the case of a joint return, $110,000 in the case of a joint return, (B) $75,000 in the case of an individual who is not married, and $75,000 in the case of an individual who is not married, and (C) $55,000 in the case of a married individual filing a separate return. $55,000 in the case of a married individual filing a separate return. For purposes of this paragraph, marital status shall be determined under section 7703. (c) Qualifying child For purposes of this section (1) In general The term qualifying child means a qualifying child of the taxpayer (as defined in section 152(c)) who has not attained age 17. (2) Exception for certain noncitizens The term qualifying child shall not include any individual who would not be a dependent if subparagraph (A) of section 152(b)(3) were applied without regard to all that follows resident of the United States. (1) In general The term qualifying child means a qualifying child of the taxpayer (as defined in section 152(c)) who has not attained age 17. The term qualifying child means a qualifying child of the taxpayer (as defined in section 152(c)) who has not attained age 17. (2) Exception for certain noncitizens The term qualifying child shall not include any individual who would not be a dependent if subparagraph (A) of section 152(b)(3) were applied without regard to all that follows resident of the United States. The term qualifying child shall not include any individual who would not be a dependent if subparagraph (A) of section 152(b)(3) were applied without regard to all that follows resident of the United States. (d) Portion of credit refundable (1) In general The aggregate credits allowed to a taxpayer under subpart C shall be increased by the lesser of (A) the credit which would be allowed under this section without regard to this subsection and the limitation under section 26(a) or (B) the amount by which the aggregate amount of credits allowed by this subpart (determined without regard to this subsection) would increase if the limitation imposed by section 26(a) were increased by the greater of (i) 15 percent of so much of the taxpayers earned income (within the meaning of section 32) which is taken into account in computing taxable income for the taxable year as exceeds $3,000, or (ii) in the case of a taxpayer with 3 or more qualifying children, the excess (if any) of (I) the taxpayers social security taxes for the taxable year, over (II) the credit allowed under section 32 for the taxable year. The amount of the credit allowed under this subsection shall not be treated as a credit allowed under this subpart and shall reduce the amount of credit otherwise allowable under subsection (a) without regard to section 26(a). For purposes of subparagraph (B), any amount excluded from gross income by reason of section 112 shall be treated as earned income which is taken into account in computing taxable income for the taxable year. (2) Social security taxes For purposes of paragraph (1) (A) In general The term social security taxes means, with respect to any taxpayer for any taxable year (i) the amount of the taxes imposed by sections 3101 and 3201(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins, (ii) 50 percent of the taxes imposed by section 1401 on the self-employment income of the taxpayer for the taxable year, and (iii) 50 percent of the taxes imposed by section 3211(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins. (B) Coordination with special refund of social security taxes The term social security taxes shall not include any taxes to the extent the taxpayer is entitled to a special refund of such taxes under section 6413(c). (C) Special rule Any amounts paid pursuant to an agreement under section 3121( l ) (relating to agreements entered into by American employers with respect to foreign affiliates) which are equivalent to the taxes referred to in subparagraph (A)(i) shall be treated as taxes referred to in such subparagraph. [(3) , (4) Repealed. Pub. L. 114113, div. Q, title I , §101(b), Dec. 18, 2015 , 129 Stat. 3044 ] (5) Exception for taxpayers excluding foreign earned income Paragraph (1) shall not apply to any taxpayer for any taxable year if such taxpayer elects to exclude any amount from gross income under section 911 for such taxable year. (1) In general The aggregate credits allowed to a taxpayer under subpart C shall be increased by the lesser of (A) the credit which would be allowed under this section without regard to this subsection and the limitation under section 26(a) or (B) the amount by which the aggregate amount of credits allowed by this subpart (determined without regard to this subsection) would increase if the limitation imposed by section 26(a) were increased by the greater of (i) 15 percent of so much of the taxpayers earned income (within the meaning of section 32) which is taken into account in computing taxable income for the taxable year as exceeds $3,000, or (ii) in the case of a taxpayer with 3 or more qualifying children, the excess (if any) of (I) the taxpayers social security taxes for the taxable year, over (II) the credit allowed under section 32 for the taxable year. The amount of the credit allowed under this subsection shall not be treated as a credit allowed under this subpart and shall reduce the amount of credit otherwise allowable under subsection (a) without regard to section 26(a). For purposes of subparagraph (B), any amount excluded from gross income by reason of section 112 shall be treated as earned income which is taken into account in computing taxable income for the taxable year. (A) the credit which would be allowed under this section without regard to this subsection and the limitation under section 26(a) or the credit which would be allowed under this section without regard to this subsection and the limitation under section 26(a) or (B) the amount by which the aggregate amount of credits allowed by this subpart (determined without regard to this subsection) would increase if the limitation imposed by section 26(a) were increased by the greater of (i) 15 percent of so much of the taxpayers earned income (within the meaning of section 32) which is taken into account in computing taxable income for the taxable year as exceeds $3,000, or (ii) in the case of a taxpayer with 3 or more qualifying children, the excess (if any) of (I) the taxpayers social security taxes for the taxable year, over (II) the credit allowed under section 32 for the taxable year. (i) 15 percent of so much of the taxpayers earned income (within the meaning of section 32) which is taken into account in computing taxable income for the taxable year as exceeds $3,000, or 15 percent of so much of the taxpayers earned income (within the meaning of section 32) which is taken into account in computing taxable income for the taxable year as exceeds $3,000, or (ii) in the case of a taxpayer with 3 or more qualifying children, the excess (if any) of (I) the taxpayers social security taxes for the taxable year, over (II) the credit allowed under section 32 for the taxable year. (I) the taxpayers social security taxes for the taxable year, over the taxpayers social security taxes for the taxable year, over (II) the credit allowed under section 32 for the taxable year. the credit allowed under section 32 for the taxable year. The amount of the credit allowed under this subsection shall not be treated as a credit allowed under this subpart and shall reduce the amount of credit otherwise allowable under subsection (a) without regard to section 26(a). For purposes of subparagraph (B), any amount excluded from gross income by reason of section 112 shall be treated as earned income which is taken into account in computing taxable income for the taxable year. (2) Social security taxes For purposes of paragraph (1) (A) In general The term social security taxes means, with respect to any taxpayer for any taxable year (i) the amount of the taxes imposed by sections 3101 and 3201(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins, (ii) 50 percent of the taxes imposed by section 1401 on the self-employment income of the taxpayer for the taxable year, and (iii) 50 percent of the taxes imposed by section 3211(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins. (B) Coordination with special refund of social security taxes The term social security taxes shall not include any taxes to the extent the taxpayer is entitled to a special refund of such taxes under section 6413(c). (C) Special rule Any amounts paid pursuant to an agreement under section 3121( l ) (relating to agreements entered into by American employers with respect to foreign affiliates) which are equivalent to the taxes referred to in subparagraph (A)(i) shall be treated as taxes referred to in such subparagraph. (A) In general The term social security taxes means, with respect to any taxpayer for any taxable year (i) the amount of the taxes imposed by sections 3101 and 3201(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins, (ii) 50 percent of the taxes imposed by section 1401 on the self-employment income of the taxpayer for the taxable year, and (iii) 50 percent of the taxes imposed by section 3211(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins. (i) the amount of the taxes imposed by sections 3101 and 3201(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins, the amount of the taxes imposed by sections 3101 and 3201(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins, (ii) 50 percent of the taxes imposed by section 1401 on the self-employment income of the taxpayer for the taxable year, and 50 percent of the taxes imposed by section 1401 on the self-employment income of the taxpayer for the taxable year, and (iii) 50 percent of the taxes imposed by section 3211(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins. 50 percent of the taxes imposed by section 3211(a) on amounts received by the taxpayer during the calendar year in which the taxable year begins. (B) Coordination with special refund of social security taxes The term social security taxes shall not include any taxes to the extent the taxpayer is entitled to a special refund of such taxes under section 6413(c). The term social security taxes shall not include any taxes to the extent the taxpayer is entitled to a special refund of such taxes under section 6413(c). (C) Special rule Any amounts paid pursuant to an agreement under section 3121( l ) (relating to agreements entered into by American employers with respect to foreign affiliates) which are equivalent to the taxes referred to in subparagraph (A)(i) shall be treated as taxes referred to in such subparagraph. Any amounts paid pursuant to an agreement under section 3121( l ) (relating to agreements entered into by American employers with respect to foreign affiliates) which are equivalent to the taxes referred to in subparagraph (A)(i) shall be treated as taxes referred to in such subparagraph. [(3) , (4) Repealed. Pub. L. 114113, div. Q, title I , §101(b), Dec. 18, 2015 , 129 Stat. 3044 ] (5) Exception for taxpayers excluding foreign earned income Paragraph (1) shall not apply to any taxpayer for any taxable year if such taxpayer elects to exclude any amount from gross income under section 911 for such taxable year. Paragraph (1) shall not apply to any taxpayer for any taxable year if such taxpayer elects to exclude any amount from gross income under section 911 for such taxable year. (e) Identification requirements (1) Qualifying child identification requirement No credit shall be allowed under this section to a taxpayer with respect to any qualifying child unless the taxpayer includes the name and taxpayer identification number of such qualifying child on the return of tax for the taxable year and such taxpayer identification number was issued on or before the due date for filing such return. (2) Taxpayer identification requirement No credit shall be allowed under this section if the identifying number of the taxpayer was issued after the due date for filing the return for the taxable year. (1) Qualifying child identification requirement No credit shall be allowed under this section to a taxpayer with respect to any qualifying child unless the taxpayer includes the name and taxpayer identification number of such qualifying child on the return of tax for the taxable year and such taxpayer identification number was issued on or before the due date for filing such return. No credit shall be allowed under this section to a taxpayer with respect to any qualifying child unless the taxpayer includes the name and taxpayer identification number of such qualifying child on the return of tax for the taxable year and such taxpayer identification number was issued on or before the due date for filing such return. (2) Taxpayer identification requirement No credit shall be allowed under this section if the identifying number of the taxpayer was issued after the due date for filing the return for the taxable year. No credit shall be allowed under this section if the identifying number of the taxpayer was issued after the due date for filing the return for the taxable year. (f) Taxable year must be full taxable year Except in the case of a taxable year closed by reason of the death of the taxpayer, no credit shall be allowable under this section in the case of a taxable year covering a period of less than 12 months. Except in the case of a taxable year closed by reason of the death of the taxpayer, no credit shall be allowable under this section in the case of a taxable year covering a period of less than 12 months. (g) Restrictions on taxpayers who improperly claimed credit in prior year (1) Taxpayers making prior fraudulent or reckless claims (A) In general No credit shall be allowed under this section for any taxable year in the disallowance period. (B) Disallowance period For purposes of subparagraph (A), the disallowance period is (i) the period of 10 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to fraud, and (ii) the period of 2 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to reckless or intentional disregard of rules and regulations (but not due to fraud). (2) Taxpayers making improper prior claims In the case of a taxpayer who is denied credit under this section for any taxable year as a result of the deficiency procedures under subchapter B of chapter 63, no credit shall be allowed under this section for any subsequent taxable year unless the taxpayer provides such information as the Secretary may require to demonstrate eligibility for such credit. (1) Taxpayers making prior fraudulent or reckless claims (A) In general No credit shall be allowed under this section for any taxable year in the disallowance period. (B) Disallowance period For purposes of subparagraph (A), the disallowance period is (i) the period of 10 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to fraud, and (ii) the period of 2 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to reckless or intentional disregard of rules and regulations (but not due to fraud). (A) In general No credit shall be allowed under this section for any taxable year in the disallowance period. No credit shall be allowed under this section for any taxable year in the disallowance period. (B) Disallowance period For purposes of subparagraph (A), the disallowance period is (i) the period of 10 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to fraud, and (ii) the period of 2 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to reckless or intentional disregard of rules and regulations (but not due to fraud). (i) the period of 10 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to fraud, and the period of 10 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to fraud, and (ii) the period of 2 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to reckless or intentional disregard of rules and regulations (but not due to fraud). the period of 2 taxable years after the most recent taxable year for which there was a final determination that the taxpayers claim of credit under this section was due to reckless or intentional disregard of rules and regulations (but not due to fraud). (2) Taxpayers making improper prior claims In the case of a taxpayer who is denied credit under this section for any taxable year as a result of the deficiency procedures under subchapter B of chapter 63, no credit shall be allowed under this section for any subsequent taxable year unless the taxpayer provides such information as the Secretary may require to demonstrate eligibility for such credit. In the case of a taxpayer who is denied credit under this section for any taxable year as a result of the deficiency procedures under subchapter B of chapter 63, no credit shall be allowed under this section for any subsequent taxable year unless the taxpayer provides such information as the Secretary may require to demonstrate eligibility for such credit.</t>
+  </si>
+  <si>
+    <t>§25. Interest on certain home mortgages (a) Allowance of credit (1) In general There shall be allowed as a credit against the tax imposed by this chapter for the taxable year an amount equal to the product of (A) the certificate credit rate, and (B) the interest paid or accrued by the taxpayer during the taxable year on the remaining principal of the certified indebtedness amount. (2) Limitation where credit rate exceeds 20 percent (A) In general If the certificate credit rate exceeds 20 percent, the amount of the credit allowed to the taxpayer under paragraph (1) for any taxable year shall not exceed $2,000. (B) Special rule where 2 or more persons hold interests in residence If 2 or more persons hold interests in any residence, the limitation of subparagraph (A) shall be allocated among such persons in proportion to their respective interests in the residence. (1) In general There shall be allowed as a credit against the tax imposed by this chapter for the taxable year an amount equal to the product of (A) the certificate credit rate, and (B) the interest paid or accrued by the taxpayer during the taxable year on the remaining principal of the certified indebtedness amount. (A) the certificate credit rate, and the certificate credit rate, and (B) the interest paid or accrued by the taxpayer during the taxable year on the remaining principal of the certified indebtedness amount. the interest paid or accrued by the taxpayer during the taxable year on the remaining principal of the certified indebtedness amount. (2) Limitation where credit rate exceeds 20 percent (A) In general If the certificate credit rate exceeds 20 percent, the amount of the credit allowed to the taxpayer under paragraph (1) for any taxable year shall not exceed $2,000. (B) Special rule where 2 or more persons hold interests in residence If 2 or more persons hold interests in any residence, the limitation of subparagraph (A) shall be allocated among such persons in proportion to their respective interests in the residence. (A) In general If the certificate credit rate exceeds 20 percent, the amount of the credit allowed to the taxpayer under paragraph (1) for any taxable year shall not exceed $2,000. If the certificate credit rate exceeds 20 percent, the amount of the credit allowed to the taxpayer under paragraph (1) for any taxable year shall not exceed $2,000. (B) Special rule where 2 or more persons hold interests in residence If 2 or more persons hold interests in any residence, the limitation of subparagraph (A) shall be allocated among such persons in proportion to their respective interests in the residence. If 2 or more persons hold interests in any residence, the limitation of subparagraph (A) shall be allocated among such persons in proportion to their respective interests in the residence. (b) Certificate credit rate; certified indebtedness amount For purposes of this section (1) Certificate credit rate The term certificate credit rate means the rate of the credit allowable by this section which is specified in the mortgage credit certificate. (2) Certified indebtedness amount The term certified indebtedness amount means the amount of indebtedness which is (A) incurred by the taxpayer (i) to acquire the principal residence of the taxpayer, (ii) as a qualified home improvement loan (as defined in section 143(k)(4)) with respect to such residence, or (iii) as a qualified rehabilitation loan (as defined in section 143(k)(5)) with respect to such residence, and (B) specified in the mortgage credit certificate. (1) Certificate credit rate The term certificate credit rate means the rate of the credit allowable by this section which is specified in the mortgage credit certificate. The term certificate credit rate means the rate of the credit allowable by this section which is specified in the mortgage credit certificate. (2) Certified indebtedness amount The term certified indebtedness amount means the amount of indebtedness which is (A) incurred by the taxpayer (i) to acquire the principal residence of the taxpayer, (ii) as a qualified home improvement loan (as defined in section 143(k)(4)) with respect to such residence, or (iii) as a qualified rehabilitation loan (as defined in section 143(k)(5)) with respect to such residence, and (B) specified in the mortgage credit certificate. (A) incurred by the taxpayer (i) to acquire the principal residence of the taxpayer, (ii) as a qualified home improvement loan (as defined in section 143(k)(4)) with respect to such residence, or (iii) as a qualified rehabilitation loan (as defined in section 143(k)(5)) with respect to such residence, and (i) to acquire the principal residence of the taxpayer, to acquire the principal residence of the taxpayer, (ii) as a qualified home improvement loan (as defined in section 143(k)(4)) with respect to such residence, or as a qualified home improvement loan (as defined in section 143(k)(4)) with respect to such residence, or (iii) as a qualified rehabilitation loan (as defined in section 143(k)(5)) with respect to such residence, and as a qualified rehabilitation loan (as defined in section 143(k)(5)) with respect to such residence, and (B) specified in the mortgage credit certificate. specified in the mortgage credit certificate. (c) Mortgage credit certificate; qualified mortgage credit certificate program For purposes of this section (1) Mortgage credit certificate The term mortgage credit certificate means any certificate which (A) is issued under a qualified mortgage credit certificate program by the State or political subdivision having the authority to issue a qualified mortgage bond to provide financing on the principal residence of the taxpayer, (B) is issued to the taxpayer in connection with the acquisition, qualified rehabilitation, or qualified home improvement of the taxpayers principal residence, (C) specifies (i) the certificate credit rate, and (ii) the certified indebtedness amount, and (D) is in such form as the Secretary may prescribe. (2) Qualified mortgage credit certificate program (A) In general The term qualified mortgage credit certificate program means any program (i) which is established by a State or political subdivision thereof for any calendar year for which it is authorized to issue qualified mortgage bonds, (ii) under which the issuing authority elects (in such manner and form as the Secretary may prescribe) not to issue an amount of private activity bonds which it may otherwise issue during such calendar year under section 146, (iii) under which the indebtedness certified by mortgage credit certificates meets the requirements of the following subsections of section 143 (as modified by subparagraph (B) of this paragraph): (I) subsection (c) (relating to residence requirements), (II) subsection (d) (relating to 3-year requirement), (III) subsection (e) (relating to purchase price requirement), (IV) subsection (f) (relating to income requirements), (V) subsection (h) (relating to portion of loans required to be placed in targeted areas), and (VI) paragraph (1) of subsection (i) (relating to other requirements), (iv) under which no mortgage credit certificate may be issued with respect to any residence any of the financing of which is provided from the proceeds of a qualified mortgage bond or a qualified veterans mortgage bond, (v) except to the extent provided in regulations, which is not limited to indebtedness incurred from particular lenders, (vi) except to the extent provided in regulations, which provides that a mortgage credit certificate is not transferrable, and (vii) if the issuing authority allocates a block of mortgage credit certificates for use in connection with a particular development, which requires the developer to furnish to the issuing authority and the homebuyer a certificate that the price for the residence is no higher than it would be without the use of a mortgage credit certificate. Under regulations, rules similar to the rules of subparagraphs (B) and (C) of section 143(a)(2) shall apply to the requirements of this subparagraph. (B) Modifications of section 143 Under regulations prescribed by the Secretary, in applying section 143 for purposes of subclauses (II), (IV), and (V) of subparagraph (A)(iii) (i) each qualified mortgage certificate credit program shall be treated as a separate issue, (ii) the product determined by multiplying (I) the certified indebtedness amount of each mortgage credit certificate issued under such program, by (II) the certificate credit rate specified in such certificate, shall be treated as proceeds of such issue and the sum of such products shall be treated as the total proceeds of such issue, and (iii) paragraph (1) of section 143(d) shall be applied by substituting 100 percent for 95 percent or more. Clause (iii) shall not apply if the issuing authority submits a plan to the Secretary for administering the 95-percent requirement of section 143(d)(1) and the Secretary is satisfied that such requirement will be met under such plan. (1) Mortgage credit certificate The term mortgage credit certificate means any certificate which (A) is issued under a qualified mortgage credit certificate program by the State or political subdivision having the authority to issue a qualified mortgage bond to provide financing on the principal residence of the taxpayer, (B) is issued to the taxpayer in connection with the acquisition, qualified rehabilitation, or qualified home improvement of the taxpayers principal residence, (C) specifies (i) the certificate credit rate, and (ii) the certified indebtedness amount, and (D) is in such form as the Secretary may prescribe. (A) is issued under a qualified mortgage credit certificate program by the State or political subdivision having the authority to issue a qualified mortgage bond to provide financing on the principal residence of the taxpayer, is issued under a qualified mortgage credit certificate program by the State or political subdivision having the authority to issue a qualified mortgage bond to provide financing on the principal residence of the taxpayer, (B) is issued to the taxpayer in connection with the acquisition, qualified rehabilitation, or qualified home improvement of the taxpayers principal residence, is issued to the taxpayer in connection with the acquisition, qualified rehabilitation, or qualified home improvement of the taxpayers principal residence, (C) specifies (i) the certificate credit rate, and (ii) the certified indebtedness amount, and (i) the certificate credit rate, and the certificate credit rate, and (ii) the certified indebtedness amount, and the certified indebtedness amount, and (D) is in such form as the Secretary may prescribe. is in such form as the Secretary may prescribe. (2) Qualified mortgage credit certificate program (A) In general The term qualified mortgage credit certificate program means any program (i) which is established by a State or political subdivision thereof for any calendar year for which it is authorized to issue qualified mortgage bonds, (ii) under which the issuing authority elects (in such manner and form as the Secretary may prescribe) not to issue an amount of private activity bonds which it may otherwise issue during such calendar year under section 146, (iii) under which the indebtedness certified by mortgage credit certificates meets the requirements of the following subsections of section 143 (as modified by subparagraph (B) of this paragraph): (I) subsection (c) (relating to residence requirements), (II) subsection (d) (relating to 3-year requirement), (III) subsection (e) (relating to purchase price requirement), (IV) subsection (f) (relating to income requirements), (V) subsection (h) (relating to portion of loans required to be placed in targeted areas), and (VI) paragraph (1) of subsection (i) (relating to other requirements), (iv) under which no mortgage credit certificate may be issued with respect to any residence any of the financing of which is provided from the proceeds of a qualified mortgage bond or a qualified veterans mortgage bond, (v) except to the extent provided in regulations, which is not limited to indebtedness incurred from particular lenders, (vi) except to the extent provided in regulations, which provides that a mortgage credit certificate is not transferrable, and (vii) if the issuing authority allocates a block of mortgage credit certificates for use in connection with a particular development, which requires the developer to furnish to the issuing authority and the homebuyer a certificate that the price for the residence is no higher than it would be without the use of a mortgage credit certificate. Under regulations, rules similar to the rules of subparagraphs (B) and (C) of section 143(a)(2) shall apply to the requirements of this subparagraph. (B) Modifications of section 143 Under regulations prescribed by the Secretary, in applying section 143 for purposes of subclauses (II), (IV), and (V) of subparagraph (A)(iii) (i) each qualified mortgage certificate credit program shall be treated as a separate issue, (ii) the product determined by multiplying (I) the certified indebtedness amount of each mortgage credit certificate issued under such program, by (II) the certificate credit rate specified in such certificate, shall be treated as proceeds of such issue and the sum of such products shall be treated as the total proceeds of such issue, and (iii) paragraph (1) of section 143(d) shall be applied by substituting 100 percent for 95 percent or more. Clause (iii) shall not apply if the issuing authority submits a plan to the Secretary for administering the 95-percent requirement of section 143(d)(1) and the Secretary is satisfied that such requirement will be met under such plan. (A) In general The term qualified mortgage credit certificate program means any program (i) which is established by a State or political subdivision thereof for any calendar year for which it is authorized to issue qualified mortgage bonds, (ii) under which the issuing authority elects (in such manner and form as the Secretary may prescribe) not to issue an amount of private activity bonds which it may otherwise issue during such calendar year under section 146, (iii) under which the indebtedness certified by mortgage credit certificates meets the requirements of the following subsections of section 143 (as modified by subparagraph (B) of this paragraph): (I) subsection (c) (relating to residence requirements), (II) subsection (d) (relating to 3-year requirement), (III) subsection (e) (relating to purchase price requirement), (IV) subsection (f) (relating to income requirements), (V) subsection (h) (relating to portion of loans required to be placed in targeted areas), and (VI) paragraph (1) of subsection (i) (relating to other requirements), (iv) under which no mortgage credit certificate may be issued with respect to any residence any of the financing of which is provided from the proceeds of a qualified mortgage bond or a qualified veterans mortgage bond, (v) except to the extent provided in regulations, which is not limited to indebtedness incurred from particular lenders, (vi) except to the extent provided in regulations, which provides that a mortgage credit certificate is not transferrable, and (vii) if the issuing authority allocates a block of mortgage credit certificates for use in connection with a particular development, which requires the developer to furnish to the issuing authority and the homebuyer a certificate that the price for the residence is no higher than it would be without the use of a mortgage credit certificate. Under regulations, rules similar to the rules of subparagraphs (B) and (C) of section 143(a)(2) shall apply to the requirements of this subparagraph. (i) which is established by a State or political subdivision thereof for any calendar year for which it is authorized to issue qualified mortgage bonds, which is established by a State or political subdivision thereof for any calendar year for which it is authorized to issue qualified mortgage bonds, (ii) under which the issuing authority elects (in such manner and form as the Secretary may prescribe) not to issue an amount of private activity bonds which it may otherwise issue during such calendar year under section 146, under which the issuing authority elects (in such manner and form as the Secretary may prescribe) not to issue an amount of private activity bonds which it may otherwise issue during such calendar year under section 146, (iii) under which the indebtedness certified by mortgage credit certificates meets the requirements of the following subsections of section 143 (as modified by subparagraph (B) of this paragraph): (I) subsection (c) (relating to residence requirements), (II) subsection (d) (relating to 3-year requirement), (III) subsection (e) (relating to purchase price requirement), (IV) subsection (f) (relating to income requirements), (V) subsection (h) (relating to portion of loans required to be placed in targeted areas), and (VI) paragraph (1) of subsection (i) (relating to other requirements), (I) subsection (c) (relating to residence requirements), subsection (c) (relating to residence requirements), (II) subsection (d) (relating to 3-year requirement), subsection (d) (relating to 3-year requirement), (III) subsection (e) (relating to purchase price requirement), subsection (e) (relating to purchase price requirement), (IV) subsection (f) (relating to income requirements), subsection (f) (relating to income requirements), (V) subsection (h) (relating to portion of loans required to be placed in targeted areas), and subsection (h) (relating to portion of loans required to be placed in targeted areas), and (VI) paragraph (1) of subsection (i) (relating to other requirements), paragraph (1) of subsection (i) (relating to other requirements), (iv) under which no mortgage credit certificate may be issued with respect to any residence any of the financing of which is provided from the proceeds of a qualified mortgage bond or a qualified veterans mortgage bond, under which no mortgage credit certificate may be issued with respect to any residence any of the financing of which is provided from the proceeds of a qualified mortgage bond or a qualified veterans mortgage bond, (v) except to the extent provided in regulations, which is not limited to indebtedness incurred from particular lenders, except to the extent provided in regulations, which is not limited to indebtedness incurred from particular lenders, (vi) except to the extent provided in regulations, which provides that a mortgage credit certificate is not transferrable, and except to the extent provided in regulations, which provides that a mortgage credit certificate is not transferrable, and (vii) if the issuing authority allocates a block of mortgage credit certificates for use in connection with a particular development, which requires the developer to furnish to the issuing authority and the homebuyer a certificate that the price for the residence is no higher than it would be without the use of a mortgage credit certificate. if the issuing authority allocates a block of mortgage credit certificates for use in connection with a particular development, which requires the developer to furnish to the issuing authority and the homebuyer a certificate that the price for the residence is no higher than it would be without the use of a mortgage credit certificate. Under regulations, rules similar to the rules of subparagraphs (B) and (C) of section 143(a)(2) shall apply to the requirements of this subparagraph. (B) Modifications of section 143 Under regulations prescribed by the Secretary, in applying section 143 for purposes of subclauses (II), (IV), and (V) of subparagraph (A)(iii) (i) each qualified mortgage certificate credit program shall be treated as a separate issue, (ii) the product determined by multiplying (I) the certified indebtedness amount of each mortgage credit certificate issued under such program, by (II) the certificate credit rate specified in such certificate, shall be treated as proceeds of such issue and the sum of such products shall be treated as the total proceeds of such issue, and (iii) paragraph (1) of section 143(d) shall be applied by substituting 100 percent for 95 percent or more. Clause (iii) shall not apply if the issuing authority submits a plan to the Secretary for administering the 95-percent requirement of section 143(d)(1) and the Secretary is satisfied that such requirement will be met under such plan. (i) each qualified mortgage certificate credit program shall be treated as a separate issue, each qualified mortgage certificate credit program shall be treated as a separate issue, (ii) the product determined by multiplying (I) the certified indebtedness amount of each mortgage credit certificate issued under such program, by (II) the certificate credit rate specified in such certificate, (I) the certified indebtedness amount of each mortgage credit certificate issued under such program, by the certified indebtedness amount of each mortgage credit certificate issued under such program, by (II) the certificate credit rate specified in such certificate, the certificate credit rate specified in such certificate, shall be treated as proceeds of such issue and the sum of such products shall be treated as the total proceeds of such issue, and (iii) paragraph (1) of section 143(d) shall be applied by substituting 100 percent for 95 percent or more. paragraph (1) of section 143(d) shall be applied by substituting 100 percent for 95 percent or more. Clause (iii) shall not apply if the issuing authority submits a plan to the Secretary for administering the 95-percent requirement of section 143(d)(1) and the Secretary is satisfied that such requirement will be met under such plan. (d) Determination of certificate credit rate For purposes of this section (1) In general The certificate credit rate specified in any mortgage credit certificate shall not be less than 10 percent or more than 50 percent. (2) Aggregate limit on certificate credit rates (A) In general In the case of each qualified mortgage credit certificate program, the sum of the products determined by multiplying (i) the certified indebtedness amount of each mortgage credit certificate issued under such program, by (ii) the certificate credit rate with respect to such certificate, shall not exceed 25 percent of the nonissued bond amount. (B) Nonissued bond amount For purposes of subparagraph (A), the term nonissued bond amount means, with respect to any qualified mortgage credit certificate program, the amount of qualified mortgage bonds which the issuing authority is otherwise authorized to issue and elects not to issue under subsection (c)(2)(A)(ii). (1) In general The certificate credit rate specified in any mortgage credit certificate shall not be less than 10 percent or more than 50 percent. The certificate credit rate specified in any mortgage credit certificate shall not be less than 10 percent or more than 50 percent. (2) Aggregate limit on certificate credit rates (A) In general In the case of each qualified mortgage credit certificate program, the sum of the products determined by multiplying (i) the certified indebtedness amount of each mortgage credit certificate issued under such program, by (ii) the certificate credit rate with respect to such certificate, shall not exceed 25 percent of the nonissued bond amount. (B) Nonissued bond amount For purposes of subparagraph (A), the term nonissued bond amount means, with respect to any qualified mortgage credit certificate program, the amount of qualified mortgage bonds which the issuing authority is otherwise authorized to issue and elects not to issue under subsection (c)(2)(A)(ii). (A) In general In the case of each qualified mortgage credit certificate program, the sum of the products determined by multiplying (i) the certified indebtedness amount of each mortgage credit certificate issued under such program, by (ii) the certificate credit rate with respect to such certificate, shall not exceed 25 percent of the nonissued bond amount. (i) the certified indebtedness amount of each mortgage credit certificate issued under such program, by the certified indebtedness amount of each mortgage credit certificate issued under such program, by (ii) the certificate credit rate with respect to such certificate, the certificate credit rate with respect to such certificate, shall not exceed 25 percent of the nonissued bond amount. (B) Nonissued bond amount For purposes of subparagraph (A), the term nonissued bond amount means, with respect to any qualified mortgage credit certificate program, the amount of qualified mortgage bonds which the issuing authority is otherwise authorized to issue and elects not to issue under subsection (c)(2)(A)(ii). For purposes of subparagraph (A), the term nonissued bond amount means, with respect to any qualified mortgage credit certificate program, the amount of qualified mortgage bonds which the issuing authority is otherwise authorized to issue and elects not to issue under subsection (c)(2)(A)(ii). (e) Special rules and definitions For purposes of this section (1) Carryforward of unused credit (A) In general If the credit allowable under subsection (a) for any taxable year exceeds the applicable tax limit for such taxable year, such excess shall be a carryover to each of the 3 succeeding taxable years and, subject to the limitations of subparagraph (B), shall be added to the credit allowable by subsection (a) for such succeeding taxable year. (B) Limitation The amount of the unused credit which may be taken into account under subparagraph (A) for any taxable year shall not exceed the amount (if any) by which the applicable tax limit for such taxable year exceeds the sum of (i) the credit allowable under subsection (a) for such taxable year determined without regard to this paragraph, and (ii) the amounts which, by reason of this paragraph, are carried to such taxable year and are attributable to taxable years before the unused credit year. (C) Applicable tax limit For purposes of this paragraph, the term applicable tax limit means the limitation imposed by section 26(a) for the taxable year reduced by the sum of the credits allowable under this subpart (other than this section and sections 23, 25D, and 1400C). (2) Indebtedness not treated as certified where certain requirements not in fact met Subsection (a) shall not apply to any indebtedness if all the requirements of subsection (c)(1), (d), (e), (f), and (i) of section 143 and clauses (iv), (v), and (vii) of subsection (c)(2)(A), were not in fact met with respect to such indebtedness. Except to the extent provided in regulations, the requirements described in the preceding sentence shall be treated as met if there is a certification, under penalty of perjury, that such requirements are met. (3) Period for which certificate in effect (A) In general Except as provided in subparagraph (B), a mortgage credit certificate shall be treated as in effect with respect to interest attributable to the period (i) beginning on the date such certificate is issued, and (ii) ending on the earlier of the date on which (I) the certificate is revoked by the issuing authority, or (II) the residence to which such certificate relates ceases to be the principal residence of the individual to whom the certificate relates. (B) Certificate invalid unless indebtedness incurred within certain period A certificate shall not apply to any indebtedness which is incurred after the close of the second calendar year following the calendar year for which the issuing authority made the applicable election under subsection (c)(2)(A)(ii). (C) Notice to Secretary when certificate revoked Any issuing authority which revokes any mortgage credit certificate shall notify the Secretary of such revocation at such time and in such manner as the Secretary shall prescribe by regulations. (4) Reissuance of mortgage credit certificates The Secretary may prescribe regulations which allow the administrator of a mortgage credit certificate program to reissue a mortgage credit certificate specifying a certified mortgage indebtedness that replaces the outstanding balance of the certified mortgage indebtedness specified on the original certificate to any taxpayer to whom the original certificate was issued, under such terms and conditions as the Secretary determines are necessary to ensure that the amount of the credit allowable under subsection (a) with respect to such reissued certificate is equal to or less than the amount of credit which would be allowable under subsection (a) with respect to the original certificate for any taxable year ending after such reissuance. (5) Public notice that certificates will be issued At least 90 days before any mortgage credit certificate is to be issued after a qualified mortgage credit certificate program, the issuing authority shall provide reasonable public notice of (A) the eligibility requirements for such certificate, (B) the methods by which such certificates are to be issued, and (C) such other information as the Secretary may require. (6) Interest paid or accrued to related persons No credit shall be allowed under subsection (a) for any interest paid or accrued to a person who is a related person to the taxpayer (within the meaning of section 144(a)(3)(A)). (7) Principal residence The term principal residence has the same meaning as when used in section 121. (8) Qualified rehabilitation and home improvement (A) Qualified rehabilitation The term qualified rehabilitation has the meaning given such term by section 143(k)(5)(B). (B) Qualified home improvement The term qualified home improvement means an alteration, repair, or improvement described in section 143(k)(4). (9) Qualified mortgage bond The term qualified mortgage bond has the meaning given such term by section 143(a)(1). (10) Manufactured housing For purposes of this section, the term single family residence includes any manufactured home which has a minimum of 400 square feet of living space and a minimum width in excess of 102 inches and which is of a kind customarily used at a fixed location. Nothing in the preceding sentence shall be construed as providing that such a home will be taken into account in making determinations under section 143. (1) Carryforward of unused credit (A) In general If the credit allowable under subsection (a) for any taxable year exceeds the applicable tax limit for such taxable year, such excess shall be a carryover to each of the 3 succeeding taxable years and, subject to the limitations of subparagraph (B), shall be added to the credit allowable by subsection (a) for such succeeding taxable year. (B) Limitation The amount of the unused credit which may be taken into account under subparagraph (A) for any taxable year shall not exceed the amount (if any) by which the applicable tax limit for such taxable year exceeds the sum of (i) the credit allowable under subsection (a) for such taxable year determined without regard to this paragraph, and (ii) the amounts which, by reason of this paragraph, are carried to such taxable year and are attributable to taxable years before the unused credit year. (C) Applicable tax limit For purposes of this paragraph, the term applicable tax limit means the limitation imposed by section 26(a) for the taxable year reduced by the sum of the credits allowable under this subpart (other than this section and sections 23, 25D, and 1400C). (A) In general If the credit allowable under subsection (a) for any taxable year exceeds the applicable tax limit for such taxable year, such excess shall be a carryover to each of the 3 succeeding taxable years and, subject to the limitations of subparagraph (B), shall be added to the credit allowable by subsection (a) for such succeeding taxable year. If the credit allowable under subsection (a) for any taxable year exceeds the applicable tax limit for such taxable year, such excess shall be a carryover to each of the 3 succeeding taxable years and, subject to the limitations of subparagraph (B), shall be added to the credit allowable by subsection (a) for such succeeding taxable year. (B) Limitation The amount of the unused credit which may be taken into account under subparagraph (A) for any taxable year shall not exceed the amount (if any) by which the applicable tax limit for such taxable year exceeds the sum of (i) the credit allowable under subsection (a) for such taxable year determined without regard to this paragraph, and (ii) the amounts which, by reason o</t>
+  </si>
+  <si>
+    <t>§25A. Hope and Lifetime Learning credits (a) Allowance of credit In the case of an individual, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year the amount equal to the sum of (1) the Hope Scholarship Credit, plus (2) the Lifetime Learning Credit. (1) the Hope Scholarship Credit, plus the Hope Scholarship Credit, plus (2) the Lifetime Learning Credit. the Lifetime Learning Credit. (b) Hope Scholarship Credit (1) Per student credit In the case of any eligible student for whom an election is in effect under this section for any taxable year, the Hope Scholarship Credit is an amount equal to the sum of (A) 100 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished to the eligible student during any academic period beginning in such taxable year) as does not exceed $1,000, plus (B) 50 percent of such expenses so paid as exceeds $1,000 but does not exceed the applicable limit. (2) Limitations applicable to Hope Scholarship Credit (A) Credit allowed only for 2 taxable years An election to have this section apply with respect to any eligible student for purposes of the Hope Scholarship Credit under subsection (a)(1) may not be made for any taxable year if such an election (by the taxpayer or any other individual) is in effect with respect to such student for any 2 prior taxable years. (B) Credit allowed for year only if individual is at least ½ time student for portion of year The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an individual unless such individual is an eligible student for at least one academic period which begins during such year. (C) Credit allowed only for first 2 years of postsecondary education The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an eligible student if the student has completed (before the beginning of such taxable year) the first 2 years of postsecondary education at an eligible educational institution. (D) Denial of credit if student convicted of a felony drug offense The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for qualified tuition and related expenses for the enrollment or attendance of a student for any academic period if such student has been convicted of a Federal or State felony offense consisting of the possession or distribution of a controlled substance before the end of the taxable year with or within which such period ends. (3) Eligible student For purposes of this subsection, the term eligible student means, with respect to any academic period, a student who (A) meets the requirements of section 484(a)(1) of the Higher Education Act of 1965 ( 20 U.S.C. 1091(a)(1) ), as in effect on the date of the enactment of this section, and (B) is carrying at least ½ the normal full-time work load for the course of study the student is pursuing. (4) Applicable limit For purposes of paragraph (1)(B), the applicable limit for any taxable year is an amount equal to 2 times the dollar amount in effect under paragraph (1)(A) for such taxable year. (1) Per student credit In the case of any eligible student for whom an election is in effect under this section for any taxable year, the Hope Scholarship Credit is an amount equal to the sum of (A) 100 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished to the eligible student during any academic period beginning in such taxable year) as does not exceed $1,000, plus (B) 50 percent of such expenses so paid as exceeds $1,000 but does not exceed the applicable limit. (A) 100 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished to the eligible student during any academic period beginning in such taxable year) as does not exceed $1,000, plus 100 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished to the eligible student during any academic period beginning in such taxable year) as does not exceed $1,000, plus (B) 50 percent of such expenses so paid as exceeds $1,000 but does not exceed the applicable limit. 50 percent of such expenses so paid as exceeds $1,000 but does not exceed the applicable limit. (2) Limitations applicable to Hope Scholarship Credit (A) Credit allowed only for 2 taxable years An election to have this section apply with respect to any eligible student for purposes of the Hope Scholarship Credit under subsection (a)(1) may not be made for any taxable year if such an election (by the taxpayer or any other individual) is in effect with respect to such student for any 2 prior taxable years. (B) Credit allowed for year only if individual is at least ½ time student for portion of year The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an individual unless such individual is an eligible student for at least one academic period which begins during such year. (C) Credit allowed only for first 2 years of postsecondary education The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an eligible student if the student has completed (before the beginning of such taxable year) the first 2 years of postsecondary education at an eligible educational institution. (D) Denial of credit if student convicted of a felony drug offense The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for qualified tuition and related expenses for the enrollment or attendance of a student for any academic period if such student has been convicted of a Federal or State felony offense consisting of the possession or distribution of a controlled substance before the end of the taxable year with or within which such period ends. (A) Credit allowed only for 2 taxable years An election to have this section apply with respect to any eligible student for purposes of the Hope Scholarship Credit under subsection (a)(1) may not be made for any taxable year if such an election (by the taxpayer or any other individual) is in effect with respect to such student for any 2 prior taxable years. An election to have this section apply with respect to any eligible student for purposes of the Hope Scholarship Credit under subsection (a)(1) may not be made for any taxable year if such an election (by the taxpayer or any other individual) is in effect with respect to such student for any 2 prior taxable years. (B) Credit allowed for year only if individual is at least ½ time student for portion of year The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an individual unless such individual is an eligible student for at least one academic period which begins during such year. The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an individual unless such individual is an eligible student for at least one academic period which begins during such year. (C) Credit allowed only for first 2 years of postsecondary education The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an eligible student if the student has completed (before the beginning of such taxable year) the first 2 years of postsecondary education at an eligible educational institution. The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an eligible student if the student has completed (before the beginning of such taxable year) the first 2 years of postsecondary education at an eligible educational institution. (D) Denial of credit if student convicted of a felony drug offense The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for qualified tuition and related expenses for the enrollment or attendance of a student for any academic period if such student has been convicted of a Federal or State felony offense consisting of the possession or distribution of a controlled substance before the end of the taxable year with or within which such period ends. The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for qualified tuition and related expenses for the enrollment or attendance of a student for any academic period if such student has been convicted of a Federal or State felony offense consisting of the possession or distribution of a controlled substance before the end of the taxable year with or within which such period ends. (3) Eligible student For purposes of this subsection, the term eligible student means, with respect to any academic period, a student who (A) meets the requirements of section 484(a)(1) of the Higher Education Act of 1965 ( 20 U.S.C. 1091(a)(1) ), as in effect on the date of the enactment of this section, and (B) is carrying at least ½ the normal full-time work load for the course of study the student is pursuing. (A) meets the requirements of section 484(a)(1) of the Higher Education Act of 1965 ( 20 U.S.C. 1091(a)(1) ), as in effect on the date of the enactment of this section, and meets the requirements of section 484(a)(1) of the Higher Education Act of 1965 ( 20 U.S.C. 1091(a)(1) ), as in effect on the date of the enactment of this section, and (B) is carrying at least ½ the normal full-time work load for the course of study the student is pursuing. is carrying at least ½ the normal full-time work load for the course of study the student is pursuing. (4) Applicable limit For purposes of paragraph (1)(B), the applicable limit for any taxable year is an amount equal to 2 times the dollar amount in effect under paragraph (1)(A) for such taxable year. For purposes of paragraph (1)(B), the applicable limit for any taxable year is an amount equal to 2 times the dollar amount in effect under paragraph (1)(A) for such taxable year. (c) Lifetime Learning Credit (1) Per taxpayer credit The Lifetime Learning Credit for any taxpayer for any taxable year is an amount equal to 20 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished during any academic period beginning in such taxable year) as does not exceed $10,000 ($5,000 in the case of taxable years beginning before January 1, 2003 ). (2) Special rules for determining expenses (A) Coordination with Hope Scholarship The qualified tuition and related expenses with respect to an individual who is an eligible student for whom a Hope Scholarship Credit under subsection (a)(1) is allowed for the taxable year shall not be taken into account under this subsection. (B) Expenses eligible for Lifetime Learning Credit For purposes of paragraph (1), qualified tuition and related expenses shall include expenses described in subsection (f)(1) with respect to any course of instruction at an eligible educational institution to acquire or improve job skills of the individual. (1) Per taxpayer credit The Lifetime Learning Credit for any taxpayer for any taxable year is an amount equal to 20 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished during any academic period beginning in such taxable year) as does not exceed $10,000 ($5,000 in the case of taxable years beginning before January 1, 2003 ). The Lifetime Learning Credit for any taxpayer for any taxable year is an amount equal to 20 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished during any academic period beginning in such taxable year) as does not exceed $10,000 ($5,000 in the case of taxable years beginning before January 1, 2003 ). (2) Special rules for determining expenses (A) Coordination with Hope Scholarship The qualified tuition and related expenses with respect to an individual who is an eligible student for whom a Hope Scholarship Credit under subsection (a)(1) is allowed for the taxable year shall not be taken into account under this subsection. (B) Expenses eligible for Lifetime Learning Credit For purposes of paragraph (1), qualified tuition and related expenses shall include expenses described in subsection (f)(1) with respect to any course of instruction at an eligible educational institution to acquire or improve job skills of the individual. (A) Coordination with Hope Scholarship The qualified tuition and related expenses with respect to an individual who is an eligible student for whom a Hope Scholarship Credit under subsection (a)(1) is allowed for the taxable year shall not be taken into account under this subsection. The qualified tuition and related expenses with respect to an individual who is an eligible student for whom a Hope Scholarship Credit under subsection (a)(1) is allowed for the taxable year shall not be taken into account under this subsection. (B) Expenses eligible for Lifetime Learning Credit For purposes of paragraph (1), qualified tuition and related expenses shall include expenses described in subsection (f)(1) with respect to any course of instruction at an eligible educational institution to acquire or improve job skills of the individual. For purposes of paragraph (1), qualified tuition and related expenses shall include expenses described in subsection (f)(1) with respect to any course of instruction at an eligible educational institution to acquire or improve job skills of the individual. (d) Limitation based on modified adjusted gross income (1) In general The amount which would (but for this subsection) be taken into account under subsection (a) for the taxable year shall be reduced (but not below zero) by the amount determined under paragraph (2). (2) Amount of reduction The amount determined under this paragraph is the amount which bears the same ratio to the amount which would be so taken into account as (A) the excess of (i) the taxpayers modified adjusted gross income for such taxable year, over (ii) $40,000 ($80,000 in the case of a joint return), bears to (B) $10,000 ($20,000 in the case of a joint return). (3) Modified adjusted gross income The term modified adjusted gross income means the adjusted gross income of the taxpayer for the taxable year increased by any amount excluded from gross income under section 911, 931, or 933. (1) In general The amount which would (but for this subsection) be taken into account under subsection (a) for the taxable year shall be reduced (but not below zero) by the amount determined under paragraph (2). The amount which would (but for this subsection) be taken into account under subsection (a) for the taxable year shall be reduced (but not below zero) by the amount determined under paragraph (2). (2) Amount of reduction The amount determined under this paragraph is the amount which bears the same ratio to the amount which would be so taken into account as (A) the excess of (i) the taxpayers modified adjusted gross income for such taxable year, over (ii) $40,000 ($80,000 in the case of a joint return), bears to (B) $10,000 ($20,000 in the case of a joint return). (A) the excess of (i) the taxpayers modified adjusted gross income for such taxable year, over (ii) $40,000 ($80,000 in the case of a joint return), bears to (i) the taxpayers modified adjusted gross income for such taxable year, over the taxpayers modified adjusted gross income for such taxable year, over (ii) $40,000 ($80,000 in the case of a joint return), bears to $40,000 ($80,000 in the case of a joint return), bears to (B) $10,000 ($20,000 in the case of a joint return). $10,000 ($20,000 in the case of a joint return). (3) Modified adjusted gross income The term modified adjusted gross income means the adjusted gross income of the taxpayer for the taxable year increased by any amount excluded from gross income under section 911, 931, or 933. The term modified adjusted gross income means the adjusted gross income of the taxpayer for the taxable year increased by any amount excluded from gross income under section 911, 931, or 933. (e) Election not to have section apply A taxpayer may elect not to have this section apply with respect to the qualified tuition and related expenses of an individual for any taxable year. A taxpayer may elect not to have this section apply with respect to the qualified tuition and related expenses of an individual for any taxable year. (f) Definitions For purposes of this section (1) Qualified tuition and related expenses (A) In general The term qualified tuition and related expenses means tuition and fees required for the enrollment or attendance of (i) the taxpayer, (ii) the taxpayers spouse, or (iii) any dependent of the taxpayer with respect to whom the taxpayer is allowed a deduction under section 151, at an eligible educational institution for courses of instruction of such individual at such institution. (B) Exception for education involving sports, etc. Such term does not include expenses with respect to any course or other education involving sports, games, or hobbies, unless such course or other education is part of the individuals degree program. (C) Exception for nonacademic fees Such term does not include student activity fees, athletic fees, insurance expenses, or other expenses unrelated to an individuals academic course of instruction. (2) Eligible educational institution The term eligible educational institution means an institution (A) which is described in section 481 of the Higher Education Act of 1965 ( 20 U.S.C. 1088 ), as in effect on the date of the enactment of this section, and (B) which is eligible to participate in a program under title IV of such Act. (1) Qualified tuition and related expenses (A) In general The term qualified tuition and related expenses means tuition and fees required for the enrollment or attendance of (i) the taxpayer, (ii) the taxpayers spouse, or (iii) any dependent of the taxpayer with respect to whom the taxpayer is allowed a deduction under section 151, at an eligible educational institution for courses of instruction of such individual at such institution. (B) Exception for education involving sports, etc. Such term does not include expenses with respect to any course or other education involving sports, games, or hobbies, unless such course or other education is part of the individuals degree program. (C) Exception for nonacademic fees Such term does not include student activity fees, athletic fees, insurance expenses, or other expenses unrelated to an individuals academic course of instruction. (A) In general The term qualified tuition and related expenses means tuition and fees required for the enrollment or attendance of (i) the taxpayer, (ii) the taxpayers spouse, or (iii) any dependent of the taxpayer with respect to whom the taxpayer is allowed a deduction under section 151, at an eligible educational institution for courses of instruction of such individual at such institution. (i) the taxpayer, the taxpayer, (ii) the taxpayers spouse, or the taxpayers spouse, or (iii) any dependent of the taxpayer with respect to whom the taxpayer is allowed a deduction under section 151, any dependent of the taxpayer with respect to whom the taxpayer is allowed a deduction under section 151, at an eligible educational institution for courses of instruction of such individual at such institution. (B) Exception for education involving sports, etc. Such term does not include expenses with respect to any course or other education involving sports, games, or hobbies, unless such course or other education is part of the individuals degree program. Such term does not include expenses with respect to any course or other education involving sports, games, or hobbies, unless such course or other education is part of the individuals degree program. (C) Exception for nonacademic fees Such term does not include student activity fees, athletic fees, insurance expenses, or other expenses unrelated to an individuals academic course of instruction. Such term does not include student activity fees, athletic fees, insurance expenses, or other expenses unrelated to an individuals academic course of instruction. (2) Eligible educational institution The term eligible educational institution means an institution (A) which is described in section 481 of the Higher Education Act of 1965 ( 20 U.S.C. 1088 ), as in effect on the date of the enactment of this section, and (B) which is eligible to participate in a program under title IV of such Act. (A) which is described in section 481 of the Higher Education Act of 1965 ( 20 U.S.C. 1088 ), as in effect on the date of the enactment of this section, and which is described in section 481 of the Higher Education Act of 1965 ( 20 U.S.C. 1088 ), as in effect on the date of the enactment of this section, and (B) which is eligible to participate in a program under title IV of such Act. which is eligible to participate in a program under title IV of such Act. (g) Special rules (1) Identification requirement No credit shall be allowed under subsection (a) to a taxpayer with respect to the qualified tuition and related expenses of an individual unless the taxpayer includes the name and taxpayer identification number of such individual on the return of tax for the taxable year. (2) Adjustment for certain scholarships, etc. The amount of qualified tuition and related expenses otherwise taken into account under subsection (a) with respect to an individual for an academic period shall be reduced (before the application of subsections (b), (c), and (d)) by the sum of any amounts paid for the benefit of such individual which are allocable to such period as (A) a qualified scholarship which is excludable from gross income under section 117, (B) an educational assistance allowance under chapter 30 , 31 , 32 , 34 , or 35 of title 38 , United States Code, or under chapter 1606 of title 10, United States Code, and (C) a payment (other than a gift, bequest, devise, or inheritance within the meaning of section 102(a)) for such individuals educational expenses, or attributable to such individuals enrollment at an eligible educational institution, which is excludable from gross income under any law of the United States. (3) Treatment of expenses paid by dependent If a deduction under section 151 with respect to an individual is allowed to another taxpayer for a taxable year beginning in the calendar year in which such individuals taxable year begins (A) no credit shall be allowed under subsection (a) to such individual for such individuals taxable year, (B) qualified tuition and related expenses paid by such individual during such individuals taxable year shall be treated for purposes of this section as paid by such other taxpayer, and (C) a statement described in paragraph (8) and received by such individual shall be treated as received by the taxpayer. (4) Treatment of certain prepayments If qualified tuition and related expenses are paid by the taxpayer during a taxable year for an academic period which begins during the first 3 months following such taxable year, such academic period shall be treated for purposes of this section as beginning during such taxable year. (5) Denial of double benefit No credit shall be allowed under this section for any expense for which a deduction is allowed under any other provision of this chapter. (6) No credit for married individuals filing separate returns If the taxpayer is a married individual (within the meaning of section 7703), this section shall apply only if the taxpayer and the taxpayers spouse file a joint return for the taxable year. (7) Nonresident aliens If the taxpayer is a nonresident alien individual for any portion of the taxable year, this section shall apply only if such individual is treated as a resident alien of the United States for purposes of this chapter by reason of an election under subsection (g) or (h) of section 6013. (8) Payee statement requirement Except as otherwise provided by the Secretary, no credit shall be allowed under this section unless the taxpayer receives a statement furnished under section 6050S(d) which contains all of the information required by paragraph (2) thereof. (1) Identification requirement No credit shall be allowed under subsection (a) to a taxpayer with respect to the qualified tuition and related expenses of an individual unless the taxpayer includes the name and taxpayer identification number of such individual on the return of tax for the taxable year. No credit shall be allowed under subsection (a) to a taxpayer with respect to the qualified tuition and related expenses of an individual unless the taxpayer includes the name and taxpayer identification number of such individual on the return of tax for the taxable year. (2) Adjustment for certain scholarships, etc. The amount of qualified tuition and related expenses otherwise taken into account under subsection (a) with respect to an individual for an academic period shall be reduced (before the application of subsections (b), (c), and (d)) by the sum of any amounts paid for the benefit of such individual which are allocable to such period as (A) a qualified scholarship which is excludable from gross income under section 117, (B) an educational assistance allowance under chapter 30 , 31 , 32 , 34 , or 35 of title 38 , United States Code, or under chapter 1606 of title 10, United States Code, and (C) a payment (other than a gift, bequest, devise, or inheritance within the meaning of section 102(a)) for such individuals educational expenses, or attributable to such individuals enrollment at an eligible educational institution, which is excludable from gross income under any law of the United States. (A) a qualified scholarship which is excludable from gross income under section 117, a qualified scholarship which is excludable from gross income under section 117, (B) an educational assistance allowance under chapter 30 , 31 , 32 , 34 , or 35 of title 38 , United States Code, or under chapter 1606 of title 10, United States Code, and an educational assistance allowance under chapter 30 , 31 , 32 , 34 , or 35 of title 38 , United States Code, or under chapter 1606 of title 10, United States Code, and (C) a payment (other than a gift, bequest, devise, or inheritance within the meaning of section 102(a)) for such individuals educational expenses, or attributable to such individuals enrollment at an eligible educational institution, which is excludable from gross income under any law of the United States. a payment (other than a gift, bequest, devise, or inheritance within the meaning of section 102(a)) for such individuals educational expenses, or attributable to such individuals enrollment at an eligible educational institution, which is excludable from gross income under any law of the United States. (3) Treatment of expenses paid by dependent If a deduction under section 151 with respect to an individual is allowed to another taxpayer for a taxable year beginning in the calendar year in which such individuals taxable year begins (A) no credit shall be allowed under subsection (a) to such individual for such individuals taxable year, (B) qualified tuition and related expenses paid by such individual during such individuals taxable year shall be treated for purposes of this section as paid by such other taxpayer, and (C) a statement described in paragraph (8) and received by such individual shall be treated as received by the taxpayer. (A) no credit shall be allowed under subsection (a) to such individual for such individuals taxable year, no credit shall be allowed under subsection (a) to such individual for such individuals taxable year, (B) qualified tuition and related expenses paid by such individual during such individuals taxable year shall be treated for purposes of this section as paid by such other taxpayer, and qualified tuition and related expenses paid by such individual during such individuals taxable year shall be treated for purposes of this section as paid by such other taxpayer, and (C) a statement described in paragraph (8) and received by such individual shall be treated as received by the taxpayer. a statement described in paragraph (8) and received by such individual shall be treated as received by the taxpayer. (4) Treatment of certain prepayments If qualified tuition and related expenses are paid by the taxpayer during a taxable year for an academic period which begins during the first 3 months following such taxable year, such academic period shall be treated for purposes of this section as beginning during such taxable year. If qualified tuition and related expenses are paid by the taxpayer during a taxable year for an academic period which begins during the first 3 months following such taxable year, such academic period shall be treated for purposes of this section as beginning during such taxable year. (5) Denial of double benefit No credit shall be allowed under this section for any expense for which a deduction is allowed under any other provision of this chapter. No credit shall be allowed under this section for any expense for which a deduction is allowed under any other provision of this chapter. (6) No credit for married individuals filing separate returns If the taxpayer is a married individual (within the meaning of section 7703), this section shall apply only if the taxpayer and the taxpayers spouse file a joint return for the taxable year. If the taxpayer is a married individual (within the meaning of section 7703), this section shall apply only if the taxpayer and the taxpayers spouse file a joint return for the taxable year. (7) Nonresident aliens If the taxpayer is a nonresident alien individual for any portion of the taxable year, this section shall apply only if such individual is treated as a resident alien of the United States for purposes of this chapter by reason of an election under subsection (g) or (h) of section 6013. If the taxpayer is a nonresident alien individual for any portion of the taxable year, this section shall apply only if such individual is treated as a resident alien of the United States for purposes of this chapter by reason of an election under subsection (g) or (h) of section 6013. (8) Payee statement requirement Except as otherwise provided by the Secretary, no credit shall be allowed under this section unless the taxpayer receives a statement furnished under section 6050S(d) which contains all of the information required by paragraph (2) thereof. Except as otherwise provided by the Secretary, no credit shall be allowed under this section unless the taxpayer receives a statement furnished under section 6050S(d) which contains all of the information required by paragraph (2) thereof. (h) Inflation adjustments (1) Dollar limitation on amount of credit (A) In general In the case of a taxable year beginning after 2001, each of the $1,000 amounts under subsection (b)(1) shall be increased by an amount equal to (i) such dollar amount, multiplied by (ii) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting calendar year 2000 for calendar year 1992 in subparagraph (B) thereof. (B) Rounding If any amount as adjusted under subparagraph (A) is not a multiple of $100, such amount shall be rounded to the next lowest multiple of $100. (2) Income limits (A) In general In the case of a taxable year beginning after 2001, the $40,000 and $80,000 amounts in subsection (d)(2) shall each be increased by an amount equal to (i) such dollar amount, multiplied by (ii) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting calendar year 2000 for calendar year 1992 in subparagraph (B) thereof. (B) Rounding If any amount as adjusted under subparagraph (A) is not a multiple of $1,000, such amount shall be rounded to the next lowest multiple of $1,000. (1) Dollar limitation on amount of credit (A) In general In the case of a taxable year beginning after 20</t>
+  </si>
+  <si>
+    <t>§25B. Elective deferrals and IRA contributions by certain individuals (a) Allowance of credit In the case of an eligible individual, there shall be allowed as a credit against the tax imposed by this subtitle for the taxable year an amount equal to the applicable percentage of so much of the qualified retirement savings contributions of the eligible individual for the taxable year as do not exceed $2,000. In the case of an eligible individual, there shall be allowed as a credit against the tax imposed by this subtitle for the taxable year an amount equal to the applicable percentage of so much of the qualified retirement savings contributions of the eligible individual for the taxable year as do not exceed $2,000. (b) Applicable percentage For purposes of this section (1) Joint returns In the case of a joint return, the applicable percentage is (A) if the adjusted gross income of the taxpayer is not over $30,000, 50 percent, (B) if the adjusted gross income of the taxpayer is over $30,000 but not over $32,500, 20 percent, (C) if the adjusted gross income of the taxpayer is over $32,500 but not over $50,000, 10 percent, and (D) if the adjusted gross income of the taxpayer is over $50,000, zero percent. (2) Other returns In the case of (A) a head of household, the applicable percentage shall be determined under paragraph (1) except that such paragraph shall be applied by substituting for each dollar amount therein (as adjusted under paragraph (3)) a dollar amount equal to 75 percent of such dollar amount, and (B) any taxpayer not described in paragraph (1) or subparagraph (A), the applicable percentage shall be determined under paragraph (1) except that such paragraph shall be applied by substituting for each dollar amount therein (as adjusted under paragraph (3)) a dollar amount equal to 50 percent of such dollar amount. (3) Inflation adjustment In the case of any taxable year beginning in a calendar year after 2006, each of the dollar amounts in paragraph (1) shall be increased by an amount equal to (A) such dollar amount, multiplied by (B) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting calendar year 2005 for calendar year 1992 in subparagraph (B) thereof. Any increase determined under the preceding sentence shall be rounded to the nearest multiple of $500. (1) Joint returns In the case of a joint return, the applicable percentage is (A) if the adjusted gross income of the taxpayer is not over $30,000, 50 percent, (B) if the adjusted gross income of the taxpayer is over $30,000 but not over $32,500, 20 percent, (C) if the adjusted gross income of the taxpayer is over $32,500 but not over $50,000, 10 percent, and (D) if the adjusted gross income of the taxpayer is over $50,000, zero percent. (A) if the adjusted gross income of the taxpayer is not over $30,000, 50 percent, if the adjusted gross income of the taxpayer is not over $30,000, 50 percent, (B) if the adjusted gross income of the taxpayer is over $30,000 but not over $32,500, 20 percent, if the adjusted gross income of the taxpayer is over $30,000 but not over $32,500, 20 percent, (C) if the adjusted gross income of the taxpayer is over $32,500 but not over $50,000, 10 percent, and if the adjusted gross income of the taxpayer is over $32,500 but not over $50,000, 10 percent, and (D) if the adjusted gross income of the taxpayer is over $50,000, zero percent. if the adjusted gross income of the taxpayer is over $50,000, zero percent. (2) Other returns In the case of (A) a head of household, the applicable percentage shall be determined under paragraph (1) except that such paragraph shall be applied by substituting for each dollar amount therein (as adjusted under paragraph (3)) a dollar amount equal to 75 percent of such dollar amount, and (B) any taxpayer not described in paragraph (1) or subparagraph (A), the applicable percentage shall be determined under paragraph (1) except that such paragraph shall be applied by substituting for each dollar amount therein (as adjusted under paragraph (3)) a dollar amount equal to 50 percent of such dollar amount. (A) a head of household, the applicable percentage shall be determined under paragraph (1) except that such paragraph shall be applied by substituting for each dollar amount therein (as adjusted under paragraph (3)) a dollar amount equal to 75 percent of such dollar amount, and a head of household, the applicable percentage shall be determined under paragraph (1) except that such paragraph shall be applied by substituting for each dollar amount therein (as adjusted under paragraph (3)) a dollar amount equal to 75 percent of such dollar amount, and (B) any taxpayer not described in paragraph (1) or subparagraph (A), the applicable percentage shall be determined under paragraph (1) except that such paragraph shall be applied by substituting for each dollar amount therein (as adjusted under paragraph (3)) a dollar amount equal to 50 percent of such dollar amount. any taxpayer not described in paragraph (1) or subparagraph (A), the applicable percentage shall be determined under paragraph (1) except that such paragraph shall be applied by substituting for each dollar amount therein (as adjusted under paragraph (3)) a dollar amount equal to 50 percent of such dollar amount. (3) Inflation adjustment In the case of any taxable year beginning in a calendar year after 2006, each of the dollar amounts in paragraph (1) shall be increased by an amount equal to (A) such dollar amount, multiplied by (B) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting calendar year 2005 for calendar year 1992 in subparagraph (B) thereof. Any increase determined under the preceding sentence shall be rounded to the nearest multiple of $500. (A) such dollar amount, multiplied by such dollar amount, multiplied by (B) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting calendar year 2005 for calendar year 1992 in subparagraph (B) thereof. the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting calendar year 2005 for calendar year 1992 in subparagraph (B) thereof. Any increase determined under the preceding sentence shall be rounded to the nearest multiple of $500. (c) Eligible individual For purposes of this section (1) In general The term eligible individual means any individual if such individual has attained the age of 18 as of the close of the taxable year. (2) Dependents and full-time students not eligible The term eligible individual shall not include (A) any individual with respect to whom a deduction under section 151 is allowed to another taxpayer for a taxable year beginning in the calendar year in which such individuals taxable year begins, and (B) any individual who is a student (as defined in section 152(f)(2)). (1) In general The term eligible individual means any individual if such individual has attained the age of 18 as of the close of the taxable year. The term eligible individual means any individual if such individual has attained the age of 18 as of the close of the taxable year. (2) Dependents and full-time students not eligible The term eligible individual shall not include (A) any individual with respect to whom a deduction under section 151 is allowed to another taxpayer for a taxable year beginning in the calendar year in which such individuals taxable year begins, and (B) any individual who is a student (as defined in section 152(f)(2)). (A) any individual with respect to whom a deduction under section 151 is allowed to another taxpayer for a taxable year beginning in the calendar year in which such individuals taxable year begins, and any individual with respect to whom a deduction under section 151 is allowed to another taxpayer for a taxable year beginning in the calendar year in which such individuals taxable year begins, and (B) any individual who is a student (as defined in section 152(f)(2)). any individual who is a student (as defined in section 152(f)(2)). (d) Qualified retirement savings contributions For purposes of this section (1) In general The term qualified retirement savings contributions means, with respect to any taxable year, the sum of (A) the amount of the qualified retirement contributions (as defined in section 219(e)) made by the eligible individual, (B) the amount of (i) any elective deferrals (as defined in section 402(g)(3)) of such individual, and (ii) any elective deferral of compensation by such individual under an eligible deferred compensation plan (as defined in section 457(b)) of an eligible employer described in section 457(e)(1)(A), and (C) the amount of voluntary employee contributions by such individual to any qualified retirement plan (as defined in section 4974(c)). (2) Reduction for certain distributions (A) In general The qualified retirement savings contributions determined under paragraph (1) shall be reduced (but not below zero) by the aggregate distributions received by the individual during the testing period from any entity of a type to which contributions under paragraph (1) may be made. The preceding sentence shall not apply to the portion of any distribution which is not includible in gross income by reason of a trustee-to-trustee transfer or a rollover distribution. (B) Testing period For purposes of subparagraph (A), the testing period, with respect to a taxable year, is the period which includes (i) such taxable year, (ii) the 2 preceding taxable years, and (iii) the period after such taxable year and before the due date (including extensions) for filing the return of tax for such taxable year. (C) Excepted distributions There shall not be taken into account under subparagraph (A) (i) any distribution referred to in section 72(p), 401(k)(8), 401(m)(6), 402(g)(2), 404(k), or 408(d)(4), and (ii) any distribution to which section 408A(d)(3) applies. (D) Treatment of distributions received by spouse of individual For purposes of determining distributions received by an individual under subparagraph (A) for any taxable year, any distribution received by the spouse of such individual shall be treated as received by such individual if such individual and spouse file a joint return for such taxable year and for the taxable year during which the spouse receives the distribution. (1) In general The term qualified retirement savings contributions means, with respect to any taxable year, the sum of (A) the amount of the qualified retirement contributions (as defined in section 219(e)) made by the eligible individual, (B) the amount of (i) any elective deferrals (as defined in section 402(g)(3)) of such individual, and (ii) any elective deferral of compensation by such individual under an eligible deferred compensation plan (as defined in section 457(b)) of an eligible employer described in section 457(e)(1)(A), and (C) the amount of voluntary employee contributions by such individual to any qualified retirement plan (as defined in section 4974(c)). (A) the amount of the qualified retirement contributions (as defined in section 219(e)) made by the eligible individual, the amount of the qualified retirement contributions (as defined in section 219(e)) made by the eligible individual, (B) the amount of (i) any elective deferrals (as defined in section 402(g)(3)) of such individual, and (ii) any elective deferral of compensation by such individual under an eligible deferred compensation plan (as defined in section 457(b)) of an eligible employer described in section 457(e)(1)(A), and (i) any elective deferrals (as defined in section 402(g)(3)) of such individual, and any elective deferrals (as defined in section 402(g)(3)) of such individual, and (ii) any elective deferral of compensation by such individual under an eligible deferred compensation plan (as defined in section 457(b)) of an eligible employer described in section 457(e)(1)(A), and any elective deferral of compensation by such individual under an eligible deferred compensation plan (as defined in section 457(b)) of an eligible employer described in section 457(e)(1)(A), and (C) the amount of voluntary employee contributions by such individual to any qualified retirement plan (as defined in section 4974(c)). the amount of voluntary employee contributions by such individual to any qualified retirement plan (as defined in section 4974(c)). (2) Reduction for certain distributions (A) In general The qualified retirement savings contributions determined under paragraph (1) shall be reduced (but not below zero) by the aggregate distributions received by the individual during the testing period from any entity of a type to which contributions under paragraph (1) may be made. The preceding sentence shall not apply to the portion of any distribution which is not includible in gross income by reason of a trustee-to-trustee transfer or a rollover distribution. (B) Testing period For purposes of subparagraph (A), the testing period, with respect to a taxable year, is the period which includes (i) such taxable year, (ii) the 2 preceding taxable years, and (iii) the period after such taxable year and before the due date (including extensions) for filing the return of tax for such taxable year. (C) Excepted distributions There shall not be taken into account under subparagraph (A) (i) any distribution referred to in section 72(p), 401(k)(8), 401(m)(6), 402(g)(2), 404(k), or 408(d)(4), and (ii) any distribution to which section 408A(d)(3) applies. (D) Treatment of distributions received by spouse of individual For purposes of determining distributions received by an individual under subparagraph (A) for any taxable year, any distribution received by the spouse of such individual shall be treated as received by such individual if such individual and spouse file a joint return for such taxable year and for the taxable year during which the spouse receives the distribution. (A) In general The qualified retirement savings contributions determined under paragraph (1) shall be reduced (but not below zero) by the aggregate distributions received by the individual during the testing period from any entity of a type to which contributions under paragraph (1) may be made. The preceding sentence shall not apply to the portion of any distribution which is not includible in gross income by reason of a trustee-to-trustee transfer or a rollover distribution. The qualified retirement savings contributions determined under paragraph (1) shall be reduced (but not below zero) by the aggregate distributions received by the individual during the testing period from any entity of a type to which contributions under paragraph (1) may be made. The preceding sentence shall not apply to the portion of any distribution which is not includible in gross income by reason of a trustee-to-trustee transfer or a rollover distribution. (B) Testing period For purposes of subparagraph (A), the testing period, with respect to a taxable year, is the period which includes (i) such taxable year, (ii) the 2 preceding taxable years, and (iii) the period after such taxable year and before the due date (including extensions) for filing the return of tax for such taxable year. (i) such taxable year, such taxable year, (ii) the 2 preceding taxable years, and the 2 preceding taxable years, and (iii) the period after such taxable year and before the due date (including extensions) for filing the return of tax for such taxable year. the period after such taxable year and before the due date (including extensions) for filing the return of tax for such taxable year. (C) Excepted distributions There shall not be taken into account under subparagraph (A) (i) any distribution referred to in section 72(p), 401(k)(8), 401(m)(6), 402(g)(2), 404(k), or 408(d)(4), and (ii) any distribution to which section 408A(d)(3) applies. (i) any distribution referred to in section 72(p), 401(k)(8), 401(m)(6), 402(g)(2), 404(k), or 408(d)(4), and any distribution referred to in section 72(p), 401(k)(8), 401(m)(6), 402(g)(2), 404(k), or 408(d)(4), and (ii) any distribution to which section 408A(d)(3) applies. any distribution to which section 408A(d)(3) applies. (D) Treatment of distributions received by spouse of individual For purposes of determining distributions received by an individual under subparagraph (A) for any taxable year, any distribution received by the spouse of such individual shall be treated as received by such individual if such individual and spouse file a joint return for such taxable year and for the taxable year during which the spouse receives the distribution. For purposes of determining distributions received by an individual under subparagraph (A) for any taxable year, any distribution received by the spouse of such individual shall be treated as received by such individual if such individual and spouse file a joint return for such taxable year and for the taxable year during which the spouse receives the distribution. (e) Adjusted gross income For purposes of this section, adjusted gross income shall be determined without regard to sections 911, 931, and 933. For purposes of this section, adjusted gross income shall be determined without regard to sections 911, 931, and 933. (f) Investment in the contract Notwithstanding any other provision of law, a qualified retirement savings contribution shall not fail to be included in determining the investment in the contract for purposes of section 72 by reason of the credit under this section. Notwithstanding any other provision of law, a qualified retirement savings contribution shall not fail to be included in determining the investment in the contract for purposes of section 72 by reason of the credit under this section.</t>
+  </si>
+  <si>
+    <t>§25C. Nonbusiness energy property (a) Allowance of credit In the case of an individual, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year an amount equal to the sum of (1) 10 percent of the amount paid or incurred by the taxpayer for qualified energy efficiency improvements installed during such taxable year, and (2) the amount of the residential energy property expenditures paid or incurred by the taxpayer during such taxable year. (1) 10 percent of the amount paid or incurred by the taxpayer for qualified energy efficiency improvements installed during such taxable year, and 10 percent of the amount paid or incurred by the taxpayer for qualified energy efficiency improvements installed during such taxable year, and (2) the amount of the residential energy property expenditures paid or incurred by the taxpayer during such taxable year. the amount of the residential energy property expenditures paid or incurred by the taxpayer during such taxable year. (b) Limitations (1) Lifetime limitation The credit allowed under this section with respect to any taxpayer for any taxable year shall not exceed the excess (if any) of $500 over the aggregate credits allowed under this section with respect to such taxpayer for all prior taxable years ending after December 31, 2005 . (2) Windows In the case of amounts paid or incurred for components described in subsection (c)(2)(B) [1] by any taxpayer for any taxable year, the credit allowed under this section with respect to such amounts for such year shall not exceed the excess (if any) of $200 over the aggregate credits allowed under this section with respect to such amounts for all prior taxable years ending after December 31, 2005 . (3) Limitation on residential energy property expenditures The amount of the credit allowed under this section by reason of subsection (a)(2) shall not exceed (A) $50 for any advanced main air circulating fan, (B) $150 for any qualified natural gas, propane, or oil furnace or hot water boiler, and (C) $300 for any item of energy-efficient building property. (1) Lifetime limitation The credit allowed under this section with respect to any taxpayer for any taxable year shall not exceed the excess (if any) of $500 over the aggregate credits allowed under this section with respect to such taxpayer for all prior taxable years ending after December 31, 2005 . The credit allowed under this section with respect to any taxpayer for any taxable year shall not exceed the excess (if any) of $500 over the aggregate credits allowed under this section with respect to such taxpayer for all prior taxable years ending after December 31, 2005 . (2) Windows In the case of amounts paid or incurred for components described in subsection (c)(2)(B) [1] by any taxpayer for any taxable year, the credit allowed under this section with respect to such amounts for such year shall not exceed the excess (if any) of $200 over the aggregate credits allowed under this section with respect to such amounts for all prior taxable years ending after December 31, 2005 . In the case of amounts paid or incurred for components described in subsection (c)(2)(B) [1] by any taxpayer for any taxable year, the credit allowed under this section with respect to such amounts for such year shall not exceed the excess (if any) of $200 over the aggregate credits allowed under this section with respect to such amounts for all prior taxable years ending after December 31, 2005 . (3) Limitation on residential energy property expenditures The amount of the credit allowed under this section by reason of subsection (a)(2) shall not exceed (A) $50 for any advanced main air circulating fan, (B) $150 for any qualified natural gas, propane, or oil furnace or hot water boiler, and (C) $300 for any item of energy-efficient building property. (A) $50 for any advanced main air circulating fan, $50 for any advanced main air circulating fan, (B) $150 for any qualified natural gas, propane, or oil furnace or hot water boiler, and $150 for any qualified natural gas, propane, or oil furnace or hot water boiler, and (C) $300 for any item of energy-efficient building property. $300 for any item of energy-efficient building property. (c) Qualified energy efficiency improvements For purposes of this section (1) In general The term qualified energy efficiency improvements means any energy efficient building envelope component, if (A) such component is installed in or on a dwelling unit located in the United States and owned and used by the taxpayer as the taxpayers principal residence (within the meaning of section 121), (B) the original use of such component commences with the taxpayer, and (C) such component reasonably can be expected to remain in use for at least 5 years. (2) Energy efficient building envelope component The term energy efficient building envelope component means a building envelope component which meets (A) applicable Energy Star program requirements, in the case of a roof or roof products, (B) version 6.0 Energy Star program requirements, in the case of an exterior window, a skylight, or an exterior door, and (C) the prescriptive criteria for such component established by the 2009 International Energy Conservation Code, as such Code (including supplements) is in effect on the date of the enactment of the American Recovery and Reinvestment Tax Act of 2009, in the case of any other component. (3) Building envelope component The term building envelope component means (A) any insulation material or system which is specifically and primarily designed to reduce the heat loss or gain of a dwelling unit when installed in or on such dwelling unit, (B) exterior windows (including skylights), (C) exterior doors, and (D) any metal roof or asphalt roof installed on a dwelling unit, but only if such roof has appropriate pigmented coatings or cooling granules which are specifically and primarily designed to reduce the heat gain of such dwelling unit. (4) Manufactured homes included The term dwelling unit includes a manufactured home which conforms to Federal Manufactured Home Construction and Safety Standards ( part 3280 of title 24, Code of Federal Regulations). (1) In general The term qualified energy efficiency improvements means any energy efficient building envelope component, if (A) such component is installed in or on a dwelling unit located in the United States and owned and used by the taxpayer as the taxpayers principal residence (within the meaning of section 121), (B) the original use of such component commences with the taxpayer, and (C) such component reasonably can be expected to remain in use for at least 5 years. (A) such component is installed in or on a dwelling unit located in the United States and owned and used by the taxpayer as the taxpayers principal residence (within the meaning of section 121), such component is installed in or on a dwelling unit located in the United States and owned and used by the taxpayer as the taxpayers principal residence (within the meaning of section 121), (B) the original use of such component commences with the taxpayer, and the original use of such component commences with the taxpayer, and (C) such component reasonably can be expected to remain in use for at least 5 years. such component reasonably can be expected to remain in use for at least 5 years. (2) Energy efficient building envelope component The term energy efficient building envelope component means a building envelope component which meets (A) applicable Energy Star program requirements, in the case of a roof or roof products, (B) version 6.0 Energy Star program requirements, in the case of an exterior window, a skylight, or an exterior door, and (C) the prescriptive criteria for such component established by the 2009 International Energy Conservation Code, as such Code (including supplements) is in effect on the date of the enactment of the American Recovery and Reinvestment Tax Act of 2009, in the case of any other component. (A) applicable Energy Star program requirements, in the case of a roof or roof products, applicable Energy Star program requirements, in the case of a roof or roof products, (B) version 6.0 Energy Star program requirements, in the case of an exterior window, a skylight, or an exterior door, and version 6.0 Energy Star program requirements, in the case of an exterior window, a skylight, or an exterior door, and (C) the prescriptive criteria for such component established by the 2009 International Energy Conservation Code, as such Code (including supplements) is in effect on the date of the enactment of the American Recovery and Reinvestment Tax Act of 2009, in the case of any other component. the prescriptive criteria for such component established by the 2009 International Energy Conservation Code, as such Code (including supplements) is in effect on the date of the enactment of the American Recovery and Reinvestment Tax Act of 2009, in the case of any other component. (3) Building envelope component The term building envelope component means (A) any insulation material or system which is specifically and primarily designed to reduce the heat loss or gain of a dwelling unit when installed in or on such dwelling unit, (B) exterior windows (including skylights), (C) exterior doors, and (D) any metal roof or asphalt roof installed on a dwelling unit, but only if such roof has appropriate pigmented coatings or cooling granules which are specifically and primarily designed to reduce the heat gain of such dwelling unit. (A) any insulation material or system which is specifically and primarily designed to reduce the heat loss or gain of a dwelling unit when installed in or on such dwelling unit, any insulation material or system which is specifically and primarily designed to reduce the heat loss or gain of a dwelling unit when installed in or on such dwelling unit, (B) exterior windows (including skylights), exterior windows (including skylights), (C) exterior doors, and exterior doors, and (D) any metal roof or asphalt roof installed on a dwelling unit, but only if such roof has appropriate pigmented coatings or cooling granules which are specifically and primarily designed to reduce the heat gain of such dwelling unit. any metal roof or asphalt roof installed on a dwelling unit, but only if such roof has appropriate pigmented coatings or cooling granules which are specifically and primarily designed to reduce the heat gain of such dwelling unit. (4) Manufactured homes included The term dwelling unit includes a manufactured home which conforms to Federal Manufactured Home Construction and Safety Standards ( part 3280 of title 24, Code of Federal Regulations). The term dwelling unit includes a manufactured home which conforms to Federal Manufactured Home Construction and Safety Standards ( part 3280 of title 24, Code of Federal Regulations). (d) Residential energy property expenditures For purposes of this section (1) In general The term residential energy property expenditures means expenditures made by the taxpayer for qualified energy property which is (A) installed on or in connection with a dwelling unit located in the United States and owned and used by the taxpayer as the taxpayers principal residence (within the meaning of section 121), and (B) originally placed in service by the taxpayer. Such term includes expenditures for labor costs properly allocable to the onsite preparation, assembly, or original installation of the property. (2) Qualified energy property (A) In general The term qualified energy property means (i) energy-efficient building property, (ii) a qualified natural gas, propane, or oil furnace or hot water boiler, or (iii) an advanced main air circulating fan. (B) Performance and quality standards Property described under subparagraph (A) shall meet the performance and quality standards, and the certification requirements (if any), which (i) have been prescribed by the Secretary by regulations (after consultation with the Secretary of Energy or the Administrator of the Environmental Protection Agency, as appropriate), and (ii) are in effect at the time of the acquisition of the property, or at the time of the completion of the construction, reconstruction, or erection of the property, as the case may be. (C) Requirements and standards for air conditioners and heat pumps The standards and requirements prescribed by the Secretary under subparagraph (B) with respect to the energy efficiency ratio (EER) for central air conditioners and electric heat pumps (i) shall require measurements to be based on published data which is tested by manufacturers at 95 degrees Fahrenheit, and (ii) may be based on the certified data of the Air Conditioning and Refrigeration Institute that are prepared in partnership with the Consortium for Energy Efficiency. (3) Energy-efficient building property The term energy-efficient building property means (A) an electric heat pump water heater which yields an energy factor of at least 2.0 in the standard Department of Energy test procedure, (B) an electric heat pump which achieves the highest efficiency tier established by the Consortium for Energy Efficiency, as in effect on January 1, 2009 . [2] (C) a central air conditioner which achieves the highest efficiency tier established by the Consortium for Energy Efficiency, as in effect on January 1, 2009 , (D) a natural gas, propane, or oil water heater which has either an energy factor of at least 0.82 or a thermal efficiency of at least 90 percent. [3] (E) a stove which uses the burning of biomass fuel to heat a dwelling unit located in the United States and used as a residence by the taxpayer, or to heat water for use in such a dwelling unit, and which has a thermal efficiency rating of at least 75 percent. (4) Qualified natural gas, propane, or oil furnace or hot water boiler The term qualified natural gas, propane, or oil furnace or hot water boiler means a natural gas, propane, or oil furnace or hot water boiler which achieves an annual fuel utilization efficiency rate of not less than 95. (5) Advanced main air circulating fan The term advanced main air circulating fan means a fan used in a natural gas, propane, or oil furnace and which has an annual electricity use of no more than 2 percent of the total annual energy use of the furnace (as determined in the standard Department of Energy test procedures). (6) Biomass fuel The term biomass fuel means any plant-derived fuel available on a renewable or recurring basis, including agricultural crops and trees, wood and wood waste and residues (including wood pellets), plants (including aquatic plants), grasses, residues, and fibers. (1) In general The term residential energy property expenditures means expenditures made by the taxpayer for qualified energy property which is (A) installed on or in connection with a dwelling unit located in the United States and owned and used by the taxpayer as the taxpayers principal residence (within the meaning of section 121), and (B) originally placed in service by the taxpayer. Such term includes expenditures for labor costs properly allocable to the onsite preparation, assembly, or original installation of the property. (A) installed on or in connection with a dwelling unit located in the United States and owned and used by the taxpayer as the taxpayers principal residence (within the meaning of section 121), and installed on or in connection with a dwelling unit located in the United States and owned and used by the taxpayer as the taxpayers principal residence (within the meaning of section 121), and (B) originally placed in service by the taxpayer. originally placed in service by the taxpayer. Such term includes expenditures for labor costs properly allocable to the onsite preparation, assembly, or original installation of the property. (2) Qualified energy property (A) In general The term qualified energy property means (i) energy-efficient building property, (ii) a qualified natural gas, propane, or oil furnace or hot water boiler, or (iii) an advanced main air circulating fan. (B) Performance and quality standards Property described under subparagraph (A) shall meet the performance and quality standards, and the certification requirements (if any), which (i) have been prescribed by the Secretary by regulations (after consultation with the Secretary of Energy or the Administrator of the Environmental Protection Agency, as appropriate), and (ii) are in effect at the time of the acquisition of the property, or at the time of the completion of the construction, reconstruction, or erection of the property, as the case may be. (C) Requirements and standards for air conditioners and heat pumps The standards and requirements prescribed by the Secretary under subparagraph (B) with respect to the energy efficiency ratio (EER) for central air conditioners and electric heat pumps (i) shall require measurements to be based on published data which is tested by manufacturers at 95 degrees Fahrenheit, and (ii) may be based on the certified data of the Air Conditioning and Refrigeration Institute that are prepared in partnership with the Consortium for Energy Efficiency. (A) In general The term qualified energy property means (i) energy-efficient building property, (ii) a qualified natural gas, propane, or oil furnace or hot water boiler, or (iii) an advanced main air circulating fan. (i) energy-efficient building property, energy-efficient building property, (ii) a qualified natural gas, propane, or oil furnace or hot water boiler, or a qualified natural gas, propane, or oil furnace or hot water boiler, or (iii) an advanced main air circulating fan. an advanced main air circulating fan. (B) Performance and quality standards Property described under subparagraph (A) shall meet the performance and quality standards, and the certification requirements (if any), which (i) have been prescribed by the Secretary by regulations (after consultation with the Secretary of Energy or the Administrator of the Environmental Protection Agency, as appropriate), and (ii) are in effect at the time of the acquisition of the property, or at the time of the completion of the construction, reconstruction, or erection of the property, as the case may be. (i) have been prescribed by the Secretary by regulations (after consultation with the Secretary of Energy or the Administrator of the Environmental Protection Agency, as appropriate), and have been prescribed by the Secretary by regulations (after consultation with the Secretary of Energy or the Administrator of the Environmental Protection Agency, as appropriate), and (ii) are in effect at the time of the acquisition of the property, or at the time of the completion of the construction, reconstruction, or erection of the property, as the case may be. are in effect at the time of the acquisition of the property, or at the time of the completion of the construction, reconstruction, or erection of the property, as the case may be. (C) Requirements and standards for air conditioners and heat pumps The standards and requirements prescribed by the Secretary under subparagraph (B) with respect to the energy efficiency ratio (EER) for central air conditioners and electric heat pumps (i) shall require measurements to be based on published data which is tested by manufacturers at 95 degrees Fahrenheit, and (ii) may be based on the certified data of the Air Conditioning and Refrigeration Institute that are prepared in partnership with the Consortium for Energy Efficiency. (i) shall require measurements to be based on published data which is tested by manufacturers at 95 degrees Fahrenheit, and shall require measurements to be based on published data which is tested by manufacturers at 95 degrees Fahrenheit, and (ii) may be based on the certified data of the Air Conditioning and Refrigeration Institute that are prepared in partnership with the Consortium for Energy Efficiency. may be based on the certified data of the Air Conditioning and Refrigeration Institute that are prepared in partnership with the Consortium for Energy Efficiency. (3) Energy-efficient building property The term energy-efficient building property means (A) an electric heat pump water heater which yields an energy factor of at least 2.0 in the standard Department of Energy test procedure, (B) an electric heat pump which achieves the highest efficiency tier established by the Consortium for Energy Efficiency, as in effect on January 1, 2009 . [2] (C) a central air conditioner which achieves the highest efficiency tier established by the Consortium for Energy Efficiency, as in effect on January 1, 2009 , (D) a natural gas, propane, or oil water heater which has either an energy factor of at least 0.82 or a thermal efficiency of at least 90 percent. [3] (E) a stove which uses the burning of biomass fuel to heat a dwelling unit located in the United States and used as a residence by the taxpayer, or to heat water for use in such a dwelling unit, and which has a thermal efficiency rating of at least 75 percent. (A) an electric heat pump water heater which yields an energy factor of at least 2.0 in the standard Department of Energy test procedure, an electric heat pump water heater which yields an energy factor of at least 2.0 in the standard Department of Energy test procedure, (B) an electric heat pump which achieves the highest efficiency tier established by the Consortium for Energy Efficiency, as in effect on January 1, 2009 . [2] an electric heat pump which achieves the highest efficiency tier established by the Consortium for Energy Efficiency, as in effect on January 1, 2009 . [2] (C) a central air conditioner which achieves the highest efficiency tier established by the Consortium for Energy Efficiency, as in effect on January 1, 2009 , a central air conditioner which achieves the highest efficiency tier established by the Consortium for Energy Efficiency, as in effect on January 1, 2009 , (D) a natural gas, propane, or oil water heater which has either an energy factor of at least 0.82 or a thermal efficiency of at least 90 percent. [3] a natural gas, propane, or oil water heater which has either an energy factor of at least 0.82 or a thermal efficiency of at least 90 percent. [3] (E) a stove which uses the burning of biomass fuel to heat a dwelling unit located in the United States and used as a residence by the taxpayer, or to heat water for use in such a dwelling unit, and which has a thermal efficiency rating of at least 75 percent. a stove which uses the burning of biomass fuel to heat a dwelling unit located in the United States and used as a residence by the taxpayer, or to heat water for use in such a dwelling unit, and which has a thermal efficiency rating of at least 75 percent. (4) Qualified natural gas, propane, or oil furnace or hot water boiler The term qualified natural gas, propane, or oil furnace or hot water boiler means a natural gas, propane, or oil furnace or hot water boiler which achieves an annual fuel utilization efficiency rate of not less than 95. The term qualified natural gas, propane, or oil furnace or hot water boiler means a natural gas, propane, or oil furnace or hot water boiler which achieves an annual fuel utilization efficiency rate of not less than 95. (5) Advanced main air circulating fan The term advanced main air circulating fan means a fan used in a natural gas, propane, or oil furnace and which has an annual electricity use of no more than 2 percent of the total annual energy use of the furnace (as determined in the standard Department of Energy test procedures). The term advanced main air circulating fan means a fan used in a natural gas, propane, or oil furnace and which has an annual electricity use of no more than 2 percent of the total annual energy use of the furnace (as determined in the standard Department of Energy test procedures). (6) Biomass fuel The term biomass fuel means any plant-derived fuel available on a renewable or recurring basis, including agricultural crops and trees, wood and wood waste and residues (including wood pellets), plants (including aquatic plants), grasses, residues, and fibers. The term biomass fuel means any plant-derived fuel available on a renewable or recurring basis, including agricultural crops and trees, wood and wood waste and residues (including wood pellets), plants (including aquatic plants), grasses, residues, and fibers. (e) Special rules For purposes of this section (1) Application of rules Rules similar to the rules under paragraphs (4), (5), (6), (7), and (8) of section 25D(e) shall apply. (2) Joint ownership of energy items (A) In general Any expenditure otherwise qualifying as an expenditure under this section shall not be treated as failing to so qualify merely because such expenditure was made with respect to two or more dwelling units. (B) Limits applied separately In the case of any expenditure described in subparagraph (A), the amount of the credit allowable under subsection (a) shall (subject to paragraph (1)) be computed separately with respect to the amount of the expenditure made for each dwelling unit. (3) Property financed by subsidized energy financing For purposes of determining the amount of expenditures made by any individual with respect to any property, there shall not be taken into account expenditures which are made from subsidized energy financing (as defined in section 48(a)(4)(C)). (1) Application of rules Rules similar to the rules under paragraphs (4), (5), (6), (7), and (8) of section 25D(e) shall apply. Rules similar to the rules under paragraphs (4), (5), (6), (7), and (8) of section 25D(e) shall apply. (2) Joint ownership of energy items (A) In general Any expenditure otherwise qualifying as an expenditure under this section shall not be treated as failing to so qualify merely because such expenditure was made with respect to two or more dwelling units. (B) Limits applied separately In the case of any expenditure described in subparagraph (A), the amount of the credit allowable under subsection (a) shall (subject to paragraph (1)) be computed separately with respect to the amount of the expenditure made for each dwelling unit. (A) In general Any expenditure otherwise qualifying as an expenditure under this section shall not be treated as failing to so qualify merely because such expenditure was made with respect to two or more dwelling units. Any expenditure otherwise qualifying as an expenditure under this section shall not be treated as failing to so qualify merely because such expenditure was made with respect to two or more dwelling units. (B) Limits applied separately In the case of any expenditure described in subparagraph (A), the amount of the credit allowable under subsection (a) shall (subject to paragraph (1)) be computed separately with respect to the amount of the expenditure made for each dwelling unit. In the case of any expenditure described in subparagraph (A), the amount of the credit allowable under subsection (a) shall (subject to paragraph (1)) be computed separately with respect to the amount of the expenditure made for each dwelling unit. (3) Property financed by subsidized energy financing For purposes of determining the amount of expenditures made by any individual with respect to any property, there shall not be taken into account expenditures which are made from subsidized energy financing (as defined in section 48(a)(4)(C)). For purposes of determining the amount of expenditures made by any individual with respect to any property, there shall not be taken into account expenditures which are made from subsidized energy financing (as defined in section 48(a)(4)(C)). (f) Basis adjustments For purposes of this subtitle, if a credit is allowed under this section for any expenditure with respect to any property, the increase in the basis of such property which would (but for this subsection) result from such expenditure shall be reduced by the amount of the credit so allowed. For purposes of this subtitle, if a credit is allowed under this section for any expenditure with respect to any property, the increase in the basis of such property which would (but for this subsection) result from such expenditure shall be reduced by the amount of the credit so allowed. (g) Termination This section shall not apply with respect to any property placed in service (1) after December 31, 2007 , and before January 1, 2009 , or (2) after December 31, 2016 .. [4] (1) after December 31, 2007 , and before January 1, 2009 , or after December 31, 2007 , and before January 1, 2009 , or (2) after December 31, 2016 .. [4] after December 31, 2016 .. [4]</t>
+  </si>
+  <si>
+    <t>§722. Basis of contributing partners interest The basis of an interest in a partnership acquired by a contribution of property, including money, to the partnership shall be the amount of such money and the adjusted basis of such property to the contributing partner at the time of the contribution increased by the amount (if any) of gain recognized under section 721(b) to the contributing partner at such time.</t>
+  </si>
+  <si>
     <t>term net capital gain means net capital gain, term qualified dividend income means dividends received, term adjusted net capital gain means, including alaska permanent fund dividends, term consumer price index means, term net unearned income means, term allocable parental tax means, married individuals filing joint returns, term 28-percent rate gain means, married individuals filing separate returns, term qualified foreign corporation means, foreign tax credit limitation rules similar, childs net unearned income bears, investment income qualified dividend income, including regulations requiring reporting, net short-term capital loss, adjusted net capital gain, married individuals filing separately, passive foreign investment company, aggregate net unearned income, real estate investment trusts, long-term capital loss carried, term applicable threshold means, maximum capital gains rate, real estate investment trust, total allocable parental tax, comprehensive income tax treaty, higher taxable income bracket, united states securities market, adjusted gross income referred, comparable taxable income amounts, net capital gain, qualified electing fund, consumer price index, long-term capital gain, capital asset held, established securities market, qualified disability trusts, net unearned income, regulated investment company, long-term capital loss, 36 percent rate bracket begins, 6 percent rate bracket begins, regulated investment companies, common trust fund, qualified foreign corporations, qualified disability trust, all-urban consumers published, mutual savings banks, net ordinary losses, allocable parental tax, qualified dividend income, married individual filing, adjusted gross income, 28-percent rate gain, qualified foreign corporation, holding period requirements, individuals taxable income, 12-month period ending, taxable years beginning, 10-percent rate bracket, 35-percent rate bracket, highest rate bracket, single return jointly, maximum taxable income, make related payments, considered earned income, estimated tax payments, 15-percent rate bracket, taxpayers taxable income, terms collectibles gain, dividend rate differential, 1250 gain means, 1202 gain means, 33-percent rate brackets, itemized deductions allowed, computing gross income, parents gross income, maximum dollar amounts, computing taxable income, parents taxable income, subsequent calendar year, succeeding calendar year, taxable income reduced, initial bracket amount, childs taxable year, substituting 121-day period, minimum taxable income, entity means, maximum dollar amount, income tax brackets, taxable income taxed, preceding taxable year, dividend received, preceding calendar year, greater taxable income, stock readily tradable, unearned income, investment income, bracket begins, foreign corporations, 15-percent bracket, rules similar, unmarried individuals, individuals support, term pass-, gross income, substantially similar, rate bracket, term unrecaptured, calendar years, taxable income, parents income, earned income, readily tradable, high-income taxpayers, foreign corporation, ordinary income, collectibles gain, united states, childs return, married individual, 91-day period, applicable threshold, joint return, rate brackets, age requirements, rate applicable, amount referred, domestic corporations, gain excluded, separate return, separate categories, preceding sentence, taxable year, limitation based, parents return, rate reductions, special rules, dollar amounts, collectibles loss, calendar year, calendar year 1992, calendar year 1986, income included, percentage limitation, related property, childs share, extraordinary dividends, applicable percentage, surviving spouses, marriage penalty, special rule, attained age 18, directly connected, unrealized appreciation, information program, dividend paid, tax increases, tax preference, tax computed, amount allowed, dividends taxed, amounts setting, term, dollar amount, dividends excluded, limitations prescribed, net, 15 percent rate, 6 percent rate, dividends paid, corporation exempt, tables contained, parent ending, amount applicable, tax tables, cost-of-living adjustment, surviving spouse, lowest multiple, credit, adjusted, parents tin, tables prescribed, tax imposed, taxpayer takes, inflation adjustment, table contained, standard deduction, secretary determines, applies receives, exceed one-half, short sale, trusts, making adjustments, determining parent, custodial parent, parent making, tax determined, prescribing tables, amounts determined, child itemizes, prescribe tables, entity defined, regulations prescribe, bears</t>
+  </si>
+  <si>
+    <t>taxable years immediately preceding, term surviving spouse means, united states code, taxpayers taxable year, combat zone designated, married individuals living, nonresident alien individual, combat zone, nonresident alien, taxable year, taxable income, surviving spouse, nonresident aliens, special rules, principal place, limitations notwithstanding, joint return, special rule, vietnam conflict, combatant activities, legally separated, separate maintenance, taxes imposed, cross reference, date designated, missing status, deceased spouse, qualifying child, date referred, spouse died, individual remains, individual died</t>
+  </si>
+  <si>
+    <t>term ceiling amount means, ceiling amount defined, tax rate category, annual accounting period, tax table tax, ceiling amount, taxable year, taxable income, preceding sentence, cross reference, tax tables, tax imposed, prescribe tables, rates prescribed, taxpayer falls, individual making, tax determined, tax treated, tables prescribed</t>
+  </si>
+  <si>
+    <t>mutual savings banks conducting life insurance business, real estate investment trusts, qualified personal service corporation, personal service corporations, regulated investment companies, graduated rates notwithstanding, insurance companies, additional amount equal, foreign corporations, taxable year, taxable income, preceding sentence, foregoing provisions, corporation subject, foreign corporation, taxes imposed, tax determined, tax imposed</t>
+  </si>
+  <si>
+    <t>term employment-related expenses means amounts paid, term applicable percentage means 35 percent reduced, term dependent care center means, dependent care centers employment-related expenses, taxpayer exercised due diligence, term educational organization means, term taxable year means, term qualifying individual means, taxpayers adjusted gross income, qualifying individual stays overnight, term student means, dependent care center defined, dependent care center, exception employment-related expenses, special dependency test, earned income limitation, aggregate amount excludable, individual legally separated, applicable percentage defined, taxpayer identification number, dependent care services, individuals earned income, identifying information required, employment-related expenses incurred, taxable year exceeds $15, taxable year beginning, file joint return, married individuals living, applicable percentage, gross income, employment-related expenses, earned income, center complies, 1 percentage point, applicable laws, educational organization, amount paid, joint return, educational institution, special rule, special rules, information required, taxable year, separate return, return claiming, qualifying individuals, gainful employment, fraction thereof, gainfully employed, term, regularly spends, local government, dollar limit, reduced, local law, marital status, separate maintenance, divorced parents, custodial parent, noncustodial parent, personal exemptions, preceding sentence, calendar year, qualifying individual, 1 qualifying individual, amount equal, amount creditable, taxpayers household, principal place, related individuals, mentally incapable, full-time student, providing services, spouse file, 20 percent, tax imposed, 5 calendar months, service provider, services provided, household services, amount determined, married couples, individuals spouse</t>
+  </si>
+  <si>
+    <t>marital status marital status, term disability income means, term qualified individual means, applicable initial amount determined, adjusted gross income limitation, social security act, railroad retirement act, workmens compensation benefits, substantial gainful activity, medically determinable physical, social security benefit, aggregate amount includable, adjusted gross income, disability benefit received, total disability defined, nonresident alien ineligible, marital status, married individual filing, amount constitutes wages, file joint return, spouses disability income, disability benefit, disability income, gross income, total disability, nonresident alien, amounts received, married couple, initial amount, joint return, amount equal, separate return, totally disabled, tax imposed, taxable year, attained age 65, special rules, veterans administration, mental impairment, furnishes proof, existence thereof, qualified individual, single individual, qualified individuals, amount treated, law administered, spouse file, continuous period, taxpayer exceeds, general rule</t>
+  </si>
+  <si>
+    <t>file joint returns rules similar, taxpayers adjusted gross income exceeds $150, term qualified adoption expenses means reasonable, incur qualified adoption expenses, aggregate qualified adoption expenses, term eligible child means, adjusted gross income, year qualified adoption expenses, qualified adoption expenses paid, surrogate parenting arrangement, qualified adoption expenses, taxable year exceeds, treat unmarried individuals, providing adoption assistance, prior taxable years, substituting calendar year 2001, succeeding taxable year, taxable year beginning, taxable year begins, cost-of-living adjustment determined, qualified adoption expense, rules similar, taxable year reduced, income limitation, term child, adoption expenses, taxable years, year credit allowed, calendar year, calendar year 1992, taxable year, aggregate amount, individuals spouse, adoption fees, legal adoption, double benefit, local program, preceding sentence, court costs, attorney fees, directly related, principal purpose, employer program, mentally incapable, specific factor, ethnic background, sibling group, medical conditions, emotional handicaps, united states, foreign adoptions, filing requirements, married couples, information referred, information meeting, including identification, agent assisting, dollar amounts, dollar limitation, limitation imposed, means, eligible child, special rules, carried forward, federal law, adoptive parents, nearest multiple, tax imposed, including regulations, amount equal, dollar amount, attained age 18, include tin, unused credit, credit arose, credits allowable, amount allowable, taxpayer includes, credit allowable, expenses</t>
+  </si>
+  <si>
+    <t>term modified adjusted gross income means adjusted gross income increased, taxpayers modified adjusted gross income exceeds, term social security taxes means, taxpayers making improper prior claims, taxpayers excluding foreign earned income, adjusted gross income, term qualifying child means, taxpayers making prior fraudulent, term social security taxes, term threshold amount means, taxpayers social security taxes, qualifying child identification requirement, taxpayers earned income, social security taxes, term qualifying child, computing taxable income, gross income, amounts paid pursuant, taxpayer identification requirement, taxable year begins, full taxable year, taxable year closed, taxable year covering, recent taxable year, subsequent taxable year, improperly claimed credit, taxpayer identification number, earned income, prior year, aggregate credits allowed, self-employment income, child tax credit, married individual filing, taxpayers claim, qualifying child, identification requirements, foreign affiliates, reckless claims, taxable year, identifying number, qualifying children, taxes imposed, taxes referred, increased, 10 taxable years, 2 taxable years, calendar year, amounts received, threshold amount, fraction thereof, preceding sentence, marital status, attained age 17, united states, special refund, special rule, agreements entered, american employers, final determination, intentional disregard, deficiency procedures, demonstrate eligibility, aggregate amount, credits allowed, tax imposed, amount equal, amount excluded, limitation based, limitation imposed, joint return, separate return, disallowance period, taxpayers, credit refundable, denied credit, taxpayer elects, taxpayer includes, due date</t>
+  </si>
+  <si>
+    <t>term qualified mortgage credit certificate program means, term single family residence includes, term qualified home improvement means, term mortgage credit certificate means, term applicable tax limit means, term nonissued bond amount means, term certificate credit rate means, term excess credit amount means, term certified indebtedness amount means, qualified mortgage credit certificate program, qualified mortgage certificate credit program, certificate credit rate exceeds 20 percent, term qualified mortgage bond, qualified veterans mortgage bond, term credit amount means, constitutional home rule cities, term correction amount means, social security account number, qualified home improvement loan, constitutional home rule city, mortgage credit certificate program, credit rate exceeds 20 percent, issue qualified mortgage bonds, excess credit amount divided, mortgage credit certificates meets, mortgage credit certificate issued, qualified mortgage bond, qualified mortgage bonds, term qualified rehabilitation, qualified home improvement, provide reasonable public notice, mortgage credit certificate, applicable tax limit, nonissued bond amount, qualified rehabilitation loan, mortgage credit certificates, certificate credit rate, private activity bonds, certificate credit rates, certified mortgage indebtedness, taxable year exceeds, reasonable processing fee, certificate relates ceases, excess credit amount, unused credit year, political subdivision thereof, term principal residence, 3 succeeding taxable years, persons hold interests, succeeding taxable year, issuing authority allocates, issuing authority submits, issuing authority made, certified indebtedness amount, satisfies procedural requirements, volume limitations prescribed, purchase price requirement, taxable year determined, taxable year reduced, applicable state ceiling, taxpayers principal residence, issuing authority elects, taxable year ending, home improvement, qualified rehabilitation, unused credit, credit amount, certificate relates, aggregate limit, home mortgages, manufactured home, indebtedness certified, certified indebtedness, special rule, tax imposed, applicable election, correction amount, public notice, credit allowable, political subdivision, program operates, taxable years, certificate invalid, original certificate, reissued certificate, taxable year, issuing authority, credit allowed, respective interests, certification program, certificates issuer, aggregate amount, provide services, program met, calendar year, certificate revoked, remaining principal, related persons, substituting 100 percent, amount equal, term, 3-year requirement, 95-percent requirement, indebtedness incurred, loans required, targeted areas, preceding sentence, outstanding balance, manufactured housing, 400 square feet, living space, kind customarily, fixed location, making determinations, whichever caused, federal subsidy, product determined, products determined, principal residence, interest paid, provide financing, credits allowable, regulations prescribed, state ceiling, extent provided, expenses incurred, exceed 25 percent, rules similar, special rules, minimum width, separate issue, fact met, report showing, provisions increasing, income requirements, eligibility requirements, reporting requirements, total proceeds, limitation imposed, including regulations, interest attributable, home, loan, credit, related person, require recipients, rate, improvement, secretary fails, residence requirements, program</t>
+  </si>
+  <si>
+    <t>term modified adjusted gross income means, taxpayers making improper prior claims, taxpayers modified adjusted gross income, married individuals filing separate returns, normal full-time work load, modified adjusted gross income, term eligible educational institution means, taxpayers making prior fraudulent, state felony offense consisting, term eligible student means, american opportunity tax credit, related expenses means tuition, adjusted gross income, include student activity fees, individuals taxpayer identification number, felony drug offense, individuals taxable year begins, credit made refundable 40 percent, lifetime learning credits, improve job skills, employer identification number, educational assistance allowance, taxpayers spouse file, individuals educational expenses, education involving sports, lifetime learning credit, improperly claimed credit, united states code, individuals degree program, eligible educational institution, hope scholarship credit, 2 prior taxable years, individuals taxable year, higher education act, recent taxable year, subsequent taxable year, cost-of-living adjustment determined, including regulations providing, gross income, taxpayer identification number, payee statement requirement, taxable year beginning, term qualified tuition, substituting calendar year 2000, taxable year begins, academic period beginning, taxable years beginning, related expenses paid, nonresident alien individual, taxable year increased, prior year, hope scholarship, income limits, taxpayers spouse, identification requirement, individuals academic, taxpayers claim, united states, identification numbers, identifying number, qualified scholarship, reckless claims, include expenses, expenses eligible, nonresident aliens, include required, taxable year, calendar year, calendar year 1992, related expenses, substituting tuition, resident alien, individuals enrollment, married individual, academic period, education furnished, postsecondary education, post-secondary education, 2 taxable years, 10 taxable years, eligible student, insurance expenses, expenses unrelated, qualified tuition, credit allowable, denied credit, fees required, nonacademic fees, athletic fees, expenses paid, applicable limit, limitations applicable, controlled substance, limitation based, inflation adjustments, dollar limitation, agi limits, preceding sentence, final determination, intentional disregard, deficiency procedures, demonstrate eligibility, period ends, disallowance period, student credit, ½ time student, statement furnished, joint return, adjusted, amount equal, dollar amount, amount excluded, double benefit, lowest multiple, determining expenses, tax imposed, information required, taxpayer credit, special rules, credit allowed, amount determined, taxpayer includes, taxpayer receives, student convicted, taxpayers, amounts paid</t>
+  </si>
+  <si>
+    <t>term qualified retirement savings contributions means, qualified retirement savings contributions determined, qualified retirement savings contribution, qualified retirement savings contributions, term eligible individual means, eligible deferred compensation plan, individuals taxable year begins, qualified retirement plan, qualified retirement contributions, voluntary employee contributions, term eligible individual, taxable year begins, adjusted gross income, 2 preceding taxable years, cost-of-living adjustment determined, taxable year beginning, aggregate distributions received, determining distributions received, dollar amount equal, substituting calendar year 2005, gross income, ira contributions, taxable year, inflation adjustment, eligible employer, amount equal, distributions received, calendar year, calendar year 1992, preceding sentence, excepted distributions, dollar amounts, dollar amount, increase determined, elective deferrals, applicable percentage, nearest multiple, full-time students, elective deferral, trustee-to-trustee transfer, due date, including extensions, eligible individual, distribution received, testing period, joint return, spouse file, spouse receives, joint returns, rollover distribution, distribution referred, individuals, contributions, tax imposed</t>
+  </si>
+  <si>
+    <t>term advanced main air circulating fan means, term residential energy property expenditures means expenditures made, term energy efficient building envelope component means, term qualified energy efficiency improvements means, advanced main air circulating fan, term building envelope component means, term energy-efficient building property means, term qualified energy property means, applicable energy star program requirements, energy efficient building envelope component, annual fuel utilization efficiency rate, residential energy property expenditures paid, qualified energy efficiency improvements installed, electric heat pump water heater, term biomass fuel means, labor costs properly allocable, residential energy property expenditures, qualified energy efficiency improvements, 0 energy star program requirements, hot water boiler means, highest efficiency tier established, term qualified natural gas, 2009 international energy conservation code, term dwelling unit includes, prior taxable years ending, term includes expenditures, building envelope component, federal manufactured home construction, electric heat pump, energy-efficient building property, qualified energy property, central air conditioner, total annual energy, energy efficiency ratio, hot water boiler, energy test procedure, energy test procedures, subsidized energy financing, oil water heater, central air conditioners, qualified natural gas, nonbusiness energy property, manufactured homes included, environmental protection agency, reinvestment tax act, thermal efficiency rating, electric heat pumps, including agricultural crops, limits applied separately, taxpayers principal residence, aggregate credits allowed, dwelling unit located, including wood pellets, including aquatic plants, quality standards property, rules rules similar, asphalt roof installed, energy efficiency, expenditures made, air conditioners, account expenditures, manufactured home, component established, air conditioning, thermal efficiency, heat water, biomass fuel, energy factor, energy items, natural gas, annual electricity, certification requirements, heat pumps, plant-derived fuel, dwelling unit, tax imposed, rules similar, property financed, fan, component commences, including supplements, including skylights, heat loss, taxable year, computed separately, dwelling units, federal regulations, requirements prescribed, amounts paid, quality standards, amount paid, special rules, oil furnace, united states, exterior window, exterior door, prescriptive criteria, american recovery, insulation material, primarily designed, exterior doors, pigmented coatings, cooling granules, heat gain, onsite preparation, require measurements, published data, 95 degrees fahrenheit, certified data, refrigeration institute, standard department, wood waste, joint ownership, roof products, metal roof, safety standards, credit allowed, exterior windows, recurring basis, credit allowable, basis adjustments, lifetime limitation, expenditure made, energy, original installation, amount equal, requirements</t>
+  </si>
+  <si>
+    <t>contributing partners interest, contributing partner, gain recognized, partnership acquired, including money, contribution increased, adjusted basis</t>
   </si>
 </sst>
 </file>
@@ -489,13 +603,13 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -512,13 +626,13 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -535,13 +649,13 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -555,16 +669,16 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -578,16 +692,16 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -601,16 +715,16 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -624,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -647,16 +761,16 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -670,16 +784,16 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -693,16 +807,16 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -716,16 +830,16 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -739,16 +853,16 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -762,16 +876,16 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
